--- a/Codelist Excel Files and Conversion Templates to XML/DIGGSProp.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/DIGGSProp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/diggs-dictionaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344E2144-BAE4-3F44-9E84-1909B2740D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3AA559-5FC4-2D4A-B9BD-940E3EED5316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8740" yWindow="1120" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8740" yWindow="1120" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="778">
   <si>
     <t>Description</t>
   </si>
@@ -2335,13 +2335,49 @@
   <si>
     <t xml:space="preserve">This dictionary contains the values for the propertyClass property of the diggs:Property object and the measurand property of the diggs:Detector object when used within the Test and Monitor DIGGS features. These values serve to define the ultimate results of geotechnical and environmental tests and monitoring activities that result from test procedures and monitoring sensors. The Xpaths to these occurrences are: 1) //diggs:Property/diggs:propertyClass (for Test, MaterialTest or Monitor) 2)//diggs:Detector/diggs:measurand (for measurand).
  </t>
+  </si>
+  <si>
+    <t>//diggs_geo:AggregateSoundnessTest</t>
+  </si>
+  <si>
+    <t>//diggs_geo:CationExhangeTest</t>
+  </si>
+  <si>
+    <t>//diggs_geo:InSituResistivityTest</t>
+  </si>
+  <si>
+    <t>//diggs_geo:LabVelocityTest</t>
+  </si>
+  <si>
+    <t>//diggs_geo:LinearShrinkageTest</t>
+  </si>
+  <si>
+    <t>//diggs_geo:MicroDevalTest</t>
+  </si>
+  <si>
+    <t>shear_velocity</t>
+  </si>
+  <si>
+    <t>The velocity of a shear wave (Vs); a shear wave is a type of seismic wave in which the particle motion is perpendicular to the direction of propagation in a horizontal plane ; also called S-wave or secondary wave.</t>
+  </si>
+  <si>
+    <t>Shear Velocity</t>
+  </si>
+  <si>
+    <t>p_wave_velocity</t>
+  </si>
+  <si>
+    <t>Primary Compression Wave Velocity</t>
+  </si>
+  <si>
+    <t>The velocity of a p-wave (Vp). P-waves (primary waves) are compressional waves that are longitudinal in nature.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2448,6 +2484,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF211E1E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2498,7 +2541,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2531,6 +2574,20 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2546,6 +2603,29 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2629,29 +2709,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2732,37 +2789,40 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H157" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:H157" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Definitions" displayName="Definitions" ref="A1:H159" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:H159" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H159">
+    <sortCondition ref="C1:C159"/>
+  </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="12">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3042,1,FALSE)),"Not used","")</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="3">
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3039,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D218" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:D218" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D213">
-    <sortCondition ref="B1:B213"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D233" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:D233" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D233">
+    <sortCondition ref="B1:B233"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="7">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3050,7 +3110,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3114,10 +3174,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3161,13 +3221,13 @@
     </row>
     <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3042,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B2" t="s">
+        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3039,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="12" t="s">
         <v>455</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -3182,7 +3242,7 @@
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B3043,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B3040,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B3" s="2" t="s">
@@ -3203,7 +3263,7 @@
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B3044,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B3041,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B4" s="2" t="s">
@@ -3224,7 +3284,7 @@
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B3042,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B5" s="2" t="s">
@@ -3245,7 +3305,7 @@
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B3046,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B3043,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B6" s="2" t="s">
@@ -3266,7 +3326,7 @@
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B3047,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B3044,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B7" s="13" t="s">
@@ -3287,7 +3347,7 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B3048,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B8" s="13" t="s">
@@ -3308,7 +3368,7 @@
     </row>
     <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B3049,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B3046,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B9" s="13" t="s">
@@ -3329,7 +3389,7 @@
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B3047,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B10" s="13" t="s">
@@ -3352,7 +3412,7 @@
     </row>
     <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B3051,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B3048,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B11" s="13" t="s">
@@ -3375,7 +3435,7 @@
     </row>
     <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B3049,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B12" s="13" t="s">
@@ -3396,226 +3456,218 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B3053,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B3167,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B13" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D14" s="14" t="s">
         <v>666</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="13" t="s">
+      <c r="E14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>3</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B3054,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>667</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>19</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B3055,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B3051,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B15" s="13" t="s">
-        <v>313</v>
+        <v>422</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B3168,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B16" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B3053,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D17" s="14" t="s">
         <v>669</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="E17" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>3</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B3057,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>670</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>197</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B3058,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B3189,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B18" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>671</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>648</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B3059,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B3190,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B19" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>650</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>672</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="13" t="s">
+      <c r="E20" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B3060,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>673</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>28</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B3061,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B3057,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B21" s="13" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B3062,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B3058,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B22" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>1</v>
@@ -3626,65 +3678,65 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B3063,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B3059,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B23" s="13" t="s">
-        <v>293</v>
+        <v>353</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B3064,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B3062,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B24" s="13" t="s">
-        <v>267</v>
+        <v>354</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B3065,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B3063,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B25" s="13" t="s">
-        <v>354</v>
+        <v>294</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>1</v>
@@ -3695,32 +3747,32 @@
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
     </row>
-    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B3066,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B3060,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B26" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B3067,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B3064,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B27" s="13" t="s">
@@ -3743,7 +3795,7 @@
     </row>
     <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B3068,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B3065,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B28" s="13" t="s">
@@ -3764,48 +3816,46 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B3069,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B3068,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B29" s="13" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B3070,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B3061,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B30" s="13" t="s">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
@@ -3816,192 +3866,196 @@
         <v/>
       </c>
       <c r="B31" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B3072,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B32" s="13" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F32" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B3075,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B3076,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B3073,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>686</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>687</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B3075,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>688</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B3076,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B3054,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B36" s="13" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>689</v>
+        <v>670</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F36" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B3055,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B3179,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B3077,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>690</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B3078,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>691</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B3079,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B3091,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B39" s="13" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B3080,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B3077,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B40" s="13" t="s">
@@ -4020,9 +4074,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B41,AssociatedElements!B$2:B3081,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B41,AssociatedElements!B$2:B3078,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B41" s="13" t="s">
@@ -4041,9 +4095,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B42,AssociatedElements!B$2:B3082,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B42,AssociatedElements!B$2:B3079,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B42" s="13" t="s">
@@ -4062,9 +4116,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B43,AssociatedElements!B$2:B3083,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B43,AssociatedElements!B$2:B3080,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B43" s="13" t="s">
@@ -4083,9 +4137,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B44,AssociatedElements!B$2:B3084,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B44,AssociatedElements!B$2:B3081,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B44" s="13" t="s">
@@ -4104,124 +4158,126 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B45,AssociatedElements!B$2:B3085,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B45,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B45" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B3085,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B3148,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B48,AssociatedElements!B$2:B3082,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C48" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D48" s="14" t="s">
         <v>698</v>
       </c>
-      <c r="E45" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F45" s="13" t="s">
+      <c r="E48" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B3086,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B46" s="13" t="s">
+    <row r="49" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B49,AssociatedElements!B$2:B3083,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B49" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C49" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D49" s="14" t="s">
         <v>699</v>
       </c>
-      <c r="E46" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F46" s="13" t="s">
+      <c r="E49" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B3087,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B47" s="13" t="s">
+    <row r="50" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B50,AssociatedElements!B$2:B3084,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B50" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C50" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D50" s="14" t="s">
         <v>700</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B48,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>701</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B49,AssociatedElements!B$2:B3089,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>702</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B50,AssociatedElements!B$2:B3090,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>703</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>1</v>
@@ -4230,292 +4286,294 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B51,AssociatedElements!B$2:B3091,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B51,AssociatedElements!B$2:B3139,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B51" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B52,AssociatedElements!B$2:B3140,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B53,AssociatedElements!B$2:B3191,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B54,AssociatedElements!B$2:B3192,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>654</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B55,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B55" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C55" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D55" s="14" t="s">
         <v>704</v>
       </c>
-      <c r="E51" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F51" s="13" t="s">
+      <c r="E55" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B52,AssociatedElements!B$2:B3092,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B52" s="13" t="s">
+    <row r="56" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B56,AssociatedElements!B$2:B3089,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B56" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D56" s="14" t="s">
         <v>705</v>
       </c>
-      <c r="E52" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F52" s="13" t="s">
+      <c r="E56" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B53,AssociatedElements!B$2:B3093,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B53" s="13" t="s">
+    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B57,AssociatedElements!B$2:B3090,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B57" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C57" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D57" s="14" t="s">
         <v>706</v>
       </c>
-      <c r="E53" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F53" s="13" t="s">
+      <c r="E57" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B54,AssociatedElements!B$2:B3094,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>707</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B55,AssociatedElements!B$2:B3095,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>708</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B56,AssociatedElements!B$2:B3096,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>709</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B57,AssociatedElements!B$2:B3097,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B57" s="13" t="s">
+    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B58,AssociatedElements!B$2:B3094,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B58" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C58" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D58" s="14" t="s">
         <v>710</v>
       </c>
-      <c r="E57" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F57" s="13" t="s">
+      <c r="E58" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B58,AssociatedElements!B$2:B3098,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B58" s="13" t="s">
+    <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B59,AssociatedElements!B$2:B3095,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B59" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C59" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D59" s="14" t="s">
         <v>711</v>
       </c>
-      <c r="E58" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F58" s="13" t="s">
+      <c r="E59" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B59,AssociatedElements!B$2:B3099,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B59" s="13" t="s">
+    <row r="60" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B60,AssociatedElements!B$2:B3096,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D60" s="14" t="s">
         <v>712</v>
       </c>
-      <c r="E59" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F59" s="13" t="s">
+      <c r="E60" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B60,AssociatedElements!B$2:B3100,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B60" s="13" t="s">
+    <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B61,AssociatedElements!B$2:B3097,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B61" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D61" s="14" t="s">
         <v>713</v>
       </c>
-      <c r="E60" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F60" s="13" t="s">
+      <c r="E61" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B61,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B61" s="13" t="s">
+    <row r="62" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B62,AssociatedElements!B$2:B3066,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+    </row>
+    <row r="63" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B63,AssociatedElements!B$2:B3098,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B63" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D63" s="14" t="s">
         <v>714</v>
       </c>
-      <c r="E61" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F61" s="13" t="s">
+      <c r="E63" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B62,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B62" s="13" t="s">
+    <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B64,AssociatedElements!B$2:B3099,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B64" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D64" s="14" t="s">
         <v>715</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B63,AssociatedElements!B$2:B3103,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>512</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>716</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B64,AssociatedElements!B$2:B3104,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>717</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>1</v>
@@ -4526,7 +4584,7 @@
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B65,AssociatedElements!B$2:B3105,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B65,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B65" s="13" t="s">
@@ -4545,40 +4603,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B66,AssociatedElements!B$2:B3106,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B66,AssociatedElements!B$2:B3105,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B66" s="13" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>515</v>
+        <v>403</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B67,AssociatedElements!B$2:B3107,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B67,AssociatedElements!B$2:B3106,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B67" s="13" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>1</v>
@@ -4589,59 +4647,59 @@
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B68,AssociatedElements!B$2:B3108,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B68,AssociatedElements!B$2:B3107,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B68" s="13" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>403</v>
+        <v>519</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B69,AssociatedElements!B$2:B3109,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B69,AssociatedElements!B$2:B3108,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B69" s="13" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B70,AssociatedElements!B$2:B3110,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B70,AssociatedElements!B$2:B3109,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B70" s="13" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>1</v>
@@ -4652,17 +4710,17 @@
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B71,AssociatedElements!B$2:B3111,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B71,AssociatedElements!B$2:B3110,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B71" s="13" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>1</v>
@@ -4673,38 +4731,38 @@
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B72,AssociatedElements!B$2:B3112,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B72,AssociatedElements!B$2:B3111,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B72" s="13" t="s">
-        <v>429</v>
+        <v>255</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B73,AssociatedElements!B$2:B3113,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B73" s="13" t="s">
-        <v>430</v>
+        <v>257</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>1</v>
@@ -4713,61 +4771,61 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B74,AssociatedElements!B$2:B3114,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B74,AssociatedElements!B$2:B3115,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B74" s="13" t="s">
-        <v>255</v>
+        <v>431</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B75,AssociatedElements!B$2:B3115,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B75,AssociatedElements!B$2:B3116,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B75" s="13" t="s">
-        <v>256</v>
+        <v>433</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B76,AssociatedElements!B$2:B3116,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B76,AssociatedElements!B$2:B3117,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B76" s="13" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>1</v>
@@ -4776,40 +4834,40 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B77,AssociatedElements!B$2:B3117,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B77,AssociatedElements!B$2:B3086,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B77" s="13" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>730</v>
+        <v>702</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B78,AssociatedElements!B$2:B3118,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B78" s="13" t="s">
-        <v>431</v>
+        <v>349</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>1</v>
@@ -4820,41 +4878,41 @@
     </row>
     <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B79,AssociatedElements!B$2:B3119,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B79,AssociatedElements!B$2:B3121,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B79" s="13" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>1</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B80,AssociatedElements!B$2:B3120,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B80,AssociatedElements!B$2:B3122,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B80" s="13" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="F80" s="13" t="s">
         <v>10</v>
@@ -4862,206 +4920,206 @@
     </row>
     <row r="81" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B81,AssociatedElements!B$2:B3121,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B81,AssociatedElements!B$2:B3123,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B81" s="13" t="s">
-        <v>349</v>
+        <v>282</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="F81" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B82,AssociatedElements!B$2:B3122,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B82,AssociatedElements!B$2:B3124,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B82" s="13" t="s">
-        <v>381</v>
+        <v>283</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B83,AssociatedElements!B$2:B3123,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B83,AssociatedElements!B$2:B3187,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B83" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>532</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>736</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>646</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B84,AssociatedElements!B$2:B3124,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B84,AssociatedElements!B$2:B3125,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B84" s="13" t="s">
-        <v>436</v>
+        <v>258</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B85,AssociatedElements!B$2:B3125,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B85,AssociatedElements!B$2:B3188,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B85" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>534</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>738</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>763</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B86,AssociatedElements!B$2:B3126,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B86,AssociatedElements!B$2:B3114,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B86" s="13" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B87,AssociatedElements!B$2:B3127,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B87,AssociatedElements!B$2:B3112,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B87" s="13" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>180</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B88,AssociatedElements!B$2:B3128,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B88,AssociatedElements!B$2:B3126,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B88" s="13" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="F88" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B89,AssociatedElements!B$2:B3129,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B89,AssociatedElements!B$2:B3127,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B89" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="D89" s="14" t="s">
-        <v>742</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>10</v>
+        <v>300</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B90,AssociatedElements!B$2:B3130,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B90,AssociatedElements!B$2:B3128,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B90" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>539</v>
+        <v>301</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>540</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E90" s="16" t="s">
         <v>1</v>
@@ -5072,17 +5130,17 @@
     </row>
     <row r="91" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B91,AssociatedElements!B$2:B3131,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B91,AssociatedElements!B$2:B3129,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B91" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>540</v>
+        <v>302</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>541</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>1</v>
@@ -5091,290 +5149,290 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B92,AssociatedElements!B$2:B3132,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B92,AssociatedElements!B$2:B3092,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B92" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>541</v>
-      </c>
-      <c r="D92" s="17" t="s">
-        <v>746</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F92" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B93,AssociatedElements!B$2:B3069,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F93" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B93,AssociatedElements!B$2:B3133,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>542</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>543</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F93" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B94,AssociatedElements!B$2:B3134,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B94,AssociatedElements!B$2:B3154,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B94" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>544</v>
+        <v>337</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>584</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>747</v>
-      </c>
-      <c r="E94" s="16"/>
+        <v>585</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>1</v>
+      </c>
       <c r="F94" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B95,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B95,AssociatedElements!B$2:B3155,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B95" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>743</v>
+        <v>305</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>586</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>545</v>
+        <v>750</v>
       </c>
       <c r="E95" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B96,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B96,AssociatedElements!B$2:B3130,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B96" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>328</v>
+        <v>361</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>542</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E96" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B97,AssociatedElements!B$2:B3137,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B97,AssociatedElements!B$2:B3131,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B97" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>547</v>
+        <v>362</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>544</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>1</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="E97" s="16"/>
       <c r="F97" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B98,AssociatedElements!B$2:B3138,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B98,AssociatedElements!B$2:B3132,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B98" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>549</v>
+        <v>363</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>743</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="F98" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B99,AssociatedElements!B$2:B3139,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B99,AssociatedElements!B$2:B3133,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B99" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>551</v>
+        <v>328</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>328</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="F99" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B100,AssociatedElements!B$2:B3140,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B100,AssociatedElements!B$2:B3134,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B100" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>553</v>
+        <v>365</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>547</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>517</v>
+        <v>548</v>
       </c>
       <c r="E100" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B101,AssociatedElements!B$2:B3141,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B101,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B101" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>554</v>
+        <v>259</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>549</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="F101" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B102,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F102" s="16" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B102,AssociatedElements!B$2:B3142,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>556</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>748</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F102" s="16" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B103,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B103,AssociatedElements!B$2:B3137,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B103" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>557</v>
+        <v>371</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>553</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>558</v>
+        <v>517</v>
       </c>
       <c r="E103" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B104,AssociatedElements!B$2:B3144,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B104,AssociatedElements!B$2:B3138,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B104" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>559</v>
+        <v>419</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>554</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E104" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B105,AssociatedElements!B$2:B3145,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B105,AssociatedElements!B$2:B3141,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B105" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>561</v>
+        <v>404</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>559</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E105" s="16" t="s">
         <v>1</v>
@@ -5385,17 +5443,17 @@
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B106,AssociatedElements!B$2:B3146,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B106,AssociatedElements!B$2:B3142,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B106" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>563</v>
+        <v>405</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>561</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E106" s="16" t="s">
         <v>1</v>
@@ -5404,19 +5462,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="119" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B107,AssociatedElements!B$2:B3147,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B107,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B107" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>565</v>
+        <v>406</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>563</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>749</v>
+        <v>564</v>
       </c>
       <c r="E107" s="16" t="s">
         <v>1</v>
@@ -5425,82 +5483,82 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B108,AssociatedElements!B$2:B3148,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B108,AssociatedElements!B$2:B3144,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B108" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>749</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F108" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B109,AssociatedElements!B$2:B3145,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B109" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="C108" s="16" t="s">
+      <c r="C109" s="21" t="s">
         <v>566</v>
       </c>
-      <c r="D108" s="17" t="s">
+      <c r="D109" s="17" t="s">
         <v>567</v>
       </c>
-      <c r="E108" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F108" s="16" t="s">
+      <c r="E109" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F109" s="16" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B109,AssociatedElements!B$2:B3149,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B109" s="13" t="s">
+    <row r="110" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A110" s="22" t="str">
+        <f>IF(ISNA(VLOOKUP(B110,AssociatedElements!B$2:B3196,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="D110" s="23" t="s">
+        <v>777</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B111,AssociatedElements!B$2:B3146,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B111" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="C109" s="16" t="s">
+      <c r="C111" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="D109" s="17" t="s">
+      <c r="D111" s="17" t="s">
         <v>569</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F109" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B110,AssociatedElements!B$2:B3150,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>570</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>571</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F110" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B111,AssociatedElements!B$2:B3151,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>572</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>573</v>
       </c>
       <c r="E111" s="16" t="s">
         <v>1</v>
@@ -5509,250 +5567,250 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B112,AssociatedElements!B$2:B3152,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B112,AssociatedElements!B$2:B3147,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B112" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>574</v>
+        <v>384</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>570</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E112" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B113,AssociatedElements!B$2:B3153,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B113,AssociatedElements!B$2:B3093,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B113" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>577</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F113" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B114,AssociatedElements!B$2:B3154,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B114,AssociatedElements!B$2:B3070,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B114" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>578</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>579</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F114" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F114" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B115,AssociatedElements!B$2:B3155,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B115,AssociatedElements!B$2:B3156,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B115" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="C115" s="16" t="s">
-        <v>580</v>
+        <v>306</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>587</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>581</v>
+        <v>751</v>
       </c>
       <c r="E115" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B116,AssociatedElements!B$2:B3156,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B116,AssociatedElements!B$2:B3149,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B116" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>582</v>
+        <v>340</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>574</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="E116" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F116" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B117,AssociatedElements!B$2:B3157,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B117,AssociatedElements!B$2:B3150,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B117" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>584</v>
+        <v>386</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>576</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="E117" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B118,AssociatedElements!B$2:B3158,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B118,AssociatedElements!B$2:B3151,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B118" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>586</v>
+        <v>388</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>578</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>750</v>
+        <v>579</v>
       </c>
       <c r="E118" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B119,AssociatedElements!B$2:B3159,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B119,AssociatedElements!B$2:B3152,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B119" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>587</v>
+        <v>323</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>580</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>751</v>
+        <v>581</v>
       </c>
       <c r="E119" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B120,AssociatedElements!B$2:B3160,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B120,AssociatedElements!B$2:B3153,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B120" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>588</v>
+        <v>441</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>582</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="E120" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B121,AssociatedElements!B$2:B3161,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B121,AssociatedElements!B$2:B3119,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B121" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>591</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F121" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B122,AssociatedElements!B$2:B3162,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B122" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>593</v>
-      </c>
-      <c r="E122" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="F122" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="E121" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F121" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A122" s="22" t="str">
+        <f>IF(ISNA(VLOOKUP(B122,AssociatedElements!B$2:B3195,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D122" s="23" t="s">
+        <v>773</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B123,AssociatedElements!B$2:B3163,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B123,AssociatedElements!B$2:B3157,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B123" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>594</v>
+        <v>390</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>588</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="E123" s="16" t="s">
         <v>1</v>
@@ -5761,164 +5819,166 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B124,AssociatedElements!B$2:B3164,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B124,AssociatedElements!B$2:B3158,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B124" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>591</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F124" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B125,AssociatedElements!B$2:B3159,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>592</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>593</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F125" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B126,AssociatedElements!B$2:B3160,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F126" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B127,AssociatedElements!B$2:B3104,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B128,AssociatedElements!B$2:B3161,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B128" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="C124" s="16" t="s">
+      <c r="C128" s="21" t="s">
         <v>596</v>
       </c>
-      <c r="D124" s="17" t="s">
+      <c r="D128" s="17" t="s">
         <v>597</v>
       </c>
-      <c r="E124" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F124" s="16" t="s">
+      <c r="E128" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F128" s="16" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B125,AssociatedElements!B$2:B3165,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B125" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>598</v>
-      </c>
-      <c r="D125" s="17" t="s">
-        <v>599</v>
-      </c>
-      <c r="E125" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F125" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B126,AssociatedElements!B$2:B3166,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B126" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>600</v>
-      </c>
-      <c r="D126" s="17" t="s">
-        <v>601</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F126" s="16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B127,AssociatedElements!B$2:B3167,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B127" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>602</v>
-      </c>
-      <c r="D127" s="17" t="s">
-        <v>603</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F127" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B128,AssociatedElements!B$2:B3168,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B128" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="C128" s="16" t="s">
-        <v>604</v>
-      </c>
-      <c r="D128" s="17" t="s">
-        <v>605</v>
-      </c>
-      <c r="E128" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F128" s="16" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B129,AssociatedElements!B$2:B3169,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B129,AssociatedElements!B$2:B3162,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B129" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>606</v>
+        <v>407</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>598</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F129" s="16"/>
-    </row>
-    <row r="130" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="F129" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B130,AssociatedElements!B$2:B3170,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B130,AssociatedElements!B$2:B3163,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B130" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>608</v>
+        <v>445</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>600</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="E130" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F130" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B131,AssociatedElements!B$2:B3171,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B131,AssociatedElements!B$2:B3164,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B131" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>610</v>
+        <v>408</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>602</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="E131" s="16" t="s">
         <v>1</v>
@@ -5927,250 +5987,248 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B132,AssociatedElements!B$2:B3172,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B132,AssociatedElements!B$2:B3165,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B132" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>612</v>
+        <v>414</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>604</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>752</v>
+        <v>605</v>
       </c>
       <c r="E132" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F132" s="16" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B133,AssociatedElements!B$2:B3173,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B133,AssociatedElements!B$2:B3166,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B133" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F133" s="16"/>
+    </row>
+    <row r="134" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B134,AssociatedElements!B$2:B3169,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>612</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>752</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F134" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B135,AssociatedElements!B$2:B3170,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B135" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="C133" s="16" t="s">
+      <c r="C135" s="21" t="s">
         <v>613</v>
       </c>
-      <c r="D133" s="17" t="s">
+      <c r="D135" s="17" t="s">
         <v>614</v>
       </c>
-      <c r="E133" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F133" s="16" t="s">
+      <c r="E135" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F135" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B134,AssociatedElements!B$2:B3174,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B134" s="13" t="s">
+    <row r="136" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B136,AssociatedElements!B$2:B3172,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>618</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F136" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B137,AssociatedElements!B$2:B3171,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B137" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="C134" s="16" t="s">
+      <c r="C137" s="21" t="s">
         <v>615</v>
       </c>
-      <c r="D134" s="17" t="s">
+      <c r="D137" s="17" t="s">
         <v>616</v>
       </c>
-      <c r="E134" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F134" s="16" t="s">
+      <c r="E137" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F137" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B135,AssociatedElements!B$2:B3175,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B135" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>617</v>
-      </c>
-      <c r="D135" s="17" t="s">
-        <v>618</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F135" s="16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B136,AssociatedElements!B$2:B3176,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B136" s="13" t="s">
+    <row r="138" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B138,AssociatedElements!B$2:B3173,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B138" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="C136" s="16" t="s">
+      <c r="C138" s="21" t="s">
         <v>619</v>
       </c>
-      <c r="D136" s="17" t="s">
+      <c r="D138" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="E136" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F136" s="16" t="s">
+      <c r="E138" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F138" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B137,AssociatedElements!B$2:B3177,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B137" s="13" t="s">
+    <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B139,AssociatedElements!B$2:B3174,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B139" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="C137" s="16" t="s">
+      <c r="C139" s="21" t="s">
         <v>621</v>
       </c>
-      <c r="D137" s="17" t="s">
+      <c r="D139" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="E137" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F137" s="16" t="s">
+      <c r="E139" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F139" s="16" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B138,AssociatedElements!B$2:B3178,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B138" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>623</v>
-      </c>
-      <c r="D138" s="17" t="s">
-        <v>624</v>
-      </c>
-      <c r="E138" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="F138" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B139,AssociatedElements!B$2:B3179,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B139" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>625</v>
-      </c>
-      <c r="D139" s="17" t="s">
-        <v>753</v>
-      </c>
-      <c r="E139" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F139" s="16" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B140,AssociatedElements!B$2:B3180,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B140,AssociatedElements!B$2:B3175,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B140" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>626</v>
+        <v>249</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>623</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="F140" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B141,AssociatedElements!B$2:B3181,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B141,AssociatedElements!B$2:B3176,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B141" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>628</v>
+        <v>308</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>625</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>629</v>
+        <v>753</v>
       </c>
       <c r="E141" s="16" t="s">
         <v>1</v>
       </c>
       <c r="F141" s="16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B142,AssociatedElements!B$2:B3182,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B142,AssociatedElements!B$2:B3177,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B142" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>630</v>
+        <v>25</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>626</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B143,AssociatedElements!B$2:B3183,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B143,AssociatedElements!B$2:B3178,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B143" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>632</v>
+        <v>410</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>628</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E143" s="16" t="s">
         <v>1</v>
@@ -6179,292 +6237,336 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(B144,AssociatedElements!B$2:B3184,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B144" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>640</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F144" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B145,AssociatedElements!B$2:B3180,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="C145" s="21" t="s">
+        <v>632</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F145" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B146,AssociatedElements!B$2:B3073,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F146" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B147,AssociatedElements!B$2:B3103,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F147" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B148,AssociatedElements!B$2:B3181,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B148" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="C144" s="16" t="s">
+      <c r="C148" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="D144" s="17" t="s">
+      <c r="D148" s="17" t="s">
         <v>635</v>
       </c>
-      <c r="E144" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F144" s="16" t="s">
+      <c r="E148" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F148" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B145,AssociatedElements!B$2:B3185,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B145" s="13" t="s">
+    <row r="149" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B149,AssociatedElements!B$2:B3182,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B149" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="C145" s="16" t="s">
+      <c r="C149" s="21" t="s">
         <v>636</v>
       </c>
-      <c r="D145" s="17" t="s">
+      <c r="D149" s="17" t="s">
         <v>637</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F145" s="16"/>
-    </row>
-    <row r="146" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B146,AssociatedElements!B$2:B3186,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B146" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>638</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>639</v>
-      </c>
-      <c r="E146" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F146" s="16"/>
-    </row>
-    <row r="147" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B147,AssociatedElements!B$2:B3187,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B147" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>640</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>641</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F147" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B148,AssociatedElements!B$2:B3188,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B148" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>642</v>
-      </c>
-      <c r="D148" s="17" t="s">
-        <v>643</v>
-      </c>
-      <c r="E148" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="F148" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B149,AssociatedElements!B$2:B3189,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B149" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="C149" s="16" t="s">
-        <v>644</v>
-      </c>
-      <c r="D149" s="17" t="s">
-        <v>645</v>
       </c>
       <c r="E149" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F149" s="16"/>
     </row>
-    <row r="150" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B150,AssociatedElements!B$2:B3190,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B150,AssociatedElements!B$2:B3183,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B150" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>646</v>
+        <v>263</v>
+      </c>
+      <c r="C150" s="21" t="s">
+        <v>638</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F150" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F150" s="16"/>
+    </row>
+    <row r="151" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B151,AssociatedElements!B$2:B3191,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B151,AssociatedElements!B$2:B3067,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B151" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>763</v>
-      </c>
-      <c r="D151" s="17" t="s">
-        <v>754</v>
-      </c>
-      <c r="E151" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F151" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="D151" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="E151" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F151" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G151" s="13"/>
+      <c r="H151" s="13"/>
+    </row>
+    <row r="152" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B152,AssociatedElements!B$2:B3192,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B152,AssociatedElements!B$2:B3087,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B152" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="D152" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="E152" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F152" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B153,AssociatedElements!B$2:B3185,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C153" s="21" t="s">
+        <v>642</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="E153" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F153" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B154,AssociatedElements!B$2:B3186,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="C154" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="D154" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="E154" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F154" s="16"/>
+    </row>
+    <row r="155" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B155,AssociatedElements!B$2:B3189,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B155" s="13" t="s">
         <v>757</v>
       </c>
-      <c r="C152" s="13" t="s">
+      <c r="C155" s="13" t="s">
         <v>758</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D155" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="E152" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F152" s="13" t="s">
+      <c r="E155" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F155" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B153,AssociatedElements!B$2:B3192,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B153" s="13" t="s">
+    <row r="156" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B156,AssociatedElements!B$2:B3189,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B156" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="C153" s="13" t="s">
+      <c r="C156" s="13" t="s">
         <v>760</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D156" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="E153" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F153" s="13" t="s">
+      <c r="E156" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F156" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B154,AssociatedElements!B$2:B3192,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B154" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="C154" s="16" t="s">
-        <v>648</v>
-      </c>
-      <c r="D154" s="17" t="s">
-        <v>649</v>
-      </c>
-      <c r="E154" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F154" s="16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B155,AssociatedElements!B$2:B3193,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B155" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>650</v>
-      </c>
-      <c r="D155" s="17" t="s">
-        <v>651</v>
-      </c>
-      <c r="E155" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F155" s="16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B156,AssociatedElements!B$2:B3194,1,FALSE)),"Not used","")</f>
-        <v/>
-      </c>
-      <c r="B156" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="C156" s="16" t="s">
-        <v>652</v>
-      </c>
-      <c r="D156" s="17" t="s">
-        <v>653</v>
-      </c>
-      <c r="E156" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F156" s="16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B157,AssociatedElements!B$2:B3195,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B157,AssociatedElements!B$2:B3100,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B157" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="C157" s="16" t="s">
-        <v>654</v>
-      </c>
-      <c r="D157" s="17" t="s">
-        <v>655</v>
-      </c>
-      <c r="E157" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F157" s="16" t="s">
-        <v>2</v>
+        <v>401</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="D157" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="E157" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F157" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B158,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="D158" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="E158" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F158" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B159,AssociatedElements!B$2:B3120,1,FALSE)),"Not used","")</f>
+        <v/>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="D159" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="E159" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F159" s="13" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6497,11 +6599,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D218"/>
+  <dimension ref="A1:D233"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D228" sqref="D228:D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6552,7 +6654,7 @@
       <c r="C3" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="18" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6567,7 +6669,7 @@
       <c r="C4" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="18" t="s">
         <v>238</v>
       </c>
     </row>
@@ -6582,7 +6684,7 @@
       <c r="C5" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="18" t="s">
         <v>240</v>
       </c>
     </row>
@@ -6597,7 +6699,7 @@
       <c r="C6" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="18" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6612,7 +6714,7 @@
       <c r="C7" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="18" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6627,7 +6729,7 @@
       <c r="C8" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="18" t="s">
         <v>344</v>
       </c>
     </row>
@@ -6642,7 +6744,7 @@
       <c r="C9" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="18" t="s">
         <v>344</v>
       </c>
     </row>
@@ -6657,7 +6759,7 @@
       <c r="C10" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="18" t="s">
         <v>344</v>
       </c>
     </row>
@@ -6672,7 +6774,7 @@
       <c r="C11" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="18" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6687,7 +6789,7 @@
       <c r="C12" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="18" t="s">
         <v>252</v>
       </c>
     </row>
@@ -6747,7 +6849,7 @@
       <c r="C16" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="18" t="s">
         <v>318</v>
       </c>
     </row>
@@ -6867,7 +6969,7 @@
       <c r="C24" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="18" t="s">
         <v>266</v>
       </c>
     </row>
@@ -6976,19 +7078,19 @@
         <v>352</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B32" t="s">
-        <v>294</v>
+        <f>IF(ISNA(VLOOKUP(#REF!,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>354</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>290</v>
+      <c r="D32" s="18" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -7002,8 +7104,8 @@
       <c r="C33" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>377</v>
+      <c r="D33" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -7012,13 +7114,13 @@
         <v/>
       </c>
       <c r="B34" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>320</v>
+      <c r="D34" s="18" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -7032,8 +7134,8 @@
       <c r="C35" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>338</v>
+      <c r="D35" s="18" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -7047,8 +7149,8 @@
       <c r="C36" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>382</v>
+      <c r="D36" s="4" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -7062,8 +7164,8 @@
       <c r="C37" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>396</v>
+      <c r="D37" s="18" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -7072,13 +7174,13 @@
         <v/>
       </c>
       <c r="B38" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>338</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -7087,13 +7189,13 @@
         <v/>
       </c>
       <c r="B39" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>320</v>
+      <c r="D39" s="4" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -7107,8 +7209,8 @@
       <c r="C40" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>338</v>
+      <c r="D40" s="18" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -7123,7 +7225,7 @@
         <v>755</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -7137,8 +7239,8 @@
       <c r="C42" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>382</v>
+      <c r="D42" s="4" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -7152,8 +7254,8 @@
       <c r="C43" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>396</v>
+      <c r="D43" s="18" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -7162,13 +7264,13 @@
         <v/>
       </c>
       <c r="B44" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>320</v>
+      <c r="D44" s="4" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -7182,8 +7284,8 @@
       <c r="C45" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>338</v>
+      <c r="D45" s="18" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -7197,8 +7299,8 @@
       <c r="C46" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>382</v>
+      <c r="D46" s="4" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -7212,8 +7314,8 @@
       <c r="C47" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>396</v>
+      <c r="D47" s="18" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -7222,13 +7324,13 @@
         <v/>
       </c>
       <c r="B48" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -7237,28 +7339,28 @@
         <v/>
       </c>
       <c r="B49" t="s">
-        <v>274</v>
+        <v>355</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="str">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="19" t="str">
         <f>IF(ISNA(VLOOKUP(B50,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B50" t="s">
-        <v>276</v>
+      <c r="B50" s="20" t="s">
+        <v>355</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>275</v>
+      <c r="D50" s="18" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -7267,13 +7369,13 @@
         <v/>
       </c>
       <c r="B51" t="s">
-        <v>356</v>
+        <v>274</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>352</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -7282,13 +7384,13 @@
         <v/>
       </c>
       <c r="B52" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -7297,13 +7399,13 @@
         <v/>
       </c>
       <c r="B53" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>336</v>
+      <c r="D53" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -7312,13 +7414,13 @@
         <v/>
       </c>
       <c r="B54" t="s">
-        <v>335</v>
+        <v>269</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>367</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -7332,8 +7434,8 @@
       <c r="C55" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>417</v>
+      <c r="D55" s="18" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -7342,13 +7444,13 @@
         <v/>
       </c>
       <c r="B56" t="s">
-        <v>397</v>
+        <v>335</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -7357,13 +7459,13 @@
         <v/>
       </c>
       <c r="B57" t="s">
-        <v>253</v>
+        <v>335</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>254</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -7372,13 +7474,13 @@
         <v/>
       </c>
       <c r="B58" t="s">
-        <v>253</v>
+        <v>397</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -7387,13 +7489,13 @@
         <v/>
       </c>
       <c r="B59" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -7402,13 +7504,13 @@
         <v/>
       </c>
       <c r="B60" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>290</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -7417,13 +7519,13 @@
         <v/>
       </c>
       <c r="B61" t="s">
-        <v>357</v>
+        <v>270</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>352</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -7432,13 +7534,13 @@
         <v/>
       </c>
       <c r="B62" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>352</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -7447,7 +7549,7 @@
         <v/>
       </c>
       <c r="B63" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>755</v>
@@ -7456,19 +7558,19 @@
         <v>352</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="str">
+    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="19" t="str">
         <f>IF(ISNA(VLOOKUP(B64,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B64" t="s">
-        <v>360</v>
+      <c r="B64" s="20" t="s">
+        <v>357</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>352</v>
+      <c r="D64" s="18" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -7477,28 +7579,28 @@
         <v/>
       </c>
       <c r="B65" t="s">
-        <v>421</v>
+        <v>358</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="str">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="19" t="str">
         <f>IF(ISNA(VLOOKUP(B66,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B66" t="s">
-        <v>378</v>
+      <c r="B66" s="20" t="s">
+        <v>358</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D66" s="11" t="s">
-        <v>377</v>
+      <c r="D66" s="18" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -7507,28 +7609,28 @@
         <v/>
       </c>
       <c r="B67" t="s">
-        <v>295</v>
+        <v>359</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="str">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="19" t="str">
         <f>IF(ISNA(VLOOKUP(B68,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B68" t="s">
-        <v>296</v>
+      <c r="B68" s="20" t="s">
+        <v>359</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>290</v>
+      <c r="D68" s="18" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -7537,28 +7639,28 @@
         <v/>
       </c>
       <c r="B69" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="str">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="19" t="str">
         <f>IF(ISNA(VLOOKUP(B70,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B70" t="s">
-        <v>330</v>
+      <c r="B70" s="20" t="s">
+        <v>360</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>331</v>
+      <c r="D70" s="18" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -7567,13 +7669,13 @@
         <v/>
       </c>
       <c r="B71" t="s">
-        <v>297</v>
+        <v>421</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>290</v>
+        <v>420</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -7582,13 +7684,13 @@
         <v/>
       </c>
       <c r="B72" t="s">
-        <v>438</v>
+        <v>378</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>439</v>
+      <c r="D72" s="18" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -7597,13 +7699,13 @@
         <v/>
       </c>
       <c r="B73" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -7612,13 +7714,13 @@
         <v/>
       </c>
       <c r="B74" t="s">
-        <v>424</v>
+        <v>296</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>425</v>
+        <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -7627,13 +7729,13 @@
         <v/>
       </c>
       <c r="B75" t="s">
-        <v>277</v>
+        <v>334</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>275</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -7642,13 +7744,13 @@
         <v/>
       </c>
       <c r="B76" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D76" s="11" t="s">
-        <v>377</v>
+      <c r="D76" s="4" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -7657,13 +7759,13 @@
         <v/>
       </c>
       <c r="B77" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -7672,13 +7774,13 @@
         <v/>
       </c>
       <c r="B78" t="s">
-        <v>278</v>
+        <v>438</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>290</v>
+        <v>439</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -7687,13 +7789,13 @@
         <v/>
       </c>
       <c r="B79" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>416</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -7702,13 +7804,13 @@
         <v/>
       </c>
       <c r="B80" t="s">
-        <v>279</v>
+        <v>424</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>275</v>
+        <v>425</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -7717,13 +7819,13 @@
         <v/>
       </c>
       <c r="B81" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -7732,12 +7834,12 @@
         <v/>
       </c>
       <c r="B82" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="18" t="s">
         <v>377</v>
       </c>
     </row>
@@ -7747,13 +7849,13 @@
         <v/>
       </c>
       <c r="B83" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>416</v>
+        <v>275</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -7762,13 +7864,13 @@
         <v/>
       </c>
       <c r="B84" t="s">
-        <v>398</v>
+        <v>278</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>396</v>
+        <v>290</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -7777,13 +7879,13 @@
         <v/>
       </c>
       <c r="B85" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D85" s="11" t="s">
-        <v>312</v>
+      <c r="D85" s="4" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -7792,13 +7894,13 @@
         <v/>
       </c>
       <c r="B86" t="s">
-        <v>451</v>
+        <v>279</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>452</v>
+        <v>275</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -7807,13 +7909,13 @@
         <v/>
       </c>
       <c r="B87" t="s">
-        <v>399</v>
+        <v>279</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>396</v>
+        <v>290</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -7822,13 +7924,13 @@
         <v/>
       </c>
       <c r="B88" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>290</v>
+      <c r="D88" s="18" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -7837,13 +7939,13 @@
         <v/>
       </c>
       <c r="B89" t="s">
-        <v>400</v>
+        <v>279</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -7852,7 +7954,7 @@
         <v/>
       </c>
       <c r="B90" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>755</v>
@@ -7867,13 +7969,13 @@
         <v/>
       </c>
       <c r="B91" t="s">
-        <v>402</v>
+        <v>311</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>396</v>
+      <c r="D91" s="18" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -7882,13 +7984,13 @@
         <v/>
       </c>
       <c r="B92" t="s">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>756</v>
+      <c r="D92" s="18" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -7897,13 +7999,13 @@
         <v/>
       </c>
       <c r="B93" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>756</v>
+        <v>452</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -7912,13 +8014,13 @@
         <v/>
       </c>
       <c r="B94" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>756</v>
+        <v>396</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -7927,13 +8029,13 @@
         <v/>
       </c>
       <c r="B95" t="s">
-        <v>379</v>
+        <v>298</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D95" s="11" t="s">
-        <v>377</v>
+      <c r="D95" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -7942,13 +8044,13 @@
         <v/>
       </c>
       <c r="B96" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -7957,13 +8059,13 @@
         <v/>
       </c>
       <c r="B97" t="s">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>369</v>
+        <v>756</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -7972,7 +8074,7 @@
         <v/>
       </c>
       <c r="B98" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>755</v>
@@ -7987,13 +8089,13 @@
         <v/>
       </c>
       <c r="B99" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D99" s="11" t="s">
-        <v>377</v>
+      <c r="D99" s="4" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -8002,13 +8104,13 @@
         <v/>
       </c>
       <c r="B100" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>427</v>
+        <v>396</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -8017,13 +8119,13 @@
         <v/>
       </c>
       <c r="B101" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>427</v>
+        <v>756</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -8032,13 +8134,13 @@
         <v/>
       </c>
       <c r="B102" t="s">
-        <v>429</v>
+        <v>379</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>427</v>
+      <c r="D102" s="18" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -8047,13 +8149,13 @@
         <v/>
       </c>
       <c r="B103" t="s">
-        <v>430</v>
+        <v>368</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>427</v>
+        <v>369</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -8062,13 +8164,13 @@
         <v/>
       </c>
       <c r="B104" t="s">
-        <v>255</v>
+        <v>370</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>254</v>
+        <v>369</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -8077,13 +8179,13 @@
         <v/>
       </c>
       <c r="B105" t="s">
-        <v>256</v>
+        <v>403</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>254</v>
+        <v>396</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -8092,13 +8194,13 @@
         <v/>
       </c>
       <c r="B106" t="s">
-        <v>257</v>
+        <v>380</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>254</v>
+      <c r="D106" s="18" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -8107,13 +8209,13 @@
         <v/>
       </c>
       <c r="B107" t="s">
-        <v>257</v>
+        <v>426</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -8122,13 +8224,13 @@
         <v/>
       </c>
       <c r="B108" t="s">
-        <v>347</v>
+        <v>428</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>348</v>
+        <v>427</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -8137,13 +8239,13 @@
         <v/>
       </c>
       <c r="B109" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -8152,13 +8254,13 @@
         <v/>
       </c>
       <c r="B110" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -8167,13 +8269,13 @@
         <v/>
       </c>
       <c r="B111" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -8182,13 +8284,13 @@
         <v/>
       </c>
       <c r="B112" t="s">
-        <v>349</v>
+        <v>256</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D112" s="11" t="s">
-        <v>350</v>
+      <c r="D112" s="4" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -8197,13 +8299,13 @@
         <v/>
       </c>
       <c r="B113" t="s">
-        <v>381</v>
+        <v>257</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D113" s="11" t="s">
-        <v>377</v>
+      <c r="D113" s="4" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -8212,13 +8314,13 @@
         <v/>
       </c>
       <c r="B114" t="s">
-        <v>381</v>
+        <v>257</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -8227,13 +8329,13 @@
         <v/>
       </c>
       <c r="B115" t="s">
-        <v>418</v>
+        <v>347</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>417</v>
+        <v>348</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -8242,13 +8344,13 @@
         <v/>
       </c>
       <c r="B116" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -8257,13 +8359,13 @@
         <v/>
       </c>
       <c r="B117" t="s">
-        <v>280</v>
+        <v>433</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>281</v>
+        <v>434</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -8272,13 +8374,13 @@
         <v/>
       </c>
       <c r="B118" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -8287,13 +8389,13 @@
         <v/>
       </c>
       <c r="B119" t="s">
-        <v>283</v>
+        <v>349</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D119" s="4" t="s">
-        <v>281</v>
+      <c r="D119" s="11" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -8302,13 +8404,13 @@
         <v/>
       </c>
       <c r="B120" t="s">
-        <v>258</v>
+        <v>381</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D120" s="4" t="s">
-        <v>254</v>
+      <c r="D120" s="18" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -8317,13 +8419,13 @@
         <v/>
       </c>
       <c r="B121" t="s">
-        <v>271</v>
+        <v>381</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>268</v>
+        <v>417</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -8332,13 +8434,13 @@
         <v/>
       </c>
       <c r="B122" t="s">
-        <v>271</v>
+        <v>418</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>290</v>
+        <v>417</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -8347,13 +8449,13 @@
         <v/>
       </c>
       <c r="B123" t="s">
-        <v>300</v>
+        <v>436</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>290</v>
+        <v>437</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -8362,13 +8464,13 @@
         <v/>
       </c>
       <c r="B124" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -8377,13 +8479,13 @@
         <v/>
       </c>
       <c r="B125" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -8392,13 +8494,13 @@
         <v/>
       </c>
       <c r="B126" t="s">
-        <v>361</v>
+        <v>283</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>352</v>
+        <v>281</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -8407,13 +8509,13 @@
         <v/>
       </c>
       <c r="B127" t="s">
-        <v>362</v>
+        <v>258</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>352</v>
+        <v>254</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -8422,13 +8524,13 @@
         <v/>
       </c>
       <c r="B128" t="s">
-        <v>363</v>
+        <v>271</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>352</v>
+        <v>268</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -8437,28 +8539,28 @@
         <v/>
       </c>
       <c r="B129" t="s">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" t="str">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A130" s="19" t="str">
         <f>IF(ISNA(VLOOKUP(B130,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B130" t="s">
-        <v>328</v>
+      <c r="B130" s="20" t="s">
+        <v>775</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D130" s="4" t="s">
-        <v>383</v>
+      <c r="D130" s="18" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -8467,13 +8569,13 @@
         <v/>
       </c>
       <c r="B131" t="s">
-        <v>365</v>
+        <v>300</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D131" s="11" t="s">
-        <v>366</v>
+      <c r="D131" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -8482,13 +8584,13 @@
         <v/>
       </c>
       <c r="B132" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -8497,13 +8599,13 @@
         <v/>
       </c>
       <c r="B133" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -8512,28 +8614,28 @@
         <v/>
       </c>
       <c r="B134" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" t="str">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A135" s="19" t="str">
         <f>IF(ISNA(VLOOKUP(B135,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B135" t="s">
-        <v>419</v>
+      <c r="B135" s="20" t="s">
+        <v>361</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D135" s="4" t="s">
-        <v>417</v>
+      <c r="D135" s="18" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -8542,28 +8644,28 @@
         <v/>
       </c>
       <c r="B136" t="s">
-        <v>303</v>
+        <v>362</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" t="str">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A137" s="19" t="str">
         <f>IF(ISNA(VLOOKUP(B137,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B137" t="s">
-        <v>303</v>
+      <c r="B137" s="20" t="s">
+        <v>362</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D137" s="4" t="s">
-        <v>372</v>
+      <c r="D137" s="18" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -8572,28 +8674,28 @@
         <v/>
       </c>
       <c r="B138" t="s">
-        <v>304</v>
+        <v>363</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" t="str">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A139" s="19" t="str">
         <f>IF(ISNA(VLOOKUP(B139,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B139" t="s">
-        <v>404</v>
+      <c r="B139" s="20" t="s">
+        <v>363</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D139" s="4" t="s">
-        <v>396</v>
+      <c r="D139" s="18" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -8602,13 +8704,13 @@
         <v/>
       </c>
       <c r="B140" t="s">
-        <v>405</v>
+        <v>328</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>396</v>
+        <v>327</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -8617,13 +8719,13 @@
         <v/>
       </c>
       <c r="B141" t="s">
-        <v>406</v>
+        <v>328</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -8632,13 +8734,13 @@
         <v/>
       </c>
       <c r="B142" t="s">
-        <v>272</v>
+        <v>365</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D142" s="4" t="s">
-        <v>268</v>
+      <c r="D142" s="18" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -8647,13 +8749,13 @@
         <v/>
       </c>
       <c r="B143" t="s">
-        <v>440</v>
+        <v>259</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>439</v>
+        <v>254</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -8662,13 +8764,13 @@
         <v/>
       </c>
       <c r="B144" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -8677,13 +8779,13 @@
         <v/>
       </c>
       <c r="B145" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -8692,13 +8794,13 @@
         <v/>
       </c>
       <c r="B146" t="s">
-        <v>284</v>
+        <v>419</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>281</v>
+        <v>417</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -8707,13 +8809,13 @@
         <v/>
       </c>
       <c r="B147" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D147" s="11" t="s">
-        <v>385</v>
+      <c r="D147" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -8722,13 +8824,13 @@
         <v/>
       </c>
       <c r="B148" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -8737,13 +8839,13 @@
         <v/>
       </c>
       <c r="B149" t="s">
-        <v>386</v>
+        <v>304</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D149" s="11" t="s">
-        <v>387</v>
+      <c r="D149" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -8752,13 +8854,13 @@
         <v/>
       </c>
       <c r="B150" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D150" s="11" t="s">
-        <v>389</v>
+      <c r="D150" s="4" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -8767,13 +8869,13 @@
         <v/>
       </c>
       <c r="B151" t="s">
-        <v>323</v>
+        <v>405</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>324</v>
+        <v>396</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -8782,13 +8884,13 @@
         <v/>
       </c>
       <c r="B152" t="s">
-        <v>323</v>
+        <v>406</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>342</v>
+        <v>396</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -8797,13 +8899,13 @@
         <v/>
       </c>
       <c r="B153" t="s">
-        <v>323</v>
+        <v>272</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>417</v>
+        <v>268</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -8812,13 +8914,13 @@
         <v/>
       </c>
       <c r="B154" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D154" s="11" t="s">
-        <v>442</v>
+      <c r="D154" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -8827,13 +8929,13 @@
         <v/>
       </c>
       <c r="B155" t="s">
-        <v>337</v>
+        <v>273</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D155" s="11" t="s">
-        <v>336</v>
+      <c r="D155" s="4" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -8842,13 +8944,13 @@
         <v/>
       </c>
       <c r="B156" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -8857,13 +8959,13 @@
         <v/>
       </c>
       <c r="B157" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D157" s="11" t="s">
-        <v>377</v>
+      <c r="D157" s="4" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -8872,13 +8974,13 @@
         <v/>
       </c>
       <c r="B158" t="s">
-        <v>337</v>
+        <v>284</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D158" s="4" t="s">
-        <v>416</v>
+      <c r="D158" s="18" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -8887,13 +8989,13 @@
         <v/>
       </c>
       <c r="B159" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>290</v>
+        <v>341</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -8902,13 +9004,13 @@
         <v/>
       </c>
       <c r="B160" t="s">
-        <v>305</v>
+        <v>386</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D160" s="4" t="s">
-        <v>324</v>
+      <c r="D160" s="18" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -8917,13 +9019,13 @@
         <v/>
       </c>
       <c r="B161" t="s">
-        <v>305</v>
+        <v>388</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D161" s="11" t="s">
-        <v>336</v>
+      <c r="D161" s="18" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -8932,13 +9034,13 @@
         <v/>
       </c>
       <c r="B162" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -8947,13 +9049,13 @@
         <v/>
       </c>
       <c r="B163" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -8962,13 +9064,13 @@
         <v/>
       </c>
       <c r="B164" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D164" s="11" t="s">
-        <v>377</v>
+      <c r="D164" s="4" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -8977,13 +9079,13 @@
         <v/>
       </c>
       <c r="B165" t="s">
-        <v>305</v>
+        <v>441</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D165" s="4" t="s">
-        <v>416</v>
+      <c r="D165" s="18" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -8992,13 +9094,13 @@
         <v/>
       </c>
       <c r="B166" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D166" s="4" t="s">
-        <v>290</v>
+      <c r="D166" s="18" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -9007,13 +9109,13 @@
         <v/>
       </c>
       <c r="B167" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -9022,13 +9124,13 @@
         <v/>
       </c>
       <c r="B168" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D168" s="11" t="s">
-        <v>336</v>
+      <c r="D168" s="18" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -9037,13 +9139,13 @@
         <v/>
       </c>
       <c r="B169" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>342</v>
+        <v>416</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -9052,13 +9154,13 @@
         <v/>
       </c>
       <c r="B170" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>367</v>
+        <v>290</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -9067,13 +9169,13 @@
         <v/>
       </c>
       <c r="B171" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D171" s="11" t="s">
-        <v>377</v>
+      <c r="D171" s="4" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -9082,13 +9184,13 @@
         <v/>
       </c>
       <c r="B172" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D172" s="4" t="s">
-        <v>416</v>
+      <c r="D172" s="18" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -9097,13 +9199,13 @@
         <v/>
       </c>
       <c r="B173" t="s">
-        <v>390</v>
+        <v>305</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D173" s="11" t="s">
-        <v>391</v>
+      <c r="D173" s="4" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -9112,13 +9214,13 @@
         <v/>
       </c>
       <c r="B174" t="s">
-        <v>443</v>
+        <v>305</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>444</v>
+        <v>367</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -9127,13 +9229,13 @@
         <v/>
       </c>
       <c r="B175" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D175" s="4" t="s">
-        <v>254</v>
+      <c r="D175" s="18" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -9142,13 +9244,13 @@
         <v/>
       </c>
       <c r="B176" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>254</v>
+        <v>416</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -9157,13 +9259,13 @@
         <v/>
       </c>
       <c r="B177" t="s">
-        <v>247</v>
+        <v>306</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -9172,13 +9274,13 @@
         <v/>
       </c>
       <c r="B178" t="s">
-        <v>407</v>
+        <v>306</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>396</v>
+        <v>324</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -9187,13 +9289,13 @@
         <v/>
       </c>
       <c r="B179" t="s">
-        <v>445</v>
+        <v>306</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D179" s="4" t="s">
-        <v>446</v>
+      <c r="D179" s="18" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -9202,13 +9304,13 @@
         <v/>
       </c>
       <c r="B180" t="s">
-        <v>408</v>
+        <v>306</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>396</v>
+        <v>342</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -9217,13 +9319,13 @@
         <v/>
       </c>
       <c r="B181" t="s">
-        <v>414</v>
+        <v>306</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D181" s="11" t="s">
-        <v>415</v>
+      <c r="D181" s="4" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -9232,13 +9334,13 @@
         <v/>
       </c>
       <c r="B182" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D182" s="4" t="s">
-        <v>290</v>
+      <c r="D182" s="18" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -9247,28 +9349,28 @@
         <v/>
       </c>
       <c r="B183" t="s">
-        <v>392</v>
+        <v>306</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" t="str">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A184" s="19" t="str">
         <f>IF(ISNA(VLOOKUP(B184,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B184" t="s">
-        <v>394</v>
+      <c r="B184" s="20" t="s">
+        <v>772</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D184" s="4" t="s">
-        <v>393</v>
+      <c r="D184" s="18" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -9277,28 +9379,28 @@
         <v/>
       </c>
       <c r="B185" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D185" s="4" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" t="str">
+      <c r="D185" s="18" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A186" s="19" t="str">
         <f>IF(ISNA(VLOOKUP(B186,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B186" t="s">
-        <v>329</v>
+      <c r="B186" s="20" t="s">
+        <v>443</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D186" s="4" t="s">
-        <v>327</v>
+      <c r="D186" s="18" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -9307,13 +9409,13 @@
         <v/>
       </c>
       <c r="B187" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -9322,13 +9424,13 @@
         <v/>
       </c>
       <c r="B188" t="s">
-        <v>449</v>
+        <v>261</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>448</v>
+        <v>254</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -9337,13 +9439,13 @@
         <v/>
       </c>
       <c r="B189" t="s">
-        <v>373</v>
+        <v>262</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>372</v>
+        <v>254</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -9352,13 +9454,13 @@
         <v/>
       </c>
       <c r="B190" t="s">
-        <v>409</v>
+        <v>247</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D190" s="4" t="s">
-        <v>396</v>
+      <c r="D190" s="18" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -9367,13 +9469,13 @@
         <v/>
       </c>
       <c r="B191" t="s">
-        <v>249</v>
+        <v>407</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D191" s="11" t="s">
-        <v>250</v>
+      <c r="D191" s="4" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -9382,13 +9484,13 @@
         <v/>
       </c>
       <c r="B192" t="s">
-        <v>308</v>
+        <v>445</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>290</v>
+        <v>446</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -9397,7 +9499,7 @@
         <v/>
       </c>
       <c r="B193" t="s">
-        <v>25</v>
+        <v>408</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>755</v>
@@ -9412,13 +9514,13 @@
         <v/>
       </c>
       <c r="B194" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D194" s="4" t="s">
-        <v>396</v>
+      <c r="D194" s="18" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -9427,13 +9529,13 @@
         <v/>
       </c>
       <c r="B195" t="s">
-        <v>411</v>
+        <v>307</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>396</v>
+        <v>290</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -9442,13 +9544,13 @@
         <v/>
       </c>
       <c r="B196" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -9457,13 +9559,13 @@
         <v/>
       </c>
       <c r="B197" t="s">
-        <v>309</v>
+        <v>394</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>290</v>
+        <v>393</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -9472,13 +9574,13 @@
         <v/>
       </c>
       <c r="B198" t="s">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>333</v>
+        <v>393</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -9487,13 +9589,13 @@
         <v/>
       </c>
       <c r="B199" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -9502,13 +9604,13 @@
         <v/>
       </c>
       <c r="B200" t="s">
-        <v>263</v>
+        <v>447</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>254</v>
+        <v>448</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -9517,13 +9619,13 @@
         <v/>
       </c>
       <c r="B201" t="s">
-        <v>310</v>
+        <v>449</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>290</v>
+        <v>448</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -9532,13 +9634,13 @@
         <v/>
       </c>
       <c r="B202" t="s">
-        <v>264</v>
+        <v>373</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>254</v>
+        <v>372</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -9547,13 +9649,13 @@
         <v/>
       </c>
       <c r="B203" t="s">
-        <v>453</v>
+        <v>409</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>454</v>
+        <v>396</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -9562,13 +9664,13 @@
         <v/>
       </c>
       <c r="B204" t="s">
-        <v>317</v>
+        <v>249</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D204" s="4" t="s">
-        <v>314</v>
+      <c r="D204" s="18" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -9577,13 +9679,13 @@
         <v/>
       </c>
       <c r="B205" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -9592,7 +9694,7 @@
         <v/>
       </c>
       <c r="B206" t="s">
-        <v>317</v>
+        <v>25</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>755</v>
@@ -9607,13 +9709,13 @@
         <v/>
       </c>
       <c r="B207" t="s">
-        <v>317</v>
+        <v>410</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -9622,43 +9724,43 @@
         <v/>
       </c>
       <c r="B208" t="s">
-        <v>332</v>
+        <v>411</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="str">
         <f>IF(ISNA(VLOOKUP(B209,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>757</v>
+      <c r="B209" t="s">
+        <v>374</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="str">
         <f>IF(ISNA(VLOOKUP(B210,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>759</v>
+      <c r="B210" t="s">
+        <v>309</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>756</v>
+        <v>290</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -9667,13 +9769,13 @@
         <v/>
       </c>
       <c r="B211" t="s">
-        <v>375</v>
+        <v>309</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -9682,13 +9784,13 @@
         <v/>
       </c>
       <c r="B212" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -9697,13 +9799,13 @@
         <v/>
       </c>
       <c r="B213" t="s">
-        <v>376</v>
+        <v>263</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>372</v>
+        <v>254</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -9712,61 +9814,284 @@
         <v/>
       </c>
       <c r="B214" t="s">
-        <v>413</v>
+        <v>310</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>755</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>396</v>
+        <v>290</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="str">
         <f>IF(ISNA(VLOOKUP(B215,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
+        <v/>
+      </c>
+      <c r="B215" t="s">
+        <v>264</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D215" s="11" t="s">
-        <v>285</v>
+      <c r="D215" s="4" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="str">
         <f>IF(ISNA(VLOOKUP(B216,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
+        <v/>
+      </c>
+      <c r="B216" t="s">
+        <v>453</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D216" s="11" t="s">
-        <v>286</v>
+      <c r="D216" s="4" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="str">
         <f>IF(ISNA(VLOOKUP(B217,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
+        <v/>
+      </c>
+      <c r="B217" t="s">
+        <v>317</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="D217" s="11" t="s">
-        <v>435</v>
+      <c r="D217" s="4" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="str">
         <f>IF(ISNA(VLOOKUP(B218,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B218" t="s">
+        <v>317</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" t="str">
+        <f>IF(ISNA(VLOOKUP(B219,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B219" t="s">
+        <v>317</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" t="str">
+        <f>IF(ISNA(VLOOKUP(B220,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B220" t="s">
+        <v>317</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" t="str">
+        <f>IF(ISNA(VLOOKUP(B221,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B221" t="s">
+        <v>332</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A222" t="str">
+        <f>IF(ISNA(VLOOKUP(B222,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" t="str">
+        <f>IF(ISNA(VLOOKUP(B223,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B223" t="s">
+        <v>375</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" t="str">
+        <f>IF(ISNA(VLOOKUP(B224,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B224" t="s">
+        <v>412</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A225" t="str">
+        <f>IF(ISNA(VLOOKUP(B225,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" t="str">
+        <f>IF(ISNA(VLOOKUP(B226,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B226" t="s">
+        <v>376</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" t="str">
+        <f>IF(ISNA(VLOOKUP(B227,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B227" t="s">
+        <v>413</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B228,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C218" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D218" s="11" t="s">
-        <v>450</v>
+      <c r="B228" s="20"/>
+      <c r="C228" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D228" s="11" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B229,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v>Not listed</v>
+      </c>
+      <c r="B229" s="20"/>
+      <c r="C229" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D229" s="11" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" t="str">
+        <f>IF(ISNA(VLOOKUP(B230,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v>Not listed</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D230" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" t="str">
+        <f>IF(ISNA(VLOOKUP(B231,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v>Not listed</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D231" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B232,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v>Not listed</v>
+      </c>
+      <c r="B232" s="20"/>
+      <c r="C232" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D232" s="11" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" s="19" t="str">
+        <f>IF(ISNA(VLOOKUP(B233,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v>Not listed</v>
+      </c>
+      <c r="B233" s="20"/>
+      <c r="C233" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D233" s="11" t="s">
+        <v>771</v>
       </c>
     </row>
   </sheetData>

--- a/Codelist Excel Files and Conversion Templates to XML/DIGGSProp.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/DIGGSProp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3AA559-5FC4-2D4A-B9BD-940E3EED5316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57ABF1C-8180-E94A-887C-4197176A94A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8740" yWindow="1120" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8720" yWindow="1120" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>

--- a/Codelist Excel Files and Conversion Templates to XML/DIGGSProp.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/DIGGSProp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57ABF1C-8180-E94A-887C-4197176A94A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFBA6EB-71EA-F74B-ABAC-6F7A5131FD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8720" yWindow="1120" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10380" yWindow="2240" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="780">
   <si>
     <t>Description</t>
   </si>
@@ -746,57 +746,30 @@
     <t>aggregate_abrasion_value</t>
   </si>
   <si>
-    <t>//diggs_geo:AggregateAbrasionValueTest</t>
-  </si>
-  <si>
     <t>aggregate_crushing_value</t>
   </si>
   <si>
-    <t>//diggs_geo:AggregateCrushingValueTest</t>
-  </si>
-  <si>
     <t>aggregate_elongation_index</t>
   </si>
   <si>
-    <t>//diggs_geo:AggregateElongationIndexTest</t>
-  </si>
-  <si>
     <t>aggregate_flakiness_index</t>
   </si>
   <si>
-    <t>//diggs_geo:AggregateFlakinessIndexTest</t>
-  </si>
-  <si>
     <t>aggregate_impact_value</t>
   </si>
   <si>
-    <t>//diggs_geo:AggregateImpactValueTest</t>
-  </si>
-  <si>
     <t>aggregate_polished_stone_value</t>
   </si>
   <si>
-    <t>//diggs_geo:AggregatePolishedStoneValueTest</t>
-  </si>
-  <si>
     <t>slake_durability_index</t>
   </si>
   <si>
-    <t>//diggs_geo:AggregateSlakeDurabilityTest</t>
-  </si>
-  <si>
     <t>ten_percent_fines_value</t>
   </si>
   <si>
-    <t>//diggs_geo:AggregateTenPercentFinesTest</t>
-  </si>
-  <si>
     <t>aggregate_water_absorption</t>
   </si>
   <si>
-    <t>//diggs_geo:AggregateWaterAbsorptionTest</t>
-  </si>
-  <si>
     <t>consistency_index</t>
   </si>
   <si>
@@ -836,9 +809,6 @@
     <t>chalk_crushing_value</t>
   </si>
   <si>
-    <t>//diggs_geo:ChalkCrushingValueTest</t>
-  </si>
-  <si>
     <t>coef_consolidation_vertical</t>
   </si>
   <si>
@@ -902,9 +872,6 @@
     <t>flame_ionization_measurement</t>
   </si>
   <si>
-    <t>//diggs_geo:FlameIonizationDetectorTest</t>
-  </si>
-  <si>
     <t>a_pressure</t>
   </si>
   <si>
@@ -974,9 +941,6 @@
     <t>frost_heave</t>
   </si>
   <si>
-    <t>//diggs_geo:FrostSusceptibilityTest</t>
-  </si>
-  <si>
     <t>bulk_density</t>
   </si>
   <si>
@@ -992,15 +956,9 @@
     <t>water_content_natural</t>
   </si>
   <si>
-    <t>//diggs_geo:InsituDensityTest</t>
-  </si>
-  <si>
     <t>coef_permeability</t>
   </si>
   <si>
-    <t>//diggs_geo:InsituPermeabilityTest</t>
-  </si>
-  <si>
     <t>coef_permeability_horiz</t>
   </si>
   <si>
@@ -1046,9 +1004,6 @@
     <t>compressive_strength_unconfined</t>
   </si>
   <si>
-    <t>//diggs_geo:LabPenetrometerTest</t>
-  </si>
-  <si>
     <t>shear_strength_drained</t>
   </si>
   <si>
@@ -1070,9 +1025,6 @@
     <t>aggregate_LA_abrasion_loss</t>
   </si>
   <si>
-    <t>//diggs_geo:LosAngelesAbrasionTest</t>
-  </si>
-  <si>
     <t>aggregate_la_coefficient</t>
   </si>
   <si>
@@ -1088,9 +1040,6 @@
     <t>mcv</t>
   </si>
   <si>
-    <t>//diggs_geo:MCVTest</t>
-  </si>
-  <si>
     <t>clay_percent_2_micron</t>
   </si>
   <si>
@@ -1169,9 +1118,6 @@
     <t>water_elev_calc</t>
   </si>
   <si>
-    <t>//diggs_geo:PressuremeterTest</t>
-  </si>
-  <si>
     <t>dilation_angle</t>
   </si>
   <si>
@@ -1184,36 +1130,21 @@
     <t>modulus_shear</t>
   </si>
   <si>
-    <t>//diggs_geo:PumpingTest</t>
-  </si>
-  <si>
     <t>//diggs_geo:RedoxTest</t>
   </si>
   <si>
     <t>redox_potential</t>
   </si>
   <si>
-    <t>//diggs_geo:RelativeDensityTest</t>
-  </si>
-  <si>
     <t>rock_porosity</t>
   </si>
   <si>
-    <t>//diggs_geo:RockPorosityDensityTest</t>
-  </si>
-  <si>
     <t>schmidt_hardness_value</t>
   </si>
   <si>
-    <t>//diggs_geo:SchmidtReboundHardnessTest</t>
-  </si>
-  <si>
     <t>shore_hardness_value</t>
   </si>
   <si>
-    <t>//diggs_geo:ShoreScleroscopeHardnessTest</t>
-  </si>
-  <si>
     <t>specific_gravity_apparent</t>
   </si>
   <si>
@@ -1283,9 +1214,6 @@
     <t>soil_suction</t>
   </si>
   <si>
-    <t>//diggs_geo:SuctionTest</t>
-  </si>
-  <si>
     <t>//diggs_geo:TriaxialTest</t>
   </si>
   <si>
@@ -1343,9 +1271,6 @@
     <t>//diggs:MarshFunnelTest</t>
   </si>
   <si>
-    <t>//diggs:MaterialGradationTest</t>
-  </si>
-  <si>
     <t>mud_balance_density</t>
   </si>
   <si>
@@ -1886,9 +1811,6 @@
     <t>Syneresis</t>
   </si>
   <si>
-    <t>Thec ontraction of a gel accompanied by the separating out of liquid. It is calculated as a percent of volume or mass loss.</t>
-  </si>
-  <si>
     <t>Surface Area Normalized Syneresis</t>
   </si>
   <si>
@@ -1985,27 +1907,15 @@
     <t>Calculated Depth To Water</t>
   </si>
   <si>
-    <t>Depth to water calculated from measured equilibrium pore pressure</t>
-  </si>
-  <si>
     <t>Calculated Water Elevation</t>
   </si>
   <si>
-    <t>Water elevation calculated from measured equilibrium pore pressure</t>
-  </si>
-  <si>
     <t>Estimated Water Depth</t>
   </si>
   <si>
-    <t>Estimate of water depth from insitu measurement (eg CPT, DMT)</t>
-  </si>
-  <si>
     <t>Estimated Water Elevaton</t>
   </si>
   <si>
-    <t>Estimate of water elevation from insitu measurement (eg CPT, DMT)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> A measure of the resistance of aggregate to surface wear by abrasion.</t>
   </si>
   <si>
@@ -2280,9 +2190,6 @@
   </si>
   <si>
     <t>The percentage of particles that are retained on the #4 and larger sizes (&gt;4.75 mm).</t>
-  </si>
-  <si>
-    <t>the value of pore pressure measured in the field after dissipation of induced excess pore pressure. Could also be from CPTu test</t>
   </si>
   <si>
     <t xml:space="preserve">Result from a Consolidation Test. This test is performed to determine the magnitude and rate of void ratio change for a laterally confined soil specimen that is subjected to different vertical pressures. From the measured data, the consolidation curve (pressure-void ratio relationship) can be plotted. This specific value is used for a specific portion of the log vertical pressure - void ratio curve to signify the largest value of stress that sample has experienced before the performance of this test. It is a calculation results usually obtained by a construction technique using laboratory test results. </t>
@@ -2337,24 +2244,6 @@
  </t>
   </si>
   <si>
-    <t>//diggs_geo:AggregateSoundnessTest</t>
-  </si>
-  <si>
-    <t>//diggs_geo:CationExhangeTest</t>
-  </si>
-  <si>
-    <t>//diggs_geo:InSituResistivityTest</t>
-  </si>
-  <si>
-    <t>//diggs_geo:LabVelocityTest</t>
-  </si>
-  <si>
-    <t>//diggs_geo:LinearShrinkageTest</t>
-  </si>
-  <si>
-    <t>//diggs_geo:MicroDevalTest</t>
-  </si>
-  <si>
     <t>shear_velocity</t>
   </si>
   <si>
@@ -2371,6 +2260,123 @@
   </si>
   <si>
     <t>The velocity of a p-wave (Vp). P-waves (primary waves) are compressional waves that are longitudinal in nature.</t>
+  </si>
+  <si>
+    <t>//diggs:AggregateAbrasionValueTest</t>
+  </si>
+  <si>
+    <t>//diggs:AggregateCrushingValueTest</t>
+  </si>
+  <si>
+    <t>//diggs:AggregateElongationIndexTest</t>
+  </si>
+  <si>
+    <t>//diggs:AggregateFlakinessIndexTest</t>
+  </si>
+  <si>
+    <t>//diggs:AggregateImpactValueTest</t>
+  </si>
+  <si>
+    <t>//diggs:AggregatePolishedStoneValueTest</t>
+  </si>
+  <si>
+    <t>//diggs:AggregateSlakeDurabilityTest</t>
+  </si>
+  <si>
+    <t>//diggs:AggregateSoundnessTest</t>
+  </si>
+  <si>
+    <t>//diggs:AggregateTenPercentFinesTest</t>
+  </si>
+  <si>
+    <t>//diggs:AggregateWaterAbsorptionTest</t>
+  </si>
+  <si>
+    <t>//diggs:CationExhangeTest</t>
+  </si>
+  <si>
+    <t>//diggs:ChalkCrushingValueTest</t>
+  </si>
+  <si>
+    <t>//diggs:FlameIonizationDetectorTest</t>
+  </si>
+  <si>
+    <t>//diggs:FrostSusceptibilityTest</t>
+  </si>
+  <si>
+    <t>//diggs:InsituDensityTest</t>
+  </si>
+  <si>
+    <t>//diggs:InsituPermeabilityTest</t>
+  </si>
+  <si>
+    <t>//diggs:InSituResistivityTest</t>
+  </si>
+  <si>
+    <t>//diggs:InSituPenetrometerTest</t>
+  </si>
+  <si>
+    <t>//diggs:LabVelocityTest</t>
+  </si>
+  <si>
+    <t>//diggs:LinearShrinkageTest</t>
+  </si>
+  <si>
+    <t>//diggs:LosAngelesAbrasionTest</t>
+  </si>
+  <si>
+    <t>//diggs:MCVTest</t>
+  </si>
+  <si>
+    <t>//diggs:MicroDevalTest</t>
+  </si>
+  <si>
+    <t>//diggs_geo:MaterialGradationTest</t>
+  </si>
+  <si>
+    <t>//diggs:PressuremeterTest</t>
+  </si>
+  <si>
+    <t>//diggs:PumpingTest</t>
+  </si>
+  <si>
+    <t>//diggs:RelativeDensityTest</t>
+  </si>
+  <si>
+    <t>//diggs:RockPorosityDensityTest</t>
+  </si>
+  <si>
+    <t>//diggs:SchmidtReboundHardnessTest</t>
+  </si>
+  <si>
+    <t>//diggs:ShoreScleroscopeHardnessTest</t>
+  </si>
+  <si>
+    <t>//diggs:LabPenetrometerTest</t>
+  </si>
+  <si>
+    <t>//diggs:SuctionTest</t>
+  </si>
+  <si>
+    <t>//diggs:TriaxialTest</t>
+  </si>
+  <si>
+    <t>The contraction of a gel accompanied by the separating out of liquid. It is calculated as a percent of volume or mass loss.</t>
+  </si>
+  <si>
+    <t>The value of pore pressure measured in the field after dissipation of induced excess pore pressure. Could also be from CPTu test</t>
+  </si>
+  <si>
+    <t>Depth to water calculated from measured equilibrium pore pressure.  Note: it is preferable to use water_depth as the propertyClass with the measurementTechnique property of the Property element set to "calculated", instead.</t>
+  </si>
+  <si>
+    <t>Water elevation calculated from measured equilibrium pore pressure. Note: it is preferable to use water_elevation as the propertyClass with the measurementTechnique property of the Property element set to "calculated", instead.</t>
+  </si>
+  <si>
+    <t>Estimate of water depth from insitu measurement (eg CPT, DMT). Note: it is preferable to use water_depth as the propertyClass with the measurementTechnique property qualifer (eg. "extrapolated". "inferred"), instead.</t>
+  </si>
+  <si>
+    <t>Estimate of water elevation from insitu measurement (eg CPT, DMT). Note: it is preferable to use water_elevation as the propertyClass with the measurementTechnique property qualifer (eg. "extrapolated". "inferred"), instead.</t>
   </si>
 </sst>
 </file>
@@ -2541,7 +2547,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2574,20 +2580,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2603,29 +2606,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2706,6 +2686,29 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2795,34 +2798,34 @@
     <sortCondition ref="C1:C159"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="3">
-      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3039,1,FALSE)),"Not used","")</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Start" dataDxfId="12">
+      <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3041,1,FALSE)),"Not used","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D233" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:D233" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D233">
-    <sortCondition ref="B1:B233"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D240" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:D240" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D240">
+    <sortCondition ref="B1:B240"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="3">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3153,13 +3156,13 @@
         <v>233</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>764</v>
+        <v>733</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>234</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>765</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -3176,8 +3179,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3221,17 +3224,17 @@
     </row>
     <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3039,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B2,AssociatedElements!B$2:B3041,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B2" s="12" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -3242,17 +3245,17 @@
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B3040,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B3,AssociatedElements!B$2:B3042,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B3" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>656</v>
+        <v>626</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
@@ -3263,17 +3266,17 @@
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B3041,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B4,AssociatedElements!B$2:B3043,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B4" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>657</v>
+        <v>627</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
@@ -3284,17 +3287,17 @@
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B3042,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B5,AssociatedElements!B$2:B3044,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B5" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>658</v>
+        <v>628</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
@@ -3305,17 +3308,17 @@
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B3043,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B6,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B6" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>659</v>
+        <v>629</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
@@ -3326,17 +3329,17 @@
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B3044,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B7,AssociatedElements!B$2:B3046,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B7" s="13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>660</v>
+        <v>630</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>1</v>
@@ -3347,17 +3350,17 @@
     </row>
     <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B3045,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B8,AssociatedElements!B$2:B3047,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B8" s="13" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>661</v>
+        <v>631</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>1</v>
@@ -3368,17 +3371,17 @@
     </row>
     <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B3046,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B9,AssociatedElements!B$2:B3048,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B9" s="13" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>662</v>
+        <v>632</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>180</v>
@@ -3389,17 +3392,17 @@
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B3047,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B10,AssociatedElements!B$2:B3049,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B10" s="13" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>663</v>
+        <v>633</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>180</v>
@@ -3412,17 +3415,17 @@
     </row>
     <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B3048,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B11,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B11" s="13" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>664</v>
+        <v>634</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>180</v>
@@ -3435,17 +3438,17 @@
     </row>
     <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B3049,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B12,AssociatedElements!B$2:B3051,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B12" s="13" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>665</v>
+        <v>635</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>1</v>
@@ -3458,17 +3461,17 @@
     </row>
     <row r="13" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B3167,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B13,AssociatedElements!B$2:B3169,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B13" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>608</v>
+        <v>369</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>583</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>609</v>
+        <v>584</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>1</v>
@@ -3479,17 +3482,17 @@
     </row>
     <row r="14" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B3050,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B14,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B14" s="13" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>666</v>
+        <v>636</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>1</v>
@@ -3502,17 +3505,17 @@
     </row>
     <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B3051,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B15,AssociatedElements!B$2:B3053,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B15" s="13" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>667</v>
+        <v>637</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>1</v>
@@ -3525,17 +3528,17 @@
     </row>
     <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B3168,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B16,AssociatedElements!B$2:B3170,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B16" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>610</v>
+        <v>371</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>585</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>1</v>
@@ -3546,17 +3549,17 @@
     </row>
     <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B3053,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B17,AssociatedElements!B$2:B3055,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B17" s="13" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>669</v>
+        <v>639</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>1</v>
@@ -3567,19 +3570,19 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B3189,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B18,AssociatedElements!B$2:B3191,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B18" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>648</v>
+        <v>358</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>622</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>649</v>
+        <v>776</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>1</v>
@@ -3588,19 +3591,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B3190,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B19,AssociatedElements!B$2:B3192,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B19" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>650</v>
+        <v>359</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>623</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>651</v>
+        <v>777</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>1</v>
@@ -3611,17 +3614,17 @@
     </row>
     <row r="20" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B20,AssociatedElements!B$2:B3058,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B20" s="13" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>672</v>
+        <v>642</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>1</v>
@@ -3634,17 +3637,17 @@
     </row>
     <row r="21" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B3057,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B21,AssociatedElements!B$2:B3059,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B21" s="13" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>673</v>
+        <v>643</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>1</v>
@@ -3657,17 +3660,17 @@
     </row>
     <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B3058,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B22,AssociatedElements!B$2:B3060,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B22" s="13" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>674</v>
+        <v>644</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>1</v>
@@ -3680,17 +3683,17 @@
     </row>
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B3059,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B23,AssociatedElements!B$2:B3061,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B23" s="13" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>675</v>
+        <v>645</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>1</v>
@@ -3703,17 +3706,17 @@
     </row>
     <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B3062,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B24,AssociatedElements!B$2:B3064,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B24" s="13" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>678</v>
+        <v>648</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>1</v>
@@ -3726,17 +3729,17 @@
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B3063,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B25,AssociatedElements!B$2:B3065,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B25" s="13" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>679</v>
+        <v>649</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>1</v>
@@ -3749,17 +3752,17 @@
     </row>
     <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B3060,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B26,AssociatedElements!B$2:B3062,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B26" s="13" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>676</v>
+        <v>646</v>
       </c>
       <c r="E26" s="13" t="s">
         <v>1</v>
@@ -3772,17 +3775,17 @@
     </row>
     <row r="27" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B3064,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B27,AssociatedElements!B$2:B3066,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B27" s="13" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>680</v>
+        <v>650</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>1</v>
@@ -3795,17 +3798,17 @@
     </row>
     <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B3065,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B28,AssociatedElements!B$2:B3067,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B28" s="13" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>681</v>
+        <v>651</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>1</v>
@@ -3818,17 +3821,17 @@
     </row>
     <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B3068,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B29,AssociatedElements!B$2:B3070,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B29" s="13" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>684</v>
+        <v>654</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>1</v>
@@ -3839,17 +3842,17 @@
     </row>
     <row r="30" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B3061,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B30,AssociatedElements!B$2:B3063,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B30" s="13" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>677</v>
+        <v>647</v>
       </c>
       <c r="E30" s="13" t="s">
         <v>1</v>
@@ -3862,17 +3865,17 @@
     </row>
     <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B3071,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B31,AssociatedElements!B$2:B3073,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B31" s="13" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>687</v>
+        <v>657</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>1</v>
@@ -3883,17 +3886,17 @@
     </row>
     <row r="32" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B3072,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B32,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B32" s="13" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>688</v>
+        <v>658</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>1</v>
@@ -3904,17 +3907,17 @@
     </row>
     <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B3074,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B33,AssociatedElements!B$2:B3076,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B33" s="13" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>690</v>
+        <v>660</v>
       </c>
       <c r="E33" s="13" t="s">
         <v>1</v>
@@ -3925,17 +3928,17 @@
     </row>
     <row r="34" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B3075,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B34,AssociatedElements!B$2:B3077,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B34" s="13" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>691</v>
+        <v>661</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>180</v>
@@ -3946,17 +3949,17 @@
     </row>
     <row r="35" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B3076,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B35,AssociatedElements!B$2:B3078,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B35" s="13" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>692</v>
+        <v>662</v>
       </c>
       <c r="E35" s="13" t="s">
         <v>1</v>
@@ -3967,17 +3970,17 @@
     </row>
     <row r="36" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B3054,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B36,AssociatedElements!B$2:B3056,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B36" s="13" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>670</v>
+        <v>640</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>1</v>
@@ -3990,17 +3993,17 @@
     </row>
     <row r="37" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B3055,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B37,AssociatedElements!B$2:B3057,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B37" s="13" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>671</v>
+        <v>641</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>1</v>
@@ -4013,17 +4016,17 @@
     </row>
     <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B3179,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B38,AssociatedElements!B$2:B3181,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B38" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>630</v>
+        <v>388</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>604</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>631</v>
+        <v>605</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>1</v>
@@ -4034,17 +4037,17 @@
     </row>
     <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B3091,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B39,AssociatedElements!B$2:B3093,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B39" s="13" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>707</v>
+        <v>677</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>1</v>
@@ -4055,17 +4058,17 @@
     </row>
     <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B3077,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B40,AssociatedElements!B$2:B3079,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B40" s="13" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>693</v>
+        <v>663</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>1</v>
@@ -4076,17 +4079,17 @@
     </row>
     <row r="41" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B41,AssociatedElements!B$2:B3078,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B41,AssociatedElements!B$2:B3080,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B41" s="13" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>694</v>
+        <v>664</v>
       </c>
       <c r="E41" s="13" t="s">
         <v>1</v>
@@ -4097,17 +4100,17 @@
     </row>
     <row r="42" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B42,AssociatedElements!B$2:B3079,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B42,AssociatedElements!B$2:B3081,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B42" s="13" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>695</v>
+        <v>665</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>1</v>
@@ -4118,17 +4121,17 @@
     </row>
     <row r="43" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B43,AssociatedElements!B$2:B3080,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B43,AssociatedElements!B$2:B3082,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B43" s="13" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>696</v>
+        <v>666</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>1</v>
@@ -4139,17 +4142,17 @@
     </row>
     <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B44,AssociatedElements!B$2:B3081,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B44,AssociatedElements!B$2:B3083,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B44" s="13" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>697</v>
+        <v>667</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>1</v>
@@ -4160,17 +4163,17 @@
     </row>
     <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B45,AssociatedElements!B$2:B3052,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B45,AssociatedElements!B$2:B3054,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B45" s="13" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>1</v>
@@ -4183,17 +4186,17 @@
     </row>
     <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B3085,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B46,AssociatedElements!B$2:B3087,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B46" s="13" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>701</v>
+        <v>671</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>1</v>
@@ -4204,17 +4207,17 @@
     </row>
     <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B3148,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B47,AssociatedElements!B$2:B3150,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B47" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>572</v>
+        <v>274</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>547</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>1</v>
@@ -4225,17 +4228,17 @@
     </row>
     <row r="48" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B48,AssociatedElements!B$2:B3082,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B48,AssociatedElements!B$2:B3084,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B48" s="13" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>698</v>
+        <v>668</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>1</v>
@@ -4246,17 +4249,17 @@
     </row>
     <row r="49" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B49,AssociatedElements!B$2:B3083,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B49,AssociatedElements!B$2:B3085,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B49" s="13" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>699</v>
+        <v>669</v>
       </c>
       <c r="E49" s="13" t="s">
         <v>1</v>
@@ -4267,17 +4270,17 @@
     </row>
     <row r="50" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B50,AssociatedElements!B$2:B3084,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B50,AssociatedElements!B$2:B3086,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B50" s="13" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>700</v>
+        <v>670</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>1</v>
@@ -4288,17 +4291,17 @@
     </row>
     <row r="51" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B51,AssociatedElements!B$2:B3139,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B51,AssociatedElements!B$2:B3141,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B51" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>556</v>
+        <v>292</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>531</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>748</v>
+        <v>775</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>1</v>
@@ -4309,17 +4312,17 @@
     </row>
     <row r="52" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B52,AssociatedElements!B$2:B3140,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B52,AssociatedElements!B$2:B3142,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B52" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>557</v>
+        <v>293</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>532</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>1</v>
@@ -4328,19 +4331,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B53,AssociatedElements!B$2:B3191,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B53,AssociatedElements!B$2:B3193,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B53" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>652</v>
+        <v>389</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>624</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>653</v>
+        <v>778</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>1</v>
@@ -4349,19 +4352,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B54,AssociatedElements!B$2:B3192,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B54,AssociatedElements!B$2:B3194,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B54" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>654</v>
+        <v>390</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>625</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>655</v>
+        <v>779</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>1</v>
@@ -4372,17 +4375,17 @@
     </row>
     <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B55,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B55,AssociatedElements!B$2:B3090,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B55" s="13" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>704</v>
+        <v>674</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>1</v>
@@ -4393,17 +4396,17 @@
     </row>
     <row r="56" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B56,AssociatedElements!B$2:B3089,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B56,AssociatedElements!B$2:B3091,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B56" s="13" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>705</v>
+        <v>675</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>1</v>
@@ -4414,17 +4417,17 @@
     </row>
     <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B57,AssociatedElements!B$2:B3090,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B57,AssociatedElements!B$2:B3092,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B57" s="13" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>706</v>
+        <v>676</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>1</v>
@@ -4435,17 +4438,17 @@
     </row>
     <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B58,AssociatedElements!B$2:B3094,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B58,AssociatedElements!B$2:B3096,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B58" s="13" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>710</v>
+        <v>680</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>1</v>
@@ -4456,17 +4459,17 @@
     </row>
     <row r="59" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B59,AssociatedElements!B$2:B3095,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B59,AssociatedElements!B$2:B3097,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B59" s="13" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>711</v>
+        <v>681</v>
       </c>
       <c r="E59" s="13" t="s">
         <v>1</v>
@@ -4477,17 +4480,17 @@
     </row>
     <row r="60" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B60,AssociatedElements!B$2:B3096,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B60,AssociatedElements!B$2:B3098,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B60" s="13" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>712</v>
+        <v>682</v>
       </c>
       <c r="E60" s="13" t="s">
         <v>1</v>
@@ -4498,17 +4501,17 @@
     </row>
     <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B61,AssociatedElements!B$2:B3097,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B61,AssociatedElements!B$2:B3099,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B61" s="13" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>713</v>
+        <v>683</v>
       </c>
       <c r="E61" s="13" t="s">
         <v>1</v>
@@ -4519,17 +4522,17 @@
     </row>
     <row r="62" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B62,AssociatedElements!B$2:B3066,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B62,AssociatedElements!B$2:B3068,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B62" s="13" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="E62" s="13" t="s">
         <v>1</v>
@@ -4542,17 +4545,17 @@
     </row>
     <row r="63" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B63,AssociatedElements!B$2:B3098,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B63,AssociatedElements!B$2:B3100,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B63" s="13" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>714</v>
+        <v>684</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>1</v>
@@ -4563,17 +4566,17 @@
     </row>
     <row r="64" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B64,AssociatedElements!B$2:B3099,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B64,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B64" s="13" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>715</v>
+        <v>685</v>
       </c>
       <c r="E64" s="13" t="s">
         <v>1</v>
@@ -4584,17 +4587,17 @@
     </row>
     <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B65,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B65,AssociatedElements!B$2:B3104,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B65" s="13" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>718</v>
+        <v>688</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>1</v>
@@ -4605,17 +4608,17 @@
     </row>
     <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B66,AssociatedElements!B$2:B3105,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B66,AssociatedElements!B$2:B3107,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B66" s="13" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>721</v>
+        <v>691</v>
       </c>
       <c r="E66" s="13" t="s">
         <v>1</v>
@@ -4626,17 +4629,17 @@
     </row>
     <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B67,AssociatedElements!B$2:B3106,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B67,AssociatedElements!B$2:B3108,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B67" s="13" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>722</v>
+        <v>692</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>1</v>
@@ -4647,17 +4650,17 @@
     </row>
     <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B68,AssociatedElements!B$2:B3107,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B68,AssociatedElements!B$2:B3109,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B68" s="13" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>723</v>
+        <v>693</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>1</v>
@@ -4668,17 +4671,17 @@
     </row>
     <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B69,AssociatedElements!B$2:B3108,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B69,AssociatedElements!B$2:B3110,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B69" s="13" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>724</v>
+        <v>694</v>
       </c>
       <c r="E69" s="13" t="s">
         <v>1</v>
@@ -4689,17 +4692,17 @@
     </row>
     <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B70,AssociatedElements!B$2:B3109,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B70,AssociatedElements!B$2:B3111,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B70" s="13" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>725</v>
+        <v>695</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>1</v>
@@ -4710,17 +4713,17 @@
     </row>
     <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B71,AssociatedElements!B$2:B3110,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B71,AssociatedElements!B$2:B3112,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B71" s="13" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>726</v>
+        <v>696</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>1</v>
@@ -4731,17 +4734,17 @@
     </row>
     <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B72,AssociatedElements!B$2:B3111,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B72,AssociatedElements!B$2:B3113,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B72" s="13" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>727</v>
+        <v>697</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>180</v>
@@ -4752,17 +4755,17 @@
     </row>
     <row r="73" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B73,AssociatedElements!B$2:B3113,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B73,AssociatedElements!B$2:B3115,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B73" s="13" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>729</v>
+        <v>699</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>1</v>
@@ -4773,17 +4776,17 @@
     </row>
     <row r="74" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B74,AssociatedElements!B$2:B3115,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B74,AssociatedElements!B$2:B3117,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B74" s="13" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>731</v>
+        <v>701</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>1</v>
@@ -4794,17 +4797,17 @@
     </row>
     <row r="75" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B75,AssociatedElements!B$2:B3116,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B75,AssociatedElements!B$2:B3118,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B75" s="13" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>732</v>
+        <v>702</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>1</v>
@@ -4815,17 +4818,17 @@
     </row>
     <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B76,AssociatedElements!B$2:B3117,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B76,AssociatedElements!B$2:B3119,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B76" s="13" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>733</v>
+        <v>703</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>1</v>
@@ -4836,17 +4839,17 @@
     </row>
     <row r="77" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B77,AssociatedElements!B$2:B3086,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B77,AssociatedElements!B$2:B3088,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B77" s="13" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>702</v>
+        <v>672</v>
       </c>
       <c r="E77" s="13" t="s">
         <v>1</v>
@@ -4857,17 +4860,17 @@
     </row>
     <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B78,AssociatedElements!B$2:B3118,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B78,AssociatedElements!B$2:B3120,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B78" s="13" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>734</v>
+        <v>704</v>
       </c>
       <c r="E78" s="13" t="s">
         <v>1</v>
@@ -4878,17 +4881,17 @@
     </row>
     <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B79,AssociatedElements!B$2:B3121,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B79,AssociatedElements!B$2:B3123,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B79" s="13" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>737</v>
+        <v>707</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>1</v>
@@ -4899,17 +4902,17 @@
     </row>
     <row r="80" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B80,AssociatedElements!B$2:B3122,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B80,AssociatedElements!B$2:B3124,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B80" s="13" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>738</v>
+        <v>708</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>180</v>
@@ -4920,17 +4923,17 @@
     </row>
     <row r="81" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B81,AssociatedElements!B$2:B3123,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B81,AssociatedElements!B$2:B3125,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B81" s="13" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>739</v>
+        <v>709</v>
       </c>
       <c r="E81" s="13" t="s">
         <v>180</v>
@@ -4941,17 +4944,17 @@
     </row>
     <row r="82" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B82,AssociatedElements!B$2:B3124,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B82,AssociatedElements!B$2:B3126,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B82" s="13" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>740</v>
+        <v>710</v>
       </c>
       <c r="E82" s="13" t="s">
         <v>180</v>
@@ -4962,17 +4965,17 @@
     </row>
     <row r="83" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B83,AssociatedElements!B$2:B3187,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B83,AssociatedElements!B$2:B3189,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B83" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="C83" s="21" t="s">
-        <v>646</v>
+        <v>305</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>620</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>647</v>
+        <v>621</v>
       </c>
       <c r="E83" s="16" t="s">
         <v>1</v>
@@ -4983,17 +4986,17 @@
     </row>
     <row r="84" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B84,AssociatedElements!B$2:B3125,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B84,AssociatedElements!B$2:B3127,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B84" s="13" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>741</v>
+        <v>711</v>
       </c>
       <c r="E84" s="13" t="s">
         <v>174</v>
@@ -5004,17 +5007,17 @@
     </row>
     <row r="85" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B85,AssociatedElements!B$2:B3188,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B85,AssociatedElements!B$2:B3190,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B85" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>763</v>
+        <v>318</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>732</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>754</v>
+        <v>723</v>
       </c>
       <c r="E85" s="16" t="s">
         <v>1</v>
@@ -5025,17 +5028,17 @@
     </row>
     <row r="86" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B86,AssociatedElements!B$2:B3114,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B86,AssociatedElements!B$2:B3116,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B86" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>730</v>
+        <v>700</v>
       </c>
       <c r="E86" s="13" t="s">
         <v>1</v>
@@ -5046,17 +5049,17 @@
     </row>
     <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B87,AssociatedElements!B$2:B3112,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B87,AssociatedElements!B$2:B3114,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B87" s="13" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>728</v>
+        <v>698</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>180</v>
@@ -5067,17 +5070,17 @@
     </row>
     <row r="88" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B88,AssociatedElements!B$2:B3126,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B88,AssociatedElements!B$2:B3128,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B88" s="13" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>742</v>
+        <v>712</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>1</v>
@@ -5088,17 +5091,17 @@
     </row>
     <row r="89" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B89,AssociatedElements!B$2:B3127,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B89,AssociatedElements!B$2:B3129,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B89" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="C89" s="21" t="s">
-        <v>539</v>
+        <v>289</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>514</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>744</v>
+        <v>714</v>
       </c>
       <c r="E89" s="16" t="s">
         <v>1</v>
@@ -5109,17 +5112,17 @@
     </row>
     <row r="90" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B90,AssociatedElements!B$2:B3128,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B90,AssociatedElements!B$2:B3130,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B90" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="C90" s="21" t="s">
-        <v>540</v>
+        <v>290</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>515</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>745</v>
+        <v>715</v>
       </c>
       <c r="E90" s="16" t="s">
         <v>1</v>
@@ -5130,17 +5133,17 @@
     </row>
     <row r="91" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B91,AssociatedElements!B$2:B3129,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B91,AssociatedElements!B$2:B3131,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B91" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="C91" s="21" t="s">
-        <v>541</v>
+        <v>291</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>516</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>746</v>
+        <v>716</v>
       </c>
       <c r="E91" s="16" t="s">
         <v>1</v>
@@ -5151,17 +5154,17 @@
     </row>
     <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B92,AssociatedElements!B$2:B3092,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B92,AssociatedElements!B$2:B3094,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B92" s="13" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>708</v>
+        <v>678</v>
       </c>
       <c r="E92" s="13" t="s">
         <v>1</v>
@@ -5172,17 +5175,17 @@
     </row>
     <row r="93" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B93,AssociatedElements!B$2:B3069,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B93,AssociatedElements!B$2:B3071,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B93" s="13" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>685</v>
+        <v>655</v>
       </c>
       <c r="E93" s="13" t="s">
         <v>1</v>
@@ -5193,17 +5196,17 @@
     </row>
     <row r="94" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B94,AssociatedElements!B$2:B3154,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B94,AssociatedElements!B$2:B3156,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B94" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="C94" s="21" t="s">
-        <v>584</v>
+        <v>322</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>559</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="E94" s="16" t="s">
         <v>1</v>
@@ -5214,17 +5217,17 @@
     </row>
     <row r="95" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B95,AssociatedElements!B$2:B3155,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B95,AssociatedElements!B$2:B3157,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B95" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="C95" s="21" t="s">
-        <v>586</v>
+        <v>294</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>561</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>750</v>
+        <v>719</v>
       </c>
       <c r="E95" s="16" t="s">
         <v>1</v>
@@ -5235,17 +5238,17 @@
     </row>
     <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B96,AssociatedElements!B$2:B3130,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B96,AssociatedElements!B$2:B3132,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B96" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="C96" s="21" t="s">
-        <v>542</v>
+        <v>344</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>517</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="E96" s="16" t="s">
         <v>1</v>
@@ -5256,17 +5259,17 @@
     </row>
     <row r="97" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B97,AssociatedElements!B$2:B3131,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B97,AssociatedElements!B$2:B3133,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B97" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="C97" s="21" t="s">
-        <v>544</v>
+        <v>345</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>519</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>747</v>
+        <v>717</v>
       </c>
       <c r="E97" s="16"/>
       <c r="F97" s="16" t="s">
@@ -5275,17 +5278,17 @@
     </row>
     <row r="98" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B98,AssociatedElements!B$2:B3132,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B98,AssociatedElements!B$2:B3134,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B98" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>743</v>
+        <v>346</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>713</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="E98" s="16" t="s">
         <v>1</v>
@@ -5296,17 +5299,17 @@
     </row>
     <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B99,AssociatedElements!B$2:B3133,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B99,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B99" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="C99" s="21" t="s">
-        <v>328</v>
+        <v>314</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>314</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>1</v>
@@ -5317,17 +5320,17 @@
     </row>
     <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B100,AssociatedElements!B$2:B3134,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B100,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B100" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="C100" s="21" t="s">
-        <v>547</v>
+        <v>348</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>522</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="E100" s="16" t="s">
         <v>1</v>
@@ -5338,17 +5341,17 @@
     </row>
     <row r="101" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B101,AssociatedElements!B$2:B3135,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B101,AssociatedElements!B$2:B3137,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B101" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C101" s="21" t="s">
-        <v>549</v>
+        <v>250</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>524</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="E101" s="16" t="s">
         <v>180</v>
@@ -5359,17 +5362,17 @@
     </row>
     <row r="102" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B102,AssociatedElements!B$2:B3136,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B102,AssociatedElements!B$2:B3138,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B102" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="C102" s="21" t="s">
-        <v>551</v>
+        <v>251</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>526</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="E102" s="16" t="s">
         <v>180</v>
@@ -5380,17 +5383,17 @@
     </row>
     <row r="103" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B103,AssociatedElements!B$2:B3137,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B103,AssociatedElements!B$2:B3139,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B103" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="C103" s="21" t="s">
-        <v>553</v>
+        <v>354</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>528</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="E103" s="16" t="s">
         <v>1</v>
@@ -5401,17 +5404,17 @@
     </row>
     <row r="104" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B104,AssociatedElements!B$2:B3138,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B104,AssociatedElements!B$2:B3140,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B104" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="C104" s="21" t="s">
-        <v>554</v>
+        <v>395</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>529</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="E104" s="16" t="s">
         <v>1</v>
@@ -5422,17 +5425,17 @@
     </row>
     <row r="105" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B105,AssociatedElements!B$2:B3141,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B105,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B105" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="C105" s="21" t="s">
-        <v>559</v>
+        <v>381</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>534</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="E105" s="16" t="s">
         <v>1</v>
@@ -5443,17 +5446,17 @@
     </row>
     <row r="106" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B106,AssociatedElements!B$2:B3142,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B106,AssociatedElements!B$2:B3144,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B106" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="C106" s="21" t="s">
-        <v>561</v>
+        <v>382</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>536</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="E106" s="16" t="s">
         <v>1</v>
@@ -5464,17 +5467,17 @@
     </row>
     <row r="107" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B107,AssociatedElements!B$2:B3143,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B107,AssociatedElements!B$2:B3145,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B107" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="C107" s="21" t="s">
-        <v>563</v>
+        <v>383</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>538</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="E107" s="16" t="s">
         <v>1</v>
@@ -5485,17 +5488,17 @@
     </row>
     <row r="108" spans="1:6" ht="119" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B108,AssociatedElements!B$2:B3144,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B108,AssociatedElements!B$2:B3146,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B108" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="C108" s="21" t="s">
-        <v>565</v>
+        <v>262</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>540</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>749</v>
+        <v>718</v>
       </c>
       <c r="E108" s="16" t="s">
         <v>1</v>
@@ -5506,17 +5509,17 @@
     </row>
     <row r="109" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B109,AssociatedElements!B$2:B3145,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B109,AssociatedElements!B$2:B3147,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B109" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="C109" s="21" t="s">
-        <v>566</v>
+        <v>415</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>541</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="E109" s="16" t="s">
         <v>1</v>
@@ -5526,18 +5529,18 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A110" s="22" t="str">
-        <f>IF(ISNA(VLOOKUP(B110,AssociatedElements!B$2:B3196,1,FALSE)),"Not used","")</f>
+      <c r="A110" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B110,AssociatedElements!B$2:B3198,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B110" s="2" t="s">
-        <v>775</v>
+        <v>738</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="D110" s="23" t="s">
-        <v>777</v>
+        <v>739</v>
+      </c>
+      <c r="D110" s="19" t="s">
+        <v>740</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>1</v>
@@ -5548,17 +5551,17 @@
     </row>
     <row r="111" spans="1:6" ht="102" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B111,AssociatedElements!B$2:B3146,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B111,AssociatedElements!B$2:B3148,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B111" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="C111" s="21" t="s">
-        <v>568</v>
+        <v>263</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>543</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="E111" s="16" t="s">
         <v>1</v>
@@ -5569,17 +5572,17 @@
     </row>
     <row r="112" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B112,AssociatedElements!B$2:B3147,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B112,AssociatedElements!B$2:B3149,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B112" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="C112" s="21" t="s">
-        <v>570</v>
+        <v>365</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>545</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="E112" s="16" t="s">
         <v>1</v>
@@ -5590,17 +5593,17 @@
     </row>
     <row r="113" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B113,AssociatedElements!B$2:B3093,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B113,AssociatedElements!B$2:B3095,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B113" s="13" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>709</v>
+        <v>679</v>
       </c>
       <c r="E113" s="13" t="s">
         <v>1</v>
@@ -5611,17 +5614,17 @@
     </row>
     <row r="114" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B114,AssociatedElements!B$2:B3070,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B114,AssociatedElements!B$2:B3072,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B114" s="13" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>686</v>
+        <v>656</v>
       </c>
       <c r="E114" s="13" t="s">
         <v>1</v>
@@ -5632,17 +5635,17 @@
     </row>
     <row r="115" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B115,AssociatedElements!B$2:B3156,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B115,AssociatedElements!B$2:B3158,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B115" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="C115" s="21" t="s">
-        <v>587</v>
+        <v>295</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>562</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>751</v>
+        <v>720</v>
       </c>
       <c r="E115" s="16" t="s">
         <v>1</v>
@@ -5653,17 +5656,17 @@
     </row>
     <row r="116" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B116,AssociatedElements!B$2:B3149,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B116,AssociatedElements!B$2:B3151,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B116" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="C116" s="21" t="s">
-        <v>574</v>
+        <v>325</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>549</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="E116" s="16" t="s">
         <v>1</v>
@@ -5674,17 +5677,17 @@
     </row>
     <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B117,AssociatedElements!B$2:B3150,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B117,AssociatedElements!B$2:B3152,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B117" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="C117" s="21" t="s">
-        <v>576</v>
+        <v>366</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>551</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="E117" s="16" t="s">
         <v>1</v>
@@ -5695,17 +5698,17 @@
     </row>
     <row r="118" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B118,AssociatedElements!B$2:B3151,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B118,AssociatedElements!B$2:B3153,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B118" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="C118" s="21" t="s">
-        <v>578</v>
+        <v>367</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>553</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
       <c r="E118" s="16" t="s">
         <v>1</v>
@@ -5716,17 +5719,17 @@
     </row>
     <row r="119" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B119,AssociatedElements!B$2:B3152,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B119,AssociatedElements!B$2:B3154,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B119" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="C119" s="21" t="s">
-        <v>580</v>
+        <v>309</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>555</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="E119" s="16" t="s">
         <v>1</v>
@@ -5737,17 +5740,17 @@
     </row>
     <row r="120" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B120,AssociatedElements!B$2:B3153,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B120,AssociatedElements!B$2:B3155,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B120" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="C120" s="21" t="s">
-        <v>582</v>
+        <v>416</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>557</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="E120" s="16" t="s">
         <v>1</v>
@@ -5758,17 +5761,17 @@
     </row>
     <row r="121" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B121,AssociatedElements!B$2:B3119,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B121,AssociatedElements!B$2:B3121,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B121" s="13" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>735</v>
+        <v>705</v>
       </c>
       <c r="E121" s="13" t="s">
         <v>1</v>
@@ -5778,18 +5781,18 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A122" s="22" t="str">
-        <f>IF(ISNA(VLOOKUP(B122,AssociatedElements!B$2:B3195,1,FALSE)),"Not used","")</f>
+      <c r="A122" s="2" t="str">
+        <f>IF(ISNA(VLOOKUP(B122,AssociatedElements!B$2:B3197,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B122" s="2" t="s">
-        <v>772</v>
+        <v>735</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="D122" s="23" t="s">
-        <v>773</v>
+        <v>737</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>736</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>1</v>
@@ -5800,17 +5803,17 @@
     </row>
     <row r="123" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B123,AssociatedElements!B$2:B3157,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B123,AssociatedElements!B$2:B3159,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B123" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="C123" s="21" t="s">
-        <v>588</v>
+        <v>368</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>563</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="E123" s="16" t="s">
         <v>1</v>
@@ -5821,17 +5824,17 @@
     </row>
     <row r="124" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B124,AssociatedElements!B$2:B3158,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B124,AssociatedElements!B$2:B3160,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B124" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="C124" s="21" t="s">
-        <v>590</v>
+        <v>418</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>565</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>591</v>
+        <v>566</v>
       </c>
       <c r="E124" s="16" t="s">
         <v>1</v>
@@ -5842,17 +5845,17 @@
     </row>
     <row r="125" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B125,AssociatedElements!B$2:B3159,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B125,AssociatedElements!B$2:B3161,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B125" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="C125" s="21" t="s">
-        <v>592</v>
+        <v>252</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>567</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="E125" s="16" t="s">
         <v>180</v>
@@ -5863,17 +5866,17 @@
     </row>
     <row r="126" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B126,AssociatedElements!B$2:B3160,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B126,AssociatedElements!B$2:B3162,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B126" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="C126" s="21" t="s">
-        <v>594</v>
+        <v>253</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>569</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="E126" s="16" t="s">
         <v>1</v>
@@ -5884,17 +5887,17 @@
     </row>
     <row r="127" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B127,AssociatedElements!B$2:B3104,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B127,AssociatedElements!B$2:B3106,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B127" s="13" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>720</v>
+        <v>690</v>
       </c>
       <c r="E127" s="13" t="s">
         <v>1</v>
@@ -5905,17 +5908,17 @@
     </row>
     <row r="128" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B128,AssociatedElements!B$2:B3161,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B128,AssociatedElements!B$2:B3163,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B128" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="C128" s="21" t="s">
-        <v>596</v>
+        <v>241</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>571</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="E128" s="16" t="s">
         <v>1</v>
@@ -5926,17 +5929,17 @@
     </row>
     <row r="129" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B129,AssociatedElements!B$2:B3162,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B129,AssociatedElements!B$2:B3164,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B129" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="C129" s="21" t="s">
-        <v>598</v>
+        <v>384</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>573</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="E129" s="16" t="s">
         <v>1</v>
@@ -5947,17 +5950,17 @@
     </row>
     <row r="130" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B130,AssociatedElements!B$2:B3163,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B130,AssociatedElements!B$2:B3165,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B130" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="C130" s="21" t="s">
-        <v>600</v>
+        <v>420</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>575</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="E130" s="16" t="s">
         <v>1</v>
@@ -5968,17 +5971,17 @@
     </row>
     <row r="131" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B131,AssociatedElements!B$2:B3164,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B131,AssociatedElements!B$2:B3166,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B131" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="C131" s="21" t="s">
-        <v>602</v>
+        <v>385</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>577</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
       <c r="E131" s="16" t="s">
         <v>1</v>
@@ -5989,17 +5992,17 @@
     </row>
     <row r="132" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B132,AssociatedElements!B$2:B3165,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B132,AssociatedElements!B$2:B3167,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B132" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="C132" s="21" t="s">
-        <v>604</v>
+        <v>391</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>579</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>605</v>
+        <v>580</v>
       </c>
       <c r="E132" s="16" t="s">
         <v>1</v>
@@ -6010,17 +6013,17 @@
     </row>
     <row r="133" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B133,AssociatedElements!B$2:B3166,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B133,AssociatedElements!B$2:B3168,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B133" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="C133" s="21" t="s">
-        <v>606</v>
+        <v>296</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>581</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>607</v>
+        <v>582</v>
       </c>
       <c r="E133" s="16" t="s">
         <v>4</v>
@@ -6029,17 +6032,17 @@
     </row>
     <row r="134" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B134,AssociatedElements!B$2:B3169,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B134,AssociatedElements!B$2:B3171,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B134" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="C134" s="21" t="s">
-        <v>612</v>
+        <v>372</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>587</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>752</v>
+        <v>721</v>
       </c>
       <c r="E134" s="16" t="s">
         <v>1</v>
@@ -6050,17 +6053,17 @@
     </row>
     <row r="135" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B135,AssociatedElements!B$2:B3170,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B135,AssociatedElements!B$2:B3172,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B135" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="C135" s="21" t="s">
-        <v>613</v>
+        <v>315</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>588</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="E135" s="16" t="s">
         <v>1</v>
@@ -6071,17 +6074,17 @@
     </row>
     <row r="136" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B136,AssociatedElements!B$2:B3172,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B136,AssociatedElements!B$2:B3174,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B136" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="C136" s="21" t="s">
-        <v>617</v>
+        <v>424</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>591</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>618</v>
+        <v>592</v>
       </c>
       <c r="E136" s="16" t="s">
         <v>1</v>
@@ -6092,17 +6095,17 @@
     </row>
     <row r="137" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B137,AssociatedElements!B$2:B3171,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B137,AssociatedElements!B$2:B3173,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B137" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="C137" s="21" t="s">
-        <v>615</v>
+        <v>422</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>590</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>616</v>
+        <v>774</v>
       </c>
       <c r="E137" s="16" t="s">
         <v>1</v>
@@ -6113,17 +6116,17 @@
     </row>
     <row r="138" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B138,AssociatedElements!B$2:B3173,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B138,AssociatedElements!B$2:B3175,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B138" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="C138" s="21" t="s">
-        <v>619</v>
+        <v>356</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>593</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>620</v>
+        <v>594</v>
       </c>
       <c r="E138" s="16" t="s">
         <v>1</v>
@@ -6134,17 +6137,17 @@
     </row>
     <row r="139" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B139,AssociatedElements!B$2:B3174,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B139,AssociatedElements!B$2:B3176,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B139" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="C139" s="21" t="s">
-        <v>621</v>
+        <v>386</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>595</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>622</v>
+        <v>596</v>
       </c>
       <c r="E139" s="16" t="s">
         <v>1</v>
@@ -6155,17 +6158,17 @@
     </row>
     <row r="140" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B140,AssociatedElements!B$2:B3175,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B140,AssociatedElements!B$2:B3177,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B140" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="C140" s="21" t="s">
-        <v>623</v>
+        <v>242</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>597</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>624</v>
+        <v>598</v>
       </c>
       <c r="E140" s="16" t="s">
         <v>180</v>
@@ -6176,17 +6179,17 @@
     </row>
     <row r="141" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B141,AssociatedElements!B$2:B3176,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B141,AssociatedElements!B$2:B3178,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B141" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="C141" s="21" t="s">
-        <v>625</v>
+        <v>297</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>599</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>753</v>
+        <v>722</v>
       </c>
       <c r="E141" s="16" t="s">
         <v>1</v>
@@ -6197,17 +6200,17 @@
     </row>
     <row r="142" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B142,AssociatedElements!B$2:B3177,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B142,AssociatedElements!B$2:B3179,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B142" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C142" s="21" t="s">
-        <v>626</v>
+      <c r="C142" s="18" t="s">
+        <v>600</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>627</v>
+        <v>601</v>
       </c>
       <c r="E142" s="16" t="s">
         <v>25</v>
@@ -6218,17 +6221,17 @@
     </row>
     <row r="143" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B143,AssociatedElements!B$2:B3178,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B143,AssociatedElements!B$2:B3180,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B143" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="C143" s="21" t="s">
-        <v>628</v>
+        <v>387</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>602</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>629</v>
+        <v>603</v>
       </c>
       <c r="E143" s="16" t="s">
         <v>1</v>
@@ -6239,17 +6242,17 @@
     </row>
     <row r="144" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B144,AssociatedElements!B$2:B3184,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B144,AssociatedElements!B$2:B3186,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B144" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="C144" s="21" t="s">
-        <v>640</v>
+        <v>299</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>614</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>641</v>
+        <v>615</v>
       </c>
       <c r="E144" s="16" t="s">
         <v>1</v>
@@ -6260,17 +6263,17 @@
     </row>
     <row r="145" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B145,AssociatedElements!B$2:B3180,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B145,AssociatedElements!B$2:B3182,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B145" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="C145" s="21" t="s">
-        <v>632</v>
+        <v>357</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>606</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>633</v>
+        <v>607</v>
       </c>
       <c r="E145" s="16" t="s">
         <v>1</v>
@@ -6281,17 +6284,17 @@
     </row>
     <row r="146" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B146,AssociatedElements!B$2:B3073,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B146,AssociatedElements!B$2:B3075,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B146" s="13" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>689</v>
+        <v>659</v>
       </c>
       <c r="E146" s="13" t="s">
         <v>1</v>
@@ -6302,17 +6305,17 @@
     </row>
     <row r="147" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B147,AssociatedElements!B$2:B3103,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B147,AssociatedElements!B$2:B3105,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B147" s="13" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>719</v>
+        <v>689</v>
       </c>
       <c r="E147" s="13" t="s">
         <v>1</v>
@@ -6323,17 +6326,17 @@
     </row>
     <row r="148" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B148,AssociatedElements!B$2:B3181,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B148,AssociatedElements!B$2:B3183,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B148" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="C148" s="21" t="s">
-        <v>634</v>
+        <v>298</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>608</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>635</v>
+        <v>609</v>
       </c>
       <c r="E148" s="16" t="s">
         <v>1</v>
@@ -6344,17 +6347,17 @@
     </row>
     <row r="149" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B149,AssociatedElements!B$2:B3182,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B149,AssociatedElements!B$2:B3184,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B149" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="C149" s="21" t="s">
-        <v>636</v>
+        <v>347</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>610</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>637</v>
+        <v>611</v>
       </c>
       <c r="E149" s="16" t="s">
         <v>4</v>
@@ -6363,17 +6366,17 @@
     </row>
     <row r="150" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B150,AssociatedElements!B$2:B3183,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B150,AssociatedElements!B$2:B3185,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B150" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="C150" s="21" t="s">
-        <v>638</v>
+        <v>254</v>
+      </c>
+      <c r="C150" s="18" t="s">
+        <v>612</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>639</v>
+        <v>613</v>
       </c>
       <c r="E150" s="16" t="s">
         <v>4</v>
@@ -6382,17 +6385,17 @@
     </row>
     <row r="151" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B151,AssociatedElements!B$2:B3067,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B151,AssociatedElements!B$2:B3069,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B151" s="13" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>683</v>
+        <v>653</v>
       </c>
       <c r="E151" s="13" t="s">
         <v>1</v>
@@ -6405,17 +6408,17 @@
     </row>
     <row r="152" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B152,AssociatedElements!B$2:B3087,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B152,AssociatedElements!B$2:B3089,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B152" s="13" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>703</v>
+        <v>673</v>
       </c>
       <c r="E152" s="13" t="s">
         <v>1</v>
@@ -6426,17 +6429,17 @@
     </row>
     <row r="153" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B153,AssociatedElements!B$2:B3185,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B153,AssociatedElements!B$2:B3187,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B153" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="C153" s="21" t="s">
-        <v>642</v>
+        <v>255</v>
+      </c>
+      <c r="C153" s="18" t="s">
+        <v>616</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>643</v>
+        <v>617</v>
       </c>
       <c r="E153" s="16" t="s">
         <v>180</v>
@@ -6447,17 +6450,17 @@
     </row>
     <row r="154" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B154,AssociatedElements!B$2:B3186,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B154,AssociatedElements!B$2:B3188,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B154" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="C154" s="21" t="s">
-        <v>644</v>
+        <v>428</v>
+      </c>
+      <c r="C154" s="18" t="s">
+        <v>618</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>645</v>
+        <v>619</v>
       </c>
       <c r="E154" s="16" t="s">
         <v>4</v>
@@ -6466,17 +6469,17 @@
     </row>
     <row r="155" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B155,AssociatedElements!B$2:B3189,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B155,AssociatedElements!B$2:B3191,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B155" s="13" t="s">
-        <v>757</v>
+        <v>726</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>758</v>
+        <v>727</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
       <c r="E155" s="13" t="s">
         <v>1</v>
@@ -6487,17 +6490,17 @@
     </row>
     <row r="156" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B156,AssociatedElements!B$2:B3189,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B156,AssociatedElements!B$2:B3191,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B156" s="13" t="s">
-        <v>759</v>
+        <v>728</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>760</v>
+        <v>729</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="E156" s="13" t="s">
         <v>1</v>
@@ -6508,17 +6511,17 @@
     </row>
     <row r="157" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B157,AssociatedElements!B$2:B3100,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B157,AssociatedElements!B$2:B3102,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B157" s="13" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>512</v>
+        <v>487</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>716</v>
+        <v>686</v>
       </c>
       <c r="E157" s="13" t="s">
         <v>1</v>
@@ -6529,17 +6532,17 @@
     </row>
     <row r="158" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B158,AssociatedElements!B$2:B3101,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B158,AssociatedElements!B$2:B3103,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B158" s="13" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>717</v>
+        <v>687</v>
       </c>
       <c r="E158" s="13" t="s">
         <v>1</v>
@@ -6550,17 +6553,17 @@
     </row>
     <row r="159" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(B159,AssociatedElements!B$2:B3120,1,FALSE)),"Not used","")</f>
+        <f>IF(ISNA(VLOOKUP(B159,AssociatedElements!B$2:B3122,1,FALSE)),"Not used","")</f>
         <v/>
       </c>
       <c r="B159" s="13" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>736</v>
+        <v>706</v>
       </c>
       <c r="E159" s="13" t="s">
         <v>1</v>
@@ -6599,11 +6602,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D233"/>
+  <dimension ref="A1:D240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D228" sqref="D228:D233"/>
+    <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C237" sqref="C237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6634,13 +6637,13 @@
         <v/>
       </c>
       <c r="B2" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6652,10 +6655,10 @@
         <v>235</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>236</v>
+        <v>724</v>
+      </c>
+      <c r="D3" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6664,13 +6667,13 @@
         <v/>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>238</v>
+        <v>724</v>
+      </c>
+      <c r="D4" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6679,13 +6682,13 @@
         <v/>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>240</v>
+        <v>724</v>
+      </c>
+      <c r="D5" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6694,13 +6697,13 @@
         <v/>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>242</v>
+        <v>724</v>
+      </c>
+      <c r="D6" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -6709,13 +6712,13 @@
         <v/>
       </c>
       <c r="B7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>244</v>
+        <v>724</v>
+      </c>
+      <c r="D7" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -6724,13 +6727,13 @@
         <v/>
       </c>
       <c r="B8" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>344</v>
+        <v>724</v>
+      </c>
+      <c r="D8" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6739,13 +6742,13 @@
         <v/>
       </c>
       <c r="B9" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>344</v>
+        <v>724</v>
+      </c>
+      <c r="D9" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -6754,13 +6757,13 @@
         <v/>
       </c>
       <c r="B10" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>344</v>
+        <v>724</v>
+      </c>
+      <c r="D10" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -6769,13 +6772,13 @@
         <v/>
       </c>
       <c r="B11" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>246</v>
+        <v>724</v>
+      </c>
+      <c r="D11" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -6784,13 +6787,13 @@
         <v/>
       </c>
       <c r="B12" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>252</v>
+        <v>724</v>
+      </c>
+      <c r="D12" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6799,13 +6802,13 @@
         <v/>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6814,13 +6817,13 @@
         <v/>
       </c>
       <c r="B14" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -6829,13 +6832,13 @@
         <v/>
       </c>
       <c r="B15" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6844,13 +6847,13 @@
         <v/>
       </c>
       <c r="B16" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>318</v>
+        <v>724</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -6859,13 +6862,13 @@
         <v/>
       </c>
       <c r="B17" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -6874,13 +6877,13 @@
         <v/>
       </c>
       <c r="B18" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D18" t="s">
         <v>755</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -6889,13 +6892,13 @@
         <v/>
       </c>
       <c r="B19" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -6904,13 +6907,13 @@
         <v/>
       </c>
       <c r="B20" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -6919,13 +6922,13 @@
         <v/>
       </c>
       <c r="B21" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -6934,13 +6937,13 @@
         <v/>
       </c>
       <c r="B22" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -6949,13 +6952,13 @@
         <v/>
       </c>
       <c r="B23" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -6964,13 +6967,13 @@
         <v/>
       </c>
       <c r="B24" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>266</v>
+        <v>724</v>
+      </c>
+      <c r="D24" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -6979,13 +6982,13 @@
         <v/>
       </c>
       <c r="B25" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -6994,13 +6997,13 @@
         <v/>
       </c>
       <c r="B26" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -7009,13 +7012,13 @@
         <v/>
       </c>
       <c r="B27" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -7024,13 +7027,13 @@
         <v/>
       </c>
       <c r="B28" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -7039,13 +7042,13 @@
         <v/>
       </c>
       <c r="B29" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -7054,43 +7057,43 @@
         <v/>
       </c>
       <c r="B30" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B31" t="s">
-        <v>354</v>
+        <f>IF(ISNA(VLOOKUP(#REF!,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>724</v>
+      </c>
+      <c r="D31" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <f>IF(ISNA(VLOOKUP(#REF!,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>354</v>
+        <f>IF(ISNA(VLOOKUP(B32,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B32" t="s">
+        <v>337</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>435</v>
+        <v>724</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -7099,13 +7102,13 @@
         <v/>
       </c>
       <c r="B33" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -7114,13 +7117,13 @@
         <v/>
       </c>
       <c r="B34" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>377</v>
+        <v>724</v>
+      </c>
+      <c r="D34" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -7129,13 +7132,13 @@
         <v/>
       </c>
       <c r="B35" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>320</v>
+        <v>724</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -7144,13 +7147,13 @@
         <v/>
       </c>
       <c r="B36" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -7159,13 +7162,13 @@
         <v/>
       </c>
       <c r="B37" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>382</v>
+        <v>724</v>
+      </c>
+      <c r="D37" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -7174,13 +7177,13 @@
         <v/>
       </c>
       <c r="B38" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>396</v>
+        <v>724</v>
+      </c>
+      <c r="D38" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -7189,13 +7192,13 @@
         <v/>
       </c>
       <c r="B39" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -7204,13 +7207,13 @@
         <v/>
       </c>
       <c r="B40" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>320</v>
+        <v>724</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -7219,13 +7222,13 @@
         <v/>
       </c>
       <c r="B41" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -7234,13 +7237,13 @@
         <v/>
       </c>
       <c r="B42" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -7249,13 +7252,13 @@
         <v/>
       </c>
       <c r="B43" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>382</v>
+        <v>724</v>
+      </c>
+      <c r="D43" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -7264,13 +7267,13 @@
         <v/>
       </c>
       <c r="B44" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>396</v>
+        <v>724</v>
+      </c>
+      <c r="D44" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -7279,13 +7282,13 @@
         <v/>
       </c>
       <c r="B45" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>320</v>
+        <v>724</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -7294,13 +7297,13 @@
         <v/>
       </c>
       <c r="B46" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -7309,13 +7312,13 @@
         <v/>
       </c>
       <c r="B47" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>382</v>
+        <v>724</v>
+      </c>
+      <c r="D47" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -7324,43 +7327,43 @@
         <v/>
       </c>
       <c r="B48" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>724</v>
+      </c>
+      <c r="D48" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f>IF(ISNA(VLOOKUP(B49,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B49" t="s">
-        <v>355</v>
+      <c r="B49" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="str">
+        <v>724</v>
+      </c>
+      <c r="D49" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="str">
         <f>IF(ISNA(VLOOKUP(B50,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B50" s="20" t="s">
-        <v>355</v>
+      <c r="B50" t="s">
+        <v>338</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>435</v>
+        <v>724</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -7369,13 +7372,13 @@
         <v/>
       </c>
       <c r="B51" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -7384,13 +7387,13 @@
         <v/>
       </c>
       <c r="B52" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -7399,13 +7402,13 @@
         <v/>
       </c>
       <c r="B53" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -7414,13 +7417,13 @@
         <v/>
       </c>
       <c r="B54" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -7429,13 +7432,13 @@
         <v/>
       </c>
       <c r="B55" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>336</v>
+        <v>724</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -7444,13 +7447,13 @@
         <v/>
       </c>
       <c r="B56" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -7459,13 +7462,13 @@
         <v/>
       </c>
       <c r="B57" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>417</v>
+        <v>724</v>
+      </c>
+      <c r="D57" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -7474,13 +7477,13 @@
         <v/>
       </c>
       <c r="B58" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -7489,13 +7492,13 @@
         <v/>
       </c>
       <c r="B59" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -7504,13 +7507,13 @@
         <v/>
       </c>
       <c r="B60" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -7519,13 +7522,13 @@
         <v/>
       </c>
       <c r="B61" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -7534,133 +7537,133 @@
         <v/>
       </c>
       <c r="B62" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f>IF(ISNA(VLOOKUP(B63,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B63" t="s">
-        <v>357</v>
+      <c r="B63" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="19" t="str">
+        <v>724</v>
+      </c>
+      <c r="D63" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="str">
         <f>IF(ISNA(VLOOKUP(B64,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B64" s="20" t="s">
-        <v>357</v>
+      <c r="B64" t="s">
+        <v>340</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>724</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f>IF(ISNA(VLOOKUP(B65,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B65" t="s">
-        <v>358</v>
+      <c r="B65" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="19" t="str">
+        <v>724</v>
+      </c>
+      <c r="D65" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="str">
         <f>IF(ISNA(VLOOKUP(B66,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B66" s="20" t="s">
-        <v>358</v>
+      <c r="B66" t="s">
+        <v>341</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>724</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f>IF(ISNA(VLOOKUP(B67,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B67" t="s">
-        <v>359</v>
+      <c r="B67" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="19" t="str">
+        <v>724</v>
+      </c>
+      <c r="D67" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="str">
         <f>IF(ISNA(VLOOKUP(B68,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B68" s="20" t="s">
-        <v>359</v>
+      <c r="B68" t="s">
+        <v>342</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>724</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f>IF(ISNA(VLOOKUP(B69,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B69" t="s">
-        <v>360</v>
+      <c r="B69" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="str">
+        <v>724</v>
+      </c>
+      <c r="D69" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="str">
         <f>IF(ISNA(VLOOKUP(B70,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B70" s="20" t="s">
-        <v>360</v>
+      <c r="B70" t="s">
+        <v>343</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>435</v>
+        <v>724</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -7669,13 +7672,13 @@
         <v/>
       </c>
       <c r="B71" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -7684,13 +7687,13 @@
         <v/>
       </c>
       <c r="B72" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>377</v>
+        <v>724</v>
+      </c>
+      <c r="D72" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -7699,13 +7702,13 @@
         <v/>
       </c>
       <c r="B73" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -7714,13 +7717,13 @@
         <v/>
       </c>
       <c r="B74" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -7729,13 +7732,13 @@
         <v/>
       </c>
       <c r="B75" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -7744,13 +7747,13 @@
         <v/>
       </c>
       <c r="B76" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -7759,13 +7762,13 @@
         <v/>
       </c>
       <c r="B77" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -7774,13 +7777,13 @@
         <v/>
       </c>
       <c r="B78" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -7789,13 +7792,13 @@
         <v/>
       </c>
       <c r="B79" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>288</v>
+        <v>724</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -7804,13 +7807,13 @@
         <v/>
       </c>
       <c r="B80" t="s">
-        <v>424</v>
+        <v>277</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>425</v>
+        <v>753</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -7819,13 +7822,13 @@
         <v/>
       </c>
       <c r="B81" t="s">
-        <v>277</v>
+        <v>400</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>275</v>
+        <v>401</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -7834,13 +7837,13 @@
         <v/>
       </c>
       <c r="B82" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D82" s="18" t="s">
-        <v>377</v>
+        <v>724</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -7849,13 +7852,13 @@
         <v/>
       </c>
       <c r="B83" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>275</v>
+        <v>724</v>
+      </c>
+      <c r="D83" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -7864,13 +7867,13 @@
         <v/>
       </c>
       <c r="B84" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -7879,13 +7882,13 @@
         <v/>
       </c>
       <c r="B85" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>416</v>
+        <v>279</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -7894,13 +7897,13 @@
         <v/>
       </c>
       <c r="B86" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>275</v>
+        <v>392</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -7909,13 +7912,13 @@
         <v/>
       </c>
       <c r="B87" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>290</v>
+        <v>773</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -7924,13 +7927,13 @@
         <v/>
       </c>
       <c r="B88" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D88" s="18" t="s">
-        <v>377</v>
+        <v>724</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -7939,13 +7942,13 @@
         <v/>
       </c>
       <c r="B89" t="s">
+        <v>269</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -7954,13 +7957,13 @@
         <v/>
       </c>
       <c r="B90" t="s">
-        <v>398</v>
+        <v>269</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -7969,13 +7972,13 @@
         <v/>
       </c>
       <c r="B91" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D91" s="18" t="s">
-        <v>312</v>
+        <v>724</v>
+      </c>
+      <c r="D91" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -7984,13 +7987,13 @@
         <v/>
       </c>
       <c r="B92" t="s">
-        <v>451</v>
+        <v>269</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D92" s="18" t="s">
-        <v>450</v>
+        <v>724</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -7999,13 +8002,13 @@
         <v/>
       </c>
       <c r="B93" t="s">
-        <v>451</v>
+        <v>375</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>452</v>
+        <v>373</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -8014,13 +8017,13 @@
         <v/>
       </c>
       <c r="B94" t="s">
-        <v>399</v>
+        <v>300</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>396</v>
+        <v>724</v>
+      </c>
+      <c r="D94" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -8029,13 +8032,13 @@
         <v/>
       </c>
       <c r="B95" t="s">
-        <v>298</v>
+        <v>426</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>290</v>
+        <v>724</v>
+      </c>
+      <c r="D95" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -8044,13 +8047,13 @@
         <v/>
       </c>
       <c r="B96" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -8059,13 +8062,13 @@
         <v/>
       </c>
       <c r="B97" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>756</v>
+        <v>373</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -8074,13 +8077,13 @@
         <v/>
       </c>
       <c r="B98" t="s">
-        <v>401</v>
+        <v>287</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>396</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -8089,13 +8092,13 @@
         <v/>
       </c>
       <c r="B99" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>756</v>
+        <v>373</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -8104,13 +8107,13 @@
         <v/>
       </c>
       <c r="B100" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>396</v>
+        <v>725</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -8119,13 +8122,13 @@
         <v/>
       </c>
       <c r="B101" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>756</v>
+        <v>373</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -8134,13 +8137,13 @@
         <v/>
       </c>
       <c r="B102" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D102" s="18" t="s">
-        <v>377</v>
+        <v>724</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -8149,13 +8152,13 @@
         <v/>
       </c>
       <c r="B103" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -8164,13 +8167,13 @@
         <v/>
       </c>
       <c r="B104" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>369</v>
+        <v>725</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -8179,13 +8182,13 @@
         <v/>
       </c>
       <c r="B105" t="s">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>396</v>
+        <v>724</v>
+      </c>
+      <c r="D105" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -8194,13 +8197,13 @@
         <v/>
       </c>
       <c r="B106" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D106" s="18" t="s">
-        <v>377</v>
+        <v>724</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -8209,13 +8212,13 @@
         <v/>
       </c>
       <c r="B107" t="s">
-        <v>426</v>
+        <v>353</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>427</v>
+        <v>352</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -8224,13 +8227,13 @@
         <v/>
       </c>
       <c r="B108" t="s">
-        <v>428</v>
+        <v>380</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>427</v>
+        <v>373</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -8239,13 +8242,13 @@
         <v/>
       </c>
       <c r="B109" t="s">
-        <v>429</v>
+        <v>362</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>427</v>
+        <v>724</v>
+      </c>
+      <c r="D109" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -8254,13 +8257,13 @@
         <v/>
       </c>
       <c r="B110" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -8269,13 +8272,13 @@
         <v/>
       </c>
       <c r="B111" t="s">
-        <v>255</v>
+        <v>404</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>254</v>
+        <v>403</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -8284,13 +8287,13 @@
         <v/>
       </c>
       <c r="B112" t="s">
-        <v>256</v>
+        <v>405</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>254</v>
+        <v>403</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -8299,13 +8302,13 @@
         <v/>
       </c>
       <c r="B113" t="s">
-        <v>257</v>
+        <v>406</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>254</v>
+        <v>403</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -8314,13 +8317,13 @@
         <v/>
       </c>
       <c r="B114" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>420</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -8329,13 +8332,13 @@
         <v/>
       </c>
       <c r="B115" t="s">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>348</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -8344,13 +8347,13 @@
         <v/>
       </c>
       <c r="B116" t="s">
-        <v>431</v>
+        <v>248</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>432</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -8359,13 +8362,13 @@
         <v/>
       </c>
       <c r="B117" t="s">
-        <v>433</v>
+        <v>248</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -8374,13 +8377,13 @@
         <v/>
       </c>
       <c r="B118" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -8389,13 +8392,13 @@
         <v/>
       </c>
       <c r="B119" t="s">
-        <v>349</v>
+        <v>407</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>350</v>
+        <v>724</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -8404,13 +8407,13 @@
         <v/>
       </c>
       <c r="B120" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D120" s="18" t="s">
-        <v>377</v>
+        <v>724</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -8419,13 +8422,13 @@
         <v/>
       </c>
       <c r="B121" t="s">
-        <v>381</v>
+        <v>288</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>417</v>
+        <v>279</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -8434,13 +8437,13 @@
         <v/>
       </c>
       <c r="B122" t="s">
-        <v>418</v>
+        <v>333</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>417</v>
+        <v>724</v>
+      </c>
+      <c r="D122" s="22" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -8449,13 +8452,13 @@
         <v/>
       </c>
       <c r="B123" t="s">
-        <v>436</v>
+        <v>363</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -8464,13 +8467,13 @@
         <v/>
       </c>
       <c r="B124" t="s">
-        <v>280</v>
+        <v>363</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>281</v>
+        <v>724</v>
+      </c>
+      <c r="D124" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -8479,13 +8482,13 @@
         <v/>
       </c>
       <c r="B125" t="s">
-        <v>282</v>
+        <v>394</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>281</v>
+        <v>393</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -8494,13 +8497,13 @@
         <v/>
       </c>
       <c r="B126" t="s">
-        <v>283</v>
+        <v>411</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>281</v>
+        <v>412</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -8509,13 +8512,13 @@
         <v/>
       </c>
       <c r="B127" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -8524,13 +8527,13 @@
         <v/>
       </c>
       <c r="B128" t="s">
+        <v>272</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D128" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -8539,28 +8542,28 @@
         <v/>
       </c>
       <c r="B129" t="s">
+        <v>273</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D129" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C129" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A130" s="19" t="str">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="str">
         <f>IF(ISNA(VLOOKUP(B130,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B130" s="20" t="s">
-        <v>775</v>
+      <c r="B130" t="s">
+        <v>249</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D130" s="18" t="s">
-        <v>769</v>
+        <v>724</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -8569,13 +8572,13 @@
         <v/>
       </c>
       <c r="B131" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -8584,28 +8587,28 @@
         <v/>
       </c>
       <c r="B132" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
         <f>IF(ISNA(VLOOKUP(B133,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B133" t="s">
-        <v>302</v>
+      <c r="B133" s="2" t="s">
+        <v>738</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>290</v>
+        <v>724</v>
+      </c>
+      <c r="D133" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -8614,28 +8617,28 @@
         <v/>
       </c>
       <c r="B134" t="s">
-        <v>361</v>
+        <v>289</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" s="19" t="str">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="str">
         <f>IF(ISNA(VLOOKUP(B135,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B135" s="20" t="s">
-        <v>361</v>
+      <c r="B135" t="s">
+        <v>290</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D135" s="18" t="s">
-        <v>435</v>
+        <v>724</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -8644,28 +8647,28 @@
         <v/>
       </c>
       <c r="B136" t="s">
-        <v>362</v>
+        <v>291</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>352</v>
+        <v>279</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A137" s="19" t="str">
+      <c r="A137" t="str">
         <f>IF(ISNA(VLOOKUP(B137,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B137" s="20" t="s">
-        <v>362</v>
+      <c r="B137" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D137" s="18" t="s">
-        <v>435</v>
+        <v>724</v>
+      </c>
+      <c r="D137" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -8674,28 +8677,28 @@
         <v/>
       </c>
       <c r="B138" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A139" s="19" t="str">
+      <c r="A139" t="str">
         <f>IF(ISNA(VLOOKUP(B139,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B139" s="20" t="s">
-        <v>363</v>
+      <c r="B139" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D139" s="18" t="s">
-        <v>435</v>
+        <v>724</v>
+      </c>
+      <c r="D139" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -8704,28 +8707,28 @@
         <v/>
       </c>
       <c r="B140" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
         <f>IF(ISNA(VLOOKUP(B141,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B141" t="s">
-        <v>328</v>
+      <c r="B141" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>383</v>
+        <v>724</v>
+      </c>
+      <c r="D141" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -8734,13 +8737,13 @@
         <v/>
       </c>
       <c r="B142" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D142" s="18" t="s">
-        <v>366</v>
+        <v>724</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -8749,13 +8752,13 @@
         <v/>
       </c>
       <c r="B143" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>254</v>
+        <v>313</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -8764,28 +8767,28 @@
         <v/>
       </c>
       <c r="B144" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" t="str">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A145" s="20" t="str">
         <f>IF(ISNA(VLOOKUP(B145,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B145" t="s">
-        <v>371</v>
+      <c r="B145" s="21" t="s">
+        <v>348</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>369</v>
+        <v>724</v>
+      </c>
+      <c r="D145" s="22" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -8794,13 +8797,13 @@
         <v/>
       </c>
       <c r="B146" t="s">
-        <v>419</v>
+        <v>348</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>417</v>
+        <v>724</v>
+      </c>
+      <c r="D146" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -8809,13 +8812,13 @@
         <v/>
       </c>
       <c r="B147" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -8824,13 +8827,13 @@
         <v/>
       </c>
       <c r="B148" t="s">
-        <v>303</v>
+        <v>251</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>372</v>
+        <v>245</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -8839,13 +8842,13 @@
         <v/>
       </c>
       <c r="B149" t="s">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>290</v>
+        <v>352</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -8854,13 +8857,13 @@
         <v/>
       </c>
       <c r="B150" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -8869,13 +8872,13 @@
         <v/>
       </c>
       <c r="B151" t="s">
-        <v>405</v>
+        <v>292</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>396</v>
+        <v>279</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -8884,13 +8887,13 @@
         <v/>
       </c>
       <c r="B152" t="s">
-        <v>406</v>
+        <v>292</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>396</v>
+        <v>355</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -8899,13 +8902,13 @@
         <v/>
       </c>
       <c r="B153" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -8914,13 +8917,13 @@
         <v/>
       </c>
       <c r="B154" t="s">
-        <v>440</v>
+        <v>381</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>439</v>
+        <v>373</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -8929,13 +8932,13 @@
         <v/>
       </c>
       <c r="B155" t="s">
-        <v>273</v>
+        <v>382</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>268</v>
+        <v>373</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -8944,13 +8947,13 @@
         <v/>
       </c>
       <c r="B156" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -8959,13 +8962,13 @@
         <v/>
       </c>
       <c r="B157" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -8974,13 +8977,13 @@
         <v/>
       </c>
       <c r="B158" t="s">
-        <v>284</v>
+        <v>415</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D158" s="18" t="s">
-        <v>385</v>
+        <v>724</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -8989,13 +8992,13 @@
         <v/>
       </c>
       <c r="B159" t="s">
-        <v>340</v>
+        <v>263</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>341</v>
+        <v>258</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -9004,13 +9007,13 @@
         <v/>
       </c>
       <c r="B160" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D160" s="18" t="s">
-        <v>387</v>
+        <v>724</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -9019,13 +9022,13 @@
         <v/>
       </c>
       <c r="B161" t="s">
-        <v>388</v>
+        <v>274</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D161" s="18" t="s">
-        <v>389</v>
+        <v>724</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -9034,13 +9037,13 @@
         <v/>
       </c>
       <c r="B162" t="s">
-        <v>323</v>
+        <v>274</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>324</v>
+        <v>724</v>
+      </c>
+      <c r="D162" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -9049,13 +9052,13 @@
         <v/>
       </c>
       <c r="B163" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -9064,13 +9067,13 @@
         <v/>
       </c>
       <c r="B164" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>417</v>
+        <v>724</v>
+      </c>
+      <c r="D164" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -9079,13 +9082,13 @@
         <v/>
       </c>
       <c r="B165" t="s">
-        <v>441</v>
+        <v>367</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D165" s="18" t="s">
-        <v>442</v>
+        <v>724</v>
+      </c>
+      <c r="D165" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -9094,13 +9097,13 @@
         <v/>
       </c>
       <c r="B166" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D166" s="18" t="s">
-        <v>336</v>
+        <v>724</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -9109,13 +9112,13 @@
         <v/>
       </c>
       <c r="B167" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -9124,13 +9127,13 @@
         <v/>
       </c>
       <c r="B168" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D168" s="18" t="s">
-        <v>377</v>
+        <v>724</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -9139,13 +9142,13 @@
         <v/>
       </c>
       <c r="B169" t="s">
-        <v>337</v>
+        <v>416</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>416</v>
+        <v>724</v>
+      </c>
+      <c r="D169" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -9154,13 +9157,13 @@
         <v/>
       </c>
       <c r="B170" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>290</v>
+        <v>350</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -9169,13 +9172,13 @@
         <v/>
       </c>
       <c r="B171" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>324</v>
+        <v>392</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -9184,13 +9187,13 @@
         <v/>
       </c>
       <c r="B172" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D172" s="18" t="s">
-        <v>336</v>
+        <v>724</v>
+      </c>
+      <c r="D172" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -9199,13 +9202,13 @@
         <v/>
       </c>
       <c r="B173" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>342</v>
+        <v>724</v>
+      </c>
+      <c r="D173" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -9214,13 +9217,13 @@
         <v/>
       </c>
       <c r="B174" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>367</v>
+        <v>773</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -9229,13 +9232,13 @@
         <v/>
       </c>
       <c r="B175" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D175" s="18" t="s">
-        <v>377</v>
+        <v>724</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -9244,13 +9247,13 @@
         <v/>
       </c>
       <c r="B176" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>416</v>
+        <v>310</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -9259,13 +9262,13 @@
         <v/>
       </c>
       <c r="B177" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -9274,13 +9277,13 @@
         <v/>
       </c>
       <c r="B178" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -9289,13 +9292,13 @@
         <v/>
       </c>
       <c r="B179" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D179" s="18" t="s">
-        <v>336</v>
+        <v>724</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -9304,13 +9307,13 @@
         <v/>
       </c>
       <c r="B180" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>342</v>
+        <v>724</v>
+      </c>
+      <c r="D180" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -9319,13 +9322,13 @@
         <v/>
       </c>
       <c r="B181" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>367</v>
+        <v>724</v>
+      </c>
+      <c r="D181" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -9334,13 +9337,13 @@
         <v/>
       </c>
       <c r="B182" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D182" s="18" t="s">
-        <v>377</v>
+        <v>724</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -9349,28 +9352,28 @@
         <v/>
       </c>
       <c r="B183" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A184" s="19" t="str">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" t="str">
         <f>IF(ISNA(VLOOKUP(B184,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B184" s="20" t="s">
-        <v>772</v>
+      <c r="B184" t="s">
+        <v>295</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D184" s="18" t="s">
-        <v>769</v>
+        <v>724</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -9379,28 +9382,28 @@
         <v/>
       </c>
       <c r="B185" t="s">
-        <v>390</v>
+        <v>295</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D185" s="18" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A186" s="19" t="str">
+        <v>724</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" t="str">
         <f>IF(ISNA(VLOOKUP(B186,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B186" s="20" t="s">
-        <v>443</v>
+      <c r="B186" t="s">
+        <v>295</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D186" s="18" t="s">
-        <v>770</v>
+        <v>724</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -9409,13 +9412,13 @@
         <v/>
       </c>
       <c r="B187" t="s">
-        <v>443</v>
+        <v>295</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>444</v>
+        <v>392</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -9424,13 +9427,13 @@
         <v/>
       </c>
       <c r="B188" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>254</v>
+        <v>724</v>
+      </c>
+      <c r="D188" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -9439,13 +9442,13 @@
         <v/>
       </c>
       <c r="B189" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>254</v>
+        <v>724</v>
+      </c>
+      <c r="D189" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -9454,28 +9457,28 @@
         <v/>
       </c>
       <c r="B190" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D190" s="18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+        <v>724</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" t="str">
         <f>IF(ISNA(VLOOKUP(B191,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B191" t="s">
-        <v>407</v>
+      <c r="B191" s="2" t="s">
+        <v>735</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>396</v>
+        <v>724</v>
+      </c>
+      <c r="D191" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -9484,28 +9487,28 @@
         <v/>
       </c>
       <c r="B192" t="s">
-        <v>445</v>
+        <v>368</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+        <v>724</v>
+      </c>
+      <c r="D192" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" t="str">
         <f>IF(ISNA(VLOOKUP(B193,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B193" t="s">
-        <v>408</v>
+      <c r="B193" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>396</v>
+        <v>724</v>
+      </c>
+      <c r="D193" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -9514,13 +9517,13 @@
         <v/>
       </c>
       <c r="B194" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D194" s="18" t="s">
-        <v>415</v>
+        <v>724</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -9529,13 +9532,13 @@
         <v/>
       </c>
       <c r="B195" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -9544,13 +9547,13 @@
         <v/>
       </c>
       <c r="B196" t="s">
-        <v>392</v>
+        <v>253</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>393</v>
+        <v>245</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -9559,13 +9562,13 @@
         <v/>
       </c>
       <c r="B197" t="s">
-        <v>394</v>
+        <v>241</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>393</v>
+        <v>724</v>
+      </c>
+      <c r="D197" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -9574,13 +9577,13 @@
         <v/>
       </c>
       <c r="B198" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -9589,13 +9592,13 @@
         <v/>
       </c>
       <c r="B199" t="s">
-        <v>329</v>
+        <v>420</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>327</v>
+        <v>421</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -9604,13 +9607,13 @@
         <v/>
       </c>
       <c r="B200" t="s">
-        <v>447</v>
+        <v>385</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>448</v>
+        <v>373</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -9619,13 +9622,13 @@
         <v/>
       </c>
       <c r="B201" t="s">
-        <v>449</v>
+        <v>391</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>448</v>
+        <v>724</v>
+      </c>
+      <c r="D201" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -9634,13 +9637,13 @@
         <v/>
       </c>
       <c r="B202" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>372</v>
+        <v>279</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -9649,13 +9652,13 @@
         <v/>
       </c>
       <c r="B203" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -9664,13 +9667,13 @@
         <v/>
       </c>
       <c r="B204" t="s">
-        <v>249</v>
+        <v>371</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D204" s="18" t="s">
-        <v>250</v>
+        <v>724</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -9679,13 +9682,13 @@
         <v/>
       </c>
       <c r="B205" t="s">
-        <v>308</v>
+        <v>372</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>290</v>
+        <v>370</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -9694,13 +9697,13 @@
         <v/>
       </c>
       <c r="B206" t="s">
-        <v>25</v>
+        <v>315</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>396</v>
+        <v>313</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -9709,13 +9712,13 @@
         <v/>
       </c>
       <c r="B207" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -9724,13 +9727,13 @@
         <v/>
       </c>
       <c r="B208" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -9739,13 +9742,13 @@
         <v/>
       </c>
       <c r="B209" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -9754,13 +9757,13 @@
         <v/>
       </c>
       <c r="B210" t="s">
-        <v>309</v>
+        <v>386</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>290</v>
+        <v>373</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -9769,13 +9772,13 @@
         <v/>
       </c>
       <c r="B211" t="s">
-        <v>309</v>
+        <v>242</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D211" s="4" t="s">
-        <v>333</v>
+        <v>724</v>
+      </c>
+      <c r="D211" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -9784,13 +9787,13 @@
         <v/>
       </c>
       <c r="B212" t="s">
-        <v>364</v>
+        <v>297</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>352</v>
+        <v>279</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -9799,13 +9802,13 @@
         <v/>
       </c>
       <c r="B213" t="s">
-        <v>263</v>
+        <v>25</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>254</v>
+        <v>373</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -9814,13 +9817,13 @@
         <v/>
       </c>
       <c r="B214" t="s">
-        <v>310</v>
+        <v>387</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>290</v>
+        <v>373</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -9829,13 +9832,13 @@
         <v/>
       </c>
       <c r="B215" t="s">
-        <v>264</v>
+        <v>388</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>254</v>
+        <v>373</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -9844,13 +9847,13 @@
         <v/>
       </c>
       <c r="B216" t="s">
-        <v>453</v>
+        <v>357</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>454</v>
+        <v>355</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -9859,13 +9862,13 @@
         <v/>
       </c>
       <c r="B217" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -9874,13 +9877,13 @@
         <v/>
       </c>
       <c r="B218" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -9889,13 +9892,13 @@
         <v/>
       </c>
       <c r="B219" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>396</v>
+        <v>335</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -9904,13 +9907,13 @@
         <v/>
       </c>
       <c r="B220" t="s">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>420</v>
+        <v>245</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -9919,28 +9922,28 @@
         <v/>
       </c>
       <c r="B221" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="str">
         <f>IF(ISNA(VLOOKUP(B222,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>757</v>
+      <c r="B222" t="s">
+        <v>255</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>756</v>
+        <v>245</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -9949,13 +9952,13 @@
         <v/>
       </c>
       <c r="B223" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>372</v>
+        <v>429</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -9964,28 +9967,28 @@
         <v/>
       </c>
       <c r="B224" t="s">
-        <v>412</v>
+        <v>305</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="str">
         <f>IF(ISNA(VLOOKUP(B225,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>759</v>
+      <c r="B225" t="s">
+        <v>305</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>756</v>
+        <v>311</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -9994,13 +9997,13 @@
         <v/>
       </c>
       <c r="B226" t="s">
-        <v>376</v>
+        <v>305</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -10009,89 +10012,195 @@
         <v/>
       </c>
       <c r="B227" t="s">
-        <v>413</v>
+        <v>305</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="19" t="str">
+      <c r="A228" t="str">
         <f>IF(ISNA(VLOOKUP(B228,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B228" s="20"/>
+        <v/>
+      </c>
+      <c r="B228" t="s">
+        <v>318</v>
+      </c>
       <c r="C228" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D228" s="11" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="19" t="str">
+        <v>724</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A229" t="str">
         <f>IF(ISNA(VLOOKUP(B229,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B229" s="20"/>
+        <v/>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>726</v>
+      </c>
       <c r="C229" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D229" s="11" t="s">
-        <v>767</v>
+        <v>724</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="str">
         <f>IF(ISNA(VLOOKUP(B230,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
+        <v/>
+      </c>
+      <c r="B230" t="s">
+        <v>358</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D230" s="11" t="s">
-        <v>285</v>
+        <v>724</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="str">
         <f>IF(ISNA(VLOOKUP(B231,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B231" t="s">
+        <v>389</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A232" t="str">
+        <f>IF(ISNA(VLOOKUP(B232,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" t="str">
+        <f>IF(ISNA(VLOOKUP(B233,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B233" t="s">
+        <v>359</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" t="str">
+        <f>IF(ISNA(VLOOKUP(B234,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B234" t="s">
+        <v>390</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" t="str">
+        <f>IF(ISNA(VLOOKUP(B235,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="C231" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D231" s="11" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="19" t="str">
-        <f>IF(ISNA(VLOOKUP(B232,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+      <c r="C235" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D235" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" t="str">
+        <f>IF(ISNA(VLOOKUP(B236,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B232" s="20"/>
-      <c r="C232" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D232" s="11" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="19" t="str">
-        <f>IF(ISNA(VLOOKUP(B233,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+      <c r="B236" s="2"/>
+      <c r="C236" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D236" s="11" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" t="str">
+        <f>IF(ISNA(VLOOKUP(B237,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B233" s="20"/>
-      <c r="C233" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="D233" s="11" t="s">
-        <v>771</v>
+      <c r="B237" s="2"/>
+      <c r="C237" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D237" s="11" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" s="20" t="str">
+        <f>IF(ISNA(VLOOKUP(B238,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v>Not listed</v>
+      </c>
+      <c r="B238" s="21"/>
+      <c r="C238" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D238" s="11" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" t="str">
+        <f>IF(ISNA(VLOOKUP(B239,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v>Not listed</v>
+      </c>
+      <c r="B239" s="2"/>
+      <c r="C239" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D239" s="11" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" t="str">
+        <f>IF(ISNA(VLOOKUP(B240,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v>Not listed</v>
+      </c>
+      <c r="B240" s="2"/>
+      <c r="C240" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D240" s="11" t="s">
+        <v>763</v>
       </c>
     </row>
   </sheetData>

--- a/Codelist Excel Files and Conversion Templates to XML/DIGGSProp.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/DIGGSProp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFBA6EB-71EA-F74B-ABAC-6F7A5131FD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF790CB3-0CB8-F145-96A0-B67400C5FC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="2240" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14220" yWindow="7460" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="780">
   <si>
     <t>Description</t>
   </si>
@@ -2547,7 +2547,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2586,11 +2586,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3113,7 +3108,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3179,8 +3174,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5271,7 +5266,9 @@
       <c r="D97" s="17" t="s">
         <v>717</v>
       </c>
-      <c r="E97" s="16"/>
+      <c r="E97" s="16" t="s">
+        <v>1</v>
+      </c>
       <c r="F97" s="16" t="s">
         <v>18</v>
       </c>
@@ -7797,7 +7794,7 @@
       <c r="C79" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D79" s="22" t="s">
+      <c r="D79" t="s">
         <v>276</v>
       </c>
     </row>
@@ -8442,7 +8439,7 @@
       <c r="C122" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D122" s="22" t="s">
+      <c r="D122" t="s">
         <v>762</v>
       </c>
     </row>
@@ -8777,17 +8774,17 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A145" s="20" t="str">
+      <c r="A145" t="str">
         <f>IF(ISNA(VLOOKUP(B145,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B145" s="21" t="s">
+      <c r="B145" s="2" t="s">
         <v>348</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D145" s="22" t="s">
+      <c r="D145" t="s">
         <v>276</v>
       </c>
     </row>
@@ -10165,11 +10162,11 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="20" t="str">
+      <c r="A238" t="str">
         <f>IF(ISNA(VLOOKUP(B238,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v>Not listed</v>
       </c>
-      <c r="B238" s="21"/>
+      <c r="B238" s="2"/>
       <c r="C238" s="4" t="s">
         <v>724</v>
       </c>

--- a/Codelist Excel Files and Conversion Templates to XML/DIGGSProp.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/DIGGSProp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF790CB3-0CB8-F145-96A0-B67400C5FC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98097909-1730-A548-A78F-88071CF0819F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14220" yWindow="7460" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12100" yWindow="2140" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -3108,7 +3108,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3174,8 +3174,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6601,9 +6601,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D240"/>
   <sheetViews>
-    <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C237" sqref="C237"/>
+    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D236" sqref="D236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Codelist Excel Files and Conversion Templates to XML/DIGGSProp.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/DIGGSProp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98097909-1730-A548-A78F-88071CF0819F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3027AB9A-CFEB-A345-B000-8938026DDAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12100" yWindow="2140" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12100" yWindow="2140" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="781">
   <si>
     <t>Description</t>
   </si>
@@ -2377,6 +2377,9 @@
   </si>
   <si>
     <t>Estimate of water elevation from insitu measurement (eg CPT, DMT). Note: it is preferable to use water_elevation as the propertyClass with the measurementTechnique property qualifer (eg. "extrapolated". "inferred"), instead.</t>
+  </si>
+  <si>
+    <t>DIGGS</t>
   </si>
 </sst>
 </file>
@@ -3174,8 +3177,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3236,6 +3239,12 @@
       </c>
       <c r="F2" t="s">
         <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6601,7 +6610,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+    <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D236" sqref="D236"/>
     </sheetView>

--- a/Codelist Excel Files and Conversion Templates to XML/DIGGSProp.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/DIGGSProp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3027AB9A-CFEB-A345-B000-8938026DDAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E619CD2-FCD4-2746-B9DA-513D0383187E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12100" yWindow="2140" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="780">
   <si>
     <t>Description</t>
   </si>
@@ -2377,9 +2377,6 @@
   </si>
   <si>
     <t>Estimate of water elevation from insitu measurement (eg CPT, DMT). Note: it is preferable to use water_elevation as the propertyClass with the measurementTechnique property qualifer (eg. "extrapolated". "inferred"), instead.</t>
-  </si>
-  <si>
-    <t>DIGGS</t>
   </si>
 </sst>
 </file>
@@ -2550,7 +2547,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2579,7 +2576,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2604,6 +2600,31 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2673,31 +2694,6 @@
         <vertAlign val="baseline"/>
         <color theme="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2801,29 +2797,29 @@
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="ID" dataDxfId="11"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Name" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="DataType" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="QuantityClass" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Authority" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Reference" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D240" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D240" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:D240" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D240">
     <sortCondition ref="B1:B240"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="8">
       <calculatedColumnFormula>IF(ISNA(VLOOKUP(B2,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="SourceElement" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ConditionalElement" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3178,7 +3174,7 @@
   <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E2" sqref="E2:H159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3234,17 +3230,11 @@
       <c r="D2" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -3471,16 +3461,16 @@
       <c r="B13" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>583</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="16" t="s">
+      <c r="E13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3538,16 +3528,16 @@
       <c r="B16" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>585</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="16" t="s">
+      <c r="E16" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3582,16 +3572,16 @@
       <c r="B18" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>776</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="16" t="s">
+      <c r="E18" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3603,16 +3593,16 @@
       <c r="B19" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>623</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>777</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="16" t="s">
+      <c r="E19" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4026,16 +4016,16 @@
       <c r="B38" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="17" t="s">
         <v>604</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="16" t="s">
         <v>605</v>
       </c>
-      <c r="E38" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F38" s="16" t="s">
+      <c r="E38" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4217,16 +4207,16 @@
       <c r="B47" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="17" t="s">
         <v>547</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="E47" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F47" s="16" t="s">
+      <c r="E47" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4301,16 +4291,16 @@
       <c r="B51" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" s="16" t="s">
         <v>775</v>
       </c>
-      <c r="E51" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F51" s="16" t="s">
+      <c r="E51" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4322,16 +4312,16 @@
       <c r="B52" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="17" t="s">
         <v>532</v>
       </c>
-      <c r="D52" s="17" t="s">
+      <c r="D52" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="E52" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F52" s="16" t="s">
+      <c r="E52" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4343,16 +4333,16 @@
       <c r="B53" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="17" t="s">
         <v>624</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="16" t="s">
         <v>778</v>
       </c>
-      <c r="E53" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F53" s="16" t="s">
+      <c r="E53" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4364,16 +4354,16 @@
       <c r="B54" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="17" t="s">
         <v>625</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="16" t="s">
         <v>779</v>
       </c>
-      <c r="E54" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F54" s="16" t="s">
+      <c r="E54" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4975,16 +4965,16 @@
       <c r="B83" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="C83" s="18" t="s">
+      <c r="C83" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="D83" s="17" t="s">
+      <c r="D83" s="16" t="s">
         <v>621</v>
       </c>
-      <c r="E83" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F83" s="16" t="s">
+      <c r="E83" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F83" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5017,16 +5007,16 @@
       <c r="B85" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C85" s="17" t="s">
         <v>732</v>
       </c>
-      <c r="D85" s="17" t="s">
+      <c r="D85" s="16" t="s">
         <v>723</v>
       </c>
-      <c r="E85" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F85" s="16" t="s">
+      <c r="E85" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F85" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5101,16 +5091,16 @@
       <c r="B89" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="D89" s="17" t="s">
+      <c r="D89" s="16" t="s">
         <v>714</v>
       </c>
-      <c r="E89" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F89" s="16" t="s">
+      <c r="E89" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F89" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5122,16 +5112,16 @@
       <c r="B90" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="C90" s="17" t="s">
         <v>515</v>
       </c>
-      <c r="D90" s="17" t="s">
+      <c r="D90" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="E90" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F90" s="16" t="s">
+      <c r="E90" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F90" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5143,16 +5133,16 @@
       <c r="B91" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="C91" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="D91" s="17" t="s">
+      <c r="D91" s="16" t="s">
         <v>716</v>
       </c>
-      <c r="E91" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F91" s="16" t="s">
+      <c r="E91" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F91" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5206,16 +5196,16 @@
       <c r="B94" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="17" t="s">
         <v>559</v>
       </c>
-      <c r="D94" s="17" t="s">
+      <c r="D94" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="E94" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F94" s="16" t="s">
+      <c r="E94" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F94" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5227,16 +5217,16 @@
       <c r="B95" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="C95" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="D95" s="17" t="s">
+      <c r="D95" s="16" t="s">
         <v>719</v>
       </c>
-      <c r="E95" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F95" s="16" t="s">
+      <c r="E95" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F95" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5248,16 +5238,16 @@
       <c r="B96" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C96" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="D96" s="17" t="s">
+      <c r="D96" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="E96" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F96" s="16" t="s">
+      <c r="E96" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F96" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5269,16 +5259,16 @@
       <c r="B97" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="C97" s="18" t="s">
+      <c r="C97" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="D97" s="17" t="s">
+      <c r="D97" s="16" t="s">
         <v>717</v>
       </c>
-      <c r="E97" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F97" s="16" t="s">
+      <c r="E97" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F97" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5290,16 +5280,16 @@
       <c r="B98" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="17" t="s">
         <v>713</v>
       </c>
-      <c r="D98" s="17" t="s">
+      <c r="D98" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="E98" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F98" s="16" t="s">
+      <c r="E98" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F98" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5311,16 +5301,16 @@
       <c r="B99" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="C99" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="D99" s="17" t="s">
+      <c r="D99" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="E99" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F99" s="16" t="s">
+      <c r="E99" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F99" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5332,16 +5322,16 @@
       <c r="B100" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="C100" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="D100" s="17" t="s">
+      <c r="D100" s="16" t="s">
         <v>523</v>
       </c>
-      <c r="E100" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F100" s="16" t="s">
+      <c r="E100" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F100" s="17" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5353,16 +5343,16 @@
       <c r="B101" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C101" s="18" t="s">
+      <c r="C101" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="D101" s="17" t="s">
+      <c r="D101" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="F101" s="16" t="s">
+      <c r="F101" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5374,16 +5364,16 @@
       <c r="B102" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C102" s="17" t="s">
         <v>526</v>
       </c>
-      <c r="D102" s="17" t="s">
+      <c r="D102" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="F102" s="16" t="s">
+      <c r="F102" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5395,16 +5385,16 @@
       <c r="B103" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="C103" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="D103" s="17" t="s">
+      <c r="D103" s="16" t="s">
         <v>492</v>
       </c>
-      <c r="E103" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F103" s="16" t="s">
+      <c r="E103" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F103" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5416,16 +5406,16 @@
       <c r="B104" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="D104" s="17" t="s">
+      <c r="D104" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="E104" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F104" s="16" t="s">
+      <c r="E104" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F104" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5437,16 +5427,16 @@
       <c r="B105" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="C105" s="18" t="s">
+      <c r="C105" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="D105" s="17" t="s">
+      <c r="D105" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="E105" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F105" s="16" t="s">
+      <c r="E105" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F105" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5458,16 +5448,16 @@
       <c r="B106" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="17" t="s">
         <v>536</v>
       </c>
-      <c r="D106" s="17" t="s">
+      <c r="D106" s="16" t="s">
         <v>537</v>
       </c>
-      <c r="E106" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F106" s="16" t="s">
+      <c r="E106" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F106" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5479,16 +5469,16 @@
       <c r="B107" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="C107" s="18" t="s">
+      <c r="C107" s="17" t="s">
         <v>538</v>
       </c>
-      <c r="D107" s="17" t="s">
+      <c r="D107" s="16" t="s">
         <v>539</v>
       </c>
-      <c r="E107" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F107" s="16" t="s">
+      <c r="E107" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F107" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5500,16 +5490,16 @@
       <c r="B108" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C108" s="17" t="s">
         <v>540</v>
       </c>
-      <c r="D108" s="17" t="s">
+      <c r="D108" s="16" t="s">
         <v>718</v>
       </c>
-      <c r="E108" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F108" s="16" t="s">
+      <c r="E108" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F108" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5521,16 +5511,16 @@
       <c r="B109" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="C109" s="18" t="s">
+      <c r="C109" s="17" t="s">
         <v>541</v>
       </c>
-      <c r="D109" s="17" t="s">
+      <c r="D109" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="E109" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F109" s="16" t="s">
+      <c r="E109" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F109" s="17" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5545,7 +5535,7 @@
       <c r="C110" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="D110" s="19" t="s">
+      <c r="D110" s="18" t="s">
         <v>740</v>
       </c>
       <c r="E110" s="2" t="s">
@@ -5563,16 +5553,16 @@
       <c r="B111" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="C111" s="18" t="s">
+      <c r="C111" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="D111" s="17" t="s">
+      <c r="D111" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="E111" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F111" s="16" t="s">
+      <c r="E111" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F111" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5584,16 +5574,16 @@
       <c r="B112" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="C112" s="18" t="s">
+      <c r="C112" s="17" t="s">
         <v>545</v>
       </c>
-      <c r="D112" s="17" t="s">
+      <c r="D112" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="E112" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F112" s="16" t="s">
+      <c r="E112" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F112" s="17" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5647,16 +5637,16 @@
       <c r="B115" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="C115" s="18" t="s">
+      <c r="C115" s="17" t="s">
         <v>562</v>
       </c>
-      <c r="D115" s="17" t="s">
+      <c r="D115" s="16" t="s">
         <v>720</v>
       </c>
-      <c r="E115" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F115" s="16" t="s">
+      <c r="E115" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F115" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5668,16 +5658,16 @@
       <c r="B116" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="C116" s="18" t="s">
+      <c r="C116" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="D116" s="17" t="s">
+      <c r="D116" s="16" t="s">
         <v>550</v>
       </c>
-      <c r="E116" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F116" s="16" t="s">
+      <c r="E116" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F116" s="17" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5689,16 +5679,16 @@
       <c r="B117" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="C117" s="18" t="s">
+      <c r="C117" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="D117" s="17" t="s">
+      <c r="D117" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="E117" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F117" s="16" t="s">
+      <c r="E117" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F117" s="17" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5710,16 +5700,16 @@
       <c r="B118" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="C118" s="18" t="s">
+      <c r="C118" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="D118" s="17" t="s">
+      <c r="D118" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="E118" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F118" s="16" t="s">
+      <c r="E118" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F118" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5731,16 +5721,16 @@
       <c r="B119" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="C119" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="D119" s="17" t="s">
+      <c r="D119" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="E119" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F119" s="16" t="s">
+      <c r="E119" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F119" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5752,16 +5742,16 @@
       <c r="B120" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="C120" s="18" t="s">
+      <c r="C120" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="D120" s="17" t="s">
+      <c r="D120" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="E120" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F120" s="16" t="s">
+      <c r="E120" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F120" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5797,7 +5787,7 @@
       <c r="C122" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="D122" s="19" t="s">
+      <c r="D122" s="18" t="s">
         <v>736</v>
       </c>
       <c r="E122" s="2" t="s">
@@ -5815,16 +5805,16 @@
       <c r="B123" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="C123" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="D123" s="17" t="s">
+      <c r="D123" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="E123" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F123" s="16" t="s">
+      <c r="E123" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F123" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5836,16 +5826,16 @@
       <c r="B124" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="C124" s="18" t="s">
+      <c r="C124" s="17" t="s">
         <v>565</v>
       </c>
-      <c r="D124" s="17" t="s">
+      <c r="D124" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="E124" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F124" s="16" t="s">
+      <c r="E124" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F124" s="17" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5857,16 +5847,16 @@
       <c r="B125" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="C125" s="18" t="s">
+      <c r="C125" s="17" t="s">
         <v>567</v>
       </c>
-      <c r="D125" s="17" t="s">
+      <c r="D125" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="E125" s="16" t="s">
+      <c r="E125" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="F125" s="16" t="s">
+      <c r="F125" s="17" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5878,16 +5868,16 @@
       <c r="B126" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="C126" s="18" t="s">
+      <c r="C126" s="17" t="s">
         <v>569</v>
       </c>
-      <c r="D126" s="17" t="s">
+      <c r="D126" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="E126" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F126" s="16" t="s">
+      <c r="E126" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F126" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5920,16 +5910,16 @@
       <c r="B128" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="C128" s="18" t="s">
+      <c r="C128" s="17" t="s">
         <v>571</v>
       </c>
-      <c r="D128" s="17" t="s">
+      <c r="D128" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="E128" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F128" s="16" t="s">
+      <c r="E128" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F128" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5941,16 +5931,16 @@
       <c r="B129" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="C129" s="18" t="s">
+      <c r="C129" s="17" t="s">
         <v>573</v>
       </c>
-      <c r="D129" s="17" t="s">
+      <c r="D129" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="E129" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F129" s="16" t="s">
+      <c r="E129" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F129" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5962,16 +5952,16 @@
       <c r="B130" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="C130" s="17" t="s">
         <v>575</v>
       </c>
-      <c r="D130" s="17" t="s">
+      <c r="D130" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="E130" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F130" s="16" t="s">
+      <c r="E130" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F130" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5983,16 +5973,16 @@
       <c r="B131" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="C131" s="18" t="s">
+      <c r="C131" s="17" t="s">
         <v>577</v>
       </c>
-      <c r="D131" s="17" t="s">
+      <c r="D131" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="E131" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F131" s="16" t="s">
+      <c r="E131" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F131" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6004,16 +5994,16 @@
       <c r="B132" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="C132" s="18" t="s">
+      <c r="C132" s="17" t="s">
         <v>579</v>
       </c>
-      <c r="D132" s="17" t="s">
+      <c r="D132" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="E132" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F132" s="16" t="s">
+      <c r="E132" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F132" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6025,16 +6015,16 @@
       <c r="B133" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="C133" s="18" t="s">
+      <c r="C133" s="17" t="s">
         <v>581</v>
       </c>
-      <c r="D133" s="17" t="s">
+      <c r="D133" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="E133" s="16" t="s">
+      <c r="E133" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F133" s="16"/>
+      <c r="F133" s="17"/>
     </row>
     <row r="134" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="str">
@@ -6044,16 +6034,16 @@
       <c r="B134" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="C134" s="18" t="s">
+      <c r="C134" s="17" t="s">
         <v>587</v>
       </c>
-      <c r="D134" s="17" t="s">
+      <c r="D134" s="16" t="s">
         <v>721</v>
       </c>
-      <c r="E134" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F134" s="16" t="s">
+      <c r="E134" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F134" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6065,16 +6055,16 @@
       <c r="B135" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="C135" s="18" t="s">
+      <c r="C135" s="17" t="s">
         <v>588</v>
       </c>
-      <c r="D135" s="17" t="s">
+      <c r="D135" s="16" t="s">
         <v>589</v>
       </c>
-      <c r="E135" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F135" s="16" t="s">
+      <c r="E135" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F135" s="17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6086,16 +6076,16 @@
       <c r="B136" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="C136" s="18" t="s">
+      <c r="C136" s="17" t="s">
         <v>591</v>
       </c>
-      <c r="D136" s="17" t="s">
+      <c r="D136" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="E136" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F136" s="16" t="s">
+      <c r="E136" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F136" s="17" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6107,16 +6097,16 @@
       <c r="B137" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="C137" s="18" t="s">
+      <c r="C137" s="17" t="s">
         <v>590</v>
       </c>
-      <c r="D137" s="17" t="s">
+      <c r="D137" s="16" t="s">
         <v>774</v>
       </c>
-      <c r="E137" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F137" s="16" t="s">
+      <c r="E137" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F137" s="17" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6128,16 +6118,16 @@
       <c r="B138" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="C138" s="18" t="s">
+      <c r="C138" s="17" t="s">
         <v>593</v>
       </c>
-      <c r="D138" s="17" t="s">
+      <c r="D138" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="E138" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F138" s="16" t="s">
+      <c r="E138" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F138" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6149,16 +6139,16 @@
       <c r="B139" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="C139" s="18" t="s">
+      <c r="C139" s="17" t="s">
         <v>595</v>
       </c>
-      <c r="D139" s="17" t="s">
+      <c r="D139" s="16" t="s">
         <v>596</v>
       </c>
-      <c r="E139" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F139" s="16" t="s">
+      <c r="E139" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F139" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6170,16 +6160,16 @@
       <c r="B140" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C140" s="18" t="s">
+      <c r="C140" s="17" t="s">
         <v>597</v>
       </c>
-      <c r="D140" s="17" t="s">
+      <c r="D140" s="16" t="s">
         <v>598</v>
       </c>
-      <c r="E140" s="16" t="s">
+      <c r="E140" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="F140" s="16" t="s">
+      <c r="F140" s="17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6191,16 +6181,16 @@
       <c r="B141" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="C141" s="18" t="s">
+      <c r="C141" s="17" t="s">
         <v>599</v>
       </c>
-      <c r="D141" s="17" t="s">
+      <c r="D141" s="16" t="s">
         <v>722</v>
       </c>
-      <c r="E141" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F141" s="16" t="s">
+      <c r="E141" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F141" s="17" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6212,16 +6202,16 @@
       <c r="B142" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C142" s="18" t="s">
+      <c r="C142" s="17" t="s">
         <v>600</v>
       </c>
-      <c r="D142" s="17" t="s">
+      <c r="D142" s="16" t="s">
         <v>601</v>
       </c>
-      <c r="E142" s="16" t="s">
+      <c r="E142" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F142" s="16" t="s">
+      <c r="F142" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6233,16 +6223,16 @@
       <c r="B143" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="C143" s="18" t="s">
+      <c r="C143" s="17" t="s">
         <v>602</v>
       </c>
-      <c r="D143" s="17" t="s">
+      <c r="D143" s="16" t="s">
         <v>603</v>
       </c>
-      <c r="E143" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F143" s="16" t="s">
+      <c r="E143" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F143" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6254,16 +6244,16 @@
       <c r="B144" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="C144" s="18" t="s">
+      <c r="C144" s="17" t="s">
         <v>614</v>
       </c>
-      <c r="D144" s="17" t="s">
+      <c r="D144" s="16" t="s">
         <v>615</v>
       </c>
-      <c r="E144" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F144" s="16" t="s">
+      <c r="E144" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F144" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6275,16 +6265,16 @@
       <c r="B145" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="C145" s="18" t="s">
+      <c r="C145" s="17" t="s">
         <v>606</v>
       </c>
-      <c r="D145" s="17" t="s">
+      <c r="D145" s="16" t="s">
         <v>607</v>
       </c>
-      <c r="E145" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F145" s="16" t="s">
+      <c r="E145" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F145" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6338,16 +6328,16 @@
       <c r="B148" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="C148" s="18" t="s">
+      <c r="C148" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="D148" s="17" t="s">
+      <c r="D148" s="16" t="s">
         <v>609</v>
       </c>
-      <c r="E148" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F148" s="16" t="s">
+      <c r="E148" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F148" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6359,16 +6349,16 @@
       <c r="B149" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C149" s="18" t="s">
+      <c r="C149" s="17" t="s">
         <v>610</v>
       </c>
-      <c r="D149" s="17" t="s">
+      <c r="D149" s="16" t="s">
         <v>611</v>
       </c>
-      <c r="E149" s="16" t="s">
+      <c r="E149" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F149" s="16"/>
+      <c r="F149" s="17"/>
     </row>
     <row r="150" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="str">
@@ -6378,16 +6368,16 @@
       <c r="B150" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="C150" s="18" t="s">
+      <c r="C150" s="17" t="s">
         <v>612</v>
       </c>
-      <c r="D150" s="17" t="s">
+      <c r="D150" s="16" t="s">
         <v>613</v>
       </c>
-      <c r="E150" s="16" t="s">
+      <c r="E150" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F150" s="16"/>
+      <c r="F150" s="17"/>
     </row>
     <row r="151" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="str">
@@ -6441,16 +6431,16 @@
       <c r="B153" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C153" s="18" t="s">
+      <c r="C153" s="17" t="s">
         <v>616</v>
       </c>
-      <c r="D153" s="17" t="s">
+      <c r="D153" s="16" t="s">
         <v>617</v>
       </c>
-      <c r="E153" s="16" t="s">
+      <c r="E153" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="F153" s="16" t="s">
+      <c r="F153" s="17" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6462,16 +6452,16 @@
       <c r="B154" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="C154" s="18" t="s">
+      <c r="C154" s="17" t="s">
         <v>618</v>
       </c>
-      <c r="D154" s="17" t="s">
+      <c r="D154" s="16" t="s">
         <v>619</v>
       </c>
-      <c r="E154" s="16" t="s">
+      <c r="E154" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F154" s="16"/>
+      <c r="F154" s="17"/>
     </row>
     <row r="155" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="str">

--- a/Codelist Excel Files and Conversion Templates to XML/DIGGSProp.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/DIGGSProp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E619CD2-FCD4-2746-B9DA-513D0383187E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B91C7D6-03D9-DA41-84C2-E9AEBC3E533A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12100" yWindow="2140" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8440" yWindow="860" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -2298,9 +2298,6 @@
     <t>//diggs:ChalkCrushingValueTest</t>
   </si>
   <si>
-    <t>//diggs:FlameIonizationDetectorTest</t>
-  </si>
-  <si>
     <t>//diggs:FrostSusceptibilityTest</t>
   </si>
   <si>
@@ -2377,6 +2374,9 @@
   </si>
   <si>
     <t>Estimate of water elevation from insitu measurement (eg CPT, DMT). Note: it is preferable to use water_elevation as the propertyClass with the measurementTechnique property qualifer (eg. "extrapolated". "inferred"), instead.</t>
+  </si>
+  <si>
+    <t>//diggs_geo:FlameIonizationDetectorTest</t>
   </si>
 </sst>
 </file>
@@ -2811,7 +2811,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D240" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:D240" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D240">
-    <sortCondition ref="B1:B240"/>
+    <sortCondition ref="D1:D240"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="8">
@@ -3173,8 +3173,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H159"/>
+    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3576,7 +3576,7 @@
         <v>622</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>1</v>
@@ -3597,7 +3597,7 @@
         <v>623</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>1</v>
@@ -4295,7 +4295,7 @@
         <v>531</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E51" s="17" t="s">
         <v>1</v>
@@ -4337,7 +4337,7 @@
         <v>624</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E53" s="17" t="s">
         <v>1</v>
@@ -4358,7 +4358,7 @@
         <v>625</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E54" s="17" t="s">
         <v>1</v>
@@ -6101,7 +6101,7 @@
         <v>590</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E137" s="17" t="s">
         <v>1</v>
@@ -6600,9 +6600,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D240"/>
   <sheetViews>
-    <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D236" sqref="D236"/>
+    <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6633,13 +6633,13 @@
         <v/>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6648,13 +6648,13 @@
         <v/>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D3" t="s">
-        <v>741</v>
+      <c r="D3" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6663,13 +6663,13 @@
         <v/>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D4" t="s">
-        <v>742</v>
+      <c r="D4" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6678,13 +6678,13 @@
         <v/>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D5" t="s">
-        <v>743</v>
+      <c r="D5" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6693,13 +6693,13 @@
         <v/>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D6" t="s">
-        <v>744</v>
+      <c r="D6" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -6708,13 +6708,13 @@
         <v/>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D7" t="s">
-        <v>745</v>
+      <c r="D7" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -6723,13 +6723,13 @@
         <v/>
       </c>
       <c r="B8" t="s">
-        <v>328</v>
+        <v>251</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D8" t="s">
-        <v>761</v>
+      <c r="D8" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6738,13 +6738,13 @@
         <v/>
       </c>
       <c r="B9" t="s">
-        <v>329</v>
+        <v>252</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D9" t="s">
-        <v>761</v>
+      <c r="D9" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -6753,13 +6753,13 @@
         <v/>
       </c>
       <c r="B10" t="s">
-        <v>330</v>
+        <v>253</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D10" t="s">
-        <v>761</v>
+      <c r="D10" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -6768,13 +6768,13 @@
         <v/>
       </c>
       <c r="B11" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D11" t="s">
-        <v>746</v>
+      <c r="D11" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -6783,13 +6783,13 @@
         <v/>
       </c>
       <c r="B12" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D12" t="s">
-        <v>750</v>
+      <c r="D12" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6798,13 +6798,13 @@
         <v/>
       </c>
       <c r="B13" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6813,13 +6813,13 @@
         <v/>
       </c>
       <c r="B14" t="s">
-        <v>398</v>
+        <v>259</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>399</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -6828,13 +6828,13 @@
         <v/>
       </c>
       <c r="B15" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6843,13 +6843,13 @@
         <v/>
       </c>
       <c r="B16" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>311</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -6858,13 +6858,13 @@
         <v/>
       </c>
       <c r="B17" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>319</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -6873,13 +6873,13 @@
         <v/>
       </c>
       <c r="B18" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D18" t="s">
-        <v>755</v>
+      <c r="D18" s="4" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -6888,13 +6888,13 @@
         <v/>
       </c>
       <c r="B19" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -6903,13 +6903,13 @@
         <v/>
       </c>
       <c r="B20" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -6918,13 +6918,13 @@
         <v/>
       </c>
       <c r="B21" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -6933,13 +6933,13 @@
         <v/>
       </c>
       <c r="B22" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -6948,13 +6948,13 @@
         <v/>
       </c>
       <c r="B23" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -6963,13 +6963,13 @@
         <v/>
       </c>
       <c r="B24" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D24" t="s">
-        <v>752</v>
+      <c r="D24" s="4" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -6978,13 +6978,13 @@
         <v/>
       </c>
       <c r="B25" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -6993,13 +6993,13 @@
         <v/>
       </c>
       <c r="B26" t="s">
-        <v>334</v>
+        <v>273</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>335</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -7008,28 +7008,25 @@
         <v/>
       </c>
       <c r="B27" t="s">
-        <v>336</v>
+        <v>274</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>335</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B28" t="s">
-        <v>282</v>
+        <v>Not listed</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>279</v>
+      <c r="D28" s="11" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -7038,43 +7035,43 @@
         <v/>
       </c>
       <c r="B29" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>IF(ISNA(VLOOKUP(B30,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B30" t="s">
-        <v>257</v>
+      <c r="B30" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <f>IF(ISNA(VLOOKUP(#REF!,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>337</v>
+        <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B31" t="s">
+        <v>277</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D31" t="s">
-        <v>764</v>
+      <c r="D31" s="4" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -7083,13 +7080,13 @@
         <v/>
       </c>
       <c r="B32" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>335</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -7098,7 +7095,7 @@
         <v/>
       </c>
       <c r="B33" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>724</v>
@@ -7113,13 +7110,13 @@
         <v/>
       </c>
       <c r="B34" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D34" t="s">
-        <v>765</v>
+      <c r="D34" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -7128,13 +7125,13 @@
         <v/>
       </c>
       <c r="B35" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -7143,13 +7140,13 @@
         <v/>
       </c>
       <c r="B36" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>373</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -7158,13 +7155,13 @@
         <v/>
       </c>
       <c r="B37" t="s">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D37" t="s">
-        <v>756</v>
+      <c r="D37" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -7173,13 +7170,13 @@
         <v/>
       </c>
       <c r="B38" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D38" t="s">
-        <v>766</v>
+      <c r="D38" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -7188,13 +7185,13 @@
         <v/>
       </c>
       <c r="B39" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -7203,13 +7200,13 @@
         <v/>
       </c>
       <c r="B40" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -7218,13 +7215,13 @@
         <v/>
       </c>
       <c r="B41" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>355</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -7233,13 +7230,13 @@
         <v/>
       </c>
       <c r="B42" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>373</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -7248,13 +7245,13 @@
         <v/>
       </c>
       <c r="B43" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D43" t="s">
-        <v>756</v>
+      <c r="D43" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -7263,13 +7260,13 @@
         <v/>
       </c>
       <c r="B44" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D44" t="s">
-        <v>766</v>
+      <c r="D44" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -7278,13 +7275,13 @@
         <v/>
       </c>
       <c r="B45" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -7293,13 +7290,13 @@
         <v/>
       </c>
       <c r="B46" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>373</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -7308,13 +7305,13 @@
         <v/>
       </c>
       <c r="B47" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D47" t="s">
-        <v>756</v>
+      <c r="D47" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -7323,28 +7320,28 @@
         <v/>
       </c>
       <c r="B48" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D48" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D48" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f>IF(ISNA(VLOOKUP(B49,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>338</v>
+      <c r="B49" t="s">
+        <v>292</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D49" t="s">
-        <v>764</v>
+      <c r="D49" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -7353,13 +7350,13 @@
         <v/>
       </c>
       <c r="B50" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>335</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -7368,13 +7365,13 @@
         <v/>
       </c>
       <c r="B51" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -7383,13 +7380,13 @@
         <v/>
       </c>
       <c r="B52" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -7398,13 +7395,13 @@
         <v/>
       </c>
       <c r="B53" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>335</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -7413,13 +7410,13 @@
         <v/>
       </c>
       <c r="B54" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -7428,13 +7425,13 @@
         <v/>
       </c>
       <c r="B55" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>350</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -7443,13 +7440,13 @@
         <v/>
       </c>
       <c r="B56" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>393</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -7458,13 +7455,13 @@
         <v/>
       </c>
       <c r="B57" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D57" t="s">
-        <v>771</v>
+      <c r="D57" s="4" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -7473,13 +7470,13 @@
         <v/>
       </c>
       <c r="B58" t="s">
-        <v>374</v>
+        <v>303</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>373</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -7488,13 +7485,13 @@
         <v/>
       </c>
       <c r="B59" t="s">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>245</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -7503,13 +7500,13 @@
         <v/>
       </c>
       <c r="B60" t="s">
-        <v>244</v>
+        <v>305</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>396</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -7518,13 +7515,13 @@
         <v/>
       </c>
       <c r="B61" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -7533,28 +7530,28 @@
         <v/>
       </c>
       <c r="B62" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f>IF(ISNA(VLOOKUP(B63,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>340</v>
+      <c r="B63" t="s">
+        <v>295</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D63" t="s">
-        <v>764</v>
+      <c r="D63" s="4" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -7563,28 +7560,28 @@
         <v/>
       </c>
       <c r="B64" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f>IF(ISNA(VLOOKUP(B65,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>341</v>
+      <c r="B65" t="s">
+        <v>303</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D65" t="s">
-        <v>764</v>
+      <c r="D65" s="4" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -7593,28 +7590,28 @@
         <v/>
       </c>
       <c r="B66" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f>IF(ISNA(VLOOKUP(B67,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>342</v>
+      <c r="B67" t="s">
+        <v>305</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D67" t="s">
-        <v>764</v>
+      <c r="D67" s="4" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -7623,28 +7620,28 @@
         <v/>
       </c>
       <c r="B68" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f>IF(ISNA(VLOOKUP(B69,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>343</v>
+      <c r="B69" t="s">
+        <v>314</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D69" t="s">
-        <v>764</v>
+      <c r="D69" s="4" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -7653,13 +7650,13 @@
         <v/>
       </c>
       <c r="B70" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -7668,13 +7665,13 @@
         <v/>
       </c>
       <c r="B71" t="s">
-        <v>397</v>
+        <v>316</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>396</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -7683,13 +7680,13 @@
         <v/>
       </c>
       <c r="B72" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D72" t="s">
-        <v>765</v>
+      <c r="D72" s="4" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -7698,13 +7695,13 @@
         <v/>
       </c>
       <c r="B73" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -7713,13 +7710,13 @@
         <v/>
       </c>
       <c r="B74" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -7728,7 +7725,7 @@
         <v/>
       </c>
       <c r="B75" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>724</v>
@@ -7743,13 +7740,13 @@
         <v/>
       </c>
       <c r="B76" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -7758,13 +7755,13 @@
         <v/>
       </c>
       <c r="B77" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -7773,13 +7770,13 @@
         <v/>
       </c>
       <c r="B78" t="s">
-        <v>413</v>
+        <v>307</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>414</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -7788,13 +7785,13 @@
         <v/>
       </c>
       <c r="B79" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D79" t="s">
-        <v>276</v>
+      <c r="D79" s="4" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -7803,13 +7800,13 @@
         <v/>
       </c>
       <c r="B80" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>753</v>
+        <v>326</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -7818,13 +7815,13 @@
         <v/>
       </c>
       <c r="B81" t="s">
-        <v>400</v>
+        <v>309</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>401</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -7833,13 +7830,13 @@
         <v/>
       </c>
       <c r="B82" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>265</v>
+        <v>327</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -7848,13 +7845,13 @@
         <v/>
       </c>
       <c r="B83" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D83" t="s">
-        <v>765</v>
+      <c r="D83" s="4" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -7863,148 +7860,148 @@
         <v/>
       </c>
       <c r="B84" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
-        <f>IF(ISNA(VLOOKUP(B85,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B85" t="s">
-        <v>268</v>
+        <f>IF(ISNA(VLOOKUP(#REF!,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f>IF(ISNA(VLOOKUP(B86,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B86" t="s">
-        <v>268</v>
+      <c r="B86" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <f>IF(ISNA(VLOOKUP(B87,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B87" t="s">
-        <v>268</v>
+      <c r="B87" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D87" s="4" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
         <f>IF(ISNA(VLOOKUP(B88,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B88" t="s">
-        <v>269</v>
+      <c r="B88" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
         <f>IF(ISNA(VLOOKUP(B89,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B89" t="s">
-        <v>269</v>
+      <c r="B89" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <f>IF(ISNA(VLOOKUP(B90,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B90" t="s">
-        <v>269</v>
+      <c r="B90" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f>IF(ISNA(VLOOKUP(B91,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B91" t="s">
-        <v>269</v>
+      <c r="B91" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D91" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <f>IF(ISNA(VLOOKUP(B92,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B92" t="s">
-        <v>269</v>
+      <c r="B92" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <f>IF(ISNA(VLOOKUP(B93,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B93" t="s">
-        <v>375</v>
+      <c r="B93" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>373</v>
+      <c r="D93" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -8013,13 +8010,13 @@
         <v/>
       </c>
       <c r="B94" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D94" t="s">
-        <v>754</v>
+      <c r="D94" s="4" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -8028,13 +8025,13 @@
         <v/>
       </c>
       <c r="B95" t="s">
-        <v>426</v>
+        <v>336</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D95" t="s">
-        <v>425</v>
+      <c r="D95" s="4" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -8043,13 +8040,13 @@
         <v/>
       </c>
       <c r="B96" t="s">
-        <v>426</v>
+        <v>337</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>427</v>
+        <v>335</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -8058,13 +8055,13 @@
         <v/>
       </c>
       <c r="B97" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -8073,13 +8070,13 @@
         <v/>
       </c>
       <c r="B98" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>279</v>
+        <v>335</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -8088,13 +8085,13 @@
         <v/>
       </c>
       <c r="B99" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -8103,13 +8100,13 @@
         <v/>
       </c>
       <c r="B100" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>725</v>
+        <v>335</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -8118,13 +8115,13 @@
         <v/>
       </c>
       <c r="B101" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -8133,13 +8130,13 @@
         <v/>
       </c>
       <c r="B102" t="s">
-        <v>378</v>
+        <v>343</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>725</v>
+        <v>335</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -8148,13 +8145,13 @@
         <v/>
       </c>
       <c r="B103" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -8163,13 +8160,13 @@
         <v/>
       </c>
       <c r="B104" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>725</v>
+        <v>335</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -8178,13 +8175,13 @@
         <v/>
       </c>
       <c r="B105" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D105" t="s">
-        <v>765</v>
+      <c r="D105" s="4" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -8193,13 +8190,13 @@
         <v/>
       </c>
       <c r="B106" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -8208,13 +8205,13 @@
         <v/>
       </c>
       <c r="B107" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>352</v>
+      <c r="D107" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -8223,13 +8220,13 @@
         <v/>
       </c>
       <c r="B108" t="s">
-        <v>380</v>
+        <v>321</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -8238,13 +8235,13 @@
         <v/>
       </c>
       <c r="B109" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D109" t="s">
-        <v>765</v>
+      <c r="D109" s="4" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -8253,13 +8250,13 @@
         <v/>
       </c>
       <c r="B110" t="s">
-        <v>402</v>
+        <v>294</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -8268,13 +8265,13 @@
         <v/>
       </c>
       <c r="B111" t="s">
-        <v>404</v>
+        <v>295</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -8283,13 +8280,13 @@
         <v/>
       </c>
       <c r="B112" t="s">
-        <v>405</v>
+        <v>351</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>403</v>
+        <v>352</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -8298,13 +8295,13 @@
         <v/>
       </c>
       <c r="B113" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>403</v>
+        <v>352</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -8313,13 +8310,13 @@
         <v/>
       </c>
       <c r="B114" t="s">
-        <v>246</v>
+        <v>354</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>245</v>
+        <v>352</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -8328,13 +8325,13 @@
         <v/>
       </c>
       <c r="B115" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>245</v>
+        <v>355</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -8343,13 +8340,13 @@
         <v/>
       </c>
       <c r="B116" t="s">
-        <v>248</v>
+        <v>307</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>245</v>
+        <v>355</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -8358,13 +8355,13 @@
         <v/>
       </c>
       <c r="B117" t="s">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>396</v>
+        <v>355</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -8373,13 +8370,13 @@
         <v/>
       </c>
       <c r="B118" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -8388,13 +8385,13 @@
         <v/>
       </c>
       <c r="B119" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -8403,13 +8400,13 @@
         <v/>
       </c>
       <c r="B120" t="s">
-        <v>409</v>
+        <v>358</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>410</v>
+        <v>355</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -8418,13 +8415,13 @@
         <v/>
       </c>
       <c r="B121" t="s">
-        <v>288</v>
+        <v>359</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>279</v>
+        <v>355</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -8433,13 +8430,13 @@
         <v/>
       </c>
       <c r="B122" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D122" t="s">
-        <v>762</v>
+      <c r="D122" s="4" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -8448,13 +8445,13 @@
         <v/>
       </c>
       <c r="B123" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -8463,13 +8460,13 @@
         <v/>
       </c>
       <c r="B124" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D124" t="s">
-        <v>765</v>
+      <c r="D124" s="4" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -8478,13 +8475,13 @@
         <v/>
       </c>
       <c r="B125" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -8493,13 +8490,13 @@
         <v/>
       </c>
       <c r="B126" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -8508,13 +8505,13 @@
         <v/>
       </c>
       <c r="B127" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>271</v>
+        <v>373</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -8523,13 +8520,13 @@
         <v/>
       </c>
       <c r="B128" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>271</v>
+        <v>373</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -8538,13 +8535,13 @@
         <v/>
       </c>
       <c r="B129" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>271</v>
+        <v>373</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -8553,13 +8550,13 @@
         <v/>
       </c>
       <c r="B130" t="s">
-        <v>249</v>
+        <v>374</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>245</v>
+        <v>373</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -8568,13 +8565,13 @@
         <v/>
       </c>
       <c r="B131" t="s">
-        <v>261</v>
+        <v>375</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>258</v>
+        <v>373</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -8583,28 +8580,28 @@
         <v/>
       </c>
       <c r="B132" t="s">
-        <v>261</v>
+        <v>376</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
         <f>IF(ISNA(VLOOKUP(B133,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>738</v>
+      <c r="B133" t="s">
+        <v>377</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D133" t="s">
-        <v>759</v>
+      <c r="D133" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -8613,13 +8610,13 @@
         <v/>
       </c>
       <c r="B134" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>279</v>
+        <v>373</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -8628,13 +8625,13 @@
         <v/>
       </c>
       <c r="B135" t="s">
-        <v>290</v>
+        <v>379</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>279</v>
+        <v>373</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -8643,28 +8640,28 @@
         <v/>
       </c>
       <c r="B136" t="s">
-        <v>291</v>
+        <v>380</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
         <f>IF(ISNA(VLOOKUP(B137,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>344</v>
+      <c r="B137" t="s">
+        <v>381</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D137" t="s">
-        <v>764</v>
+      <c r="D137" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -8673,28 +8670,28 @@
         <v/>
       </c>
       <c r="B138" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
         <f>IF(ISNA(VLOOKUP(B139,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>345</v>
+      <c r="B139" t="s">
+        <v>383</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D139" t="s">
-        <v>764</v>
+      <c r="D139" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -8703,28 +8700,28 @@
         <v/>
       </c>
       <c r="B140" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
         <f>IF(ISNA(VLOOKUP(B141,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>346</v>
+      <c r="B141" t="s">
+        <v>385</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D141" t="s">
-        <v>764</v>
+      <c r="D141" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -8733,13 +8730,13 @@
         <v/>
       </c>
       <c r="B142" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -8748,13 +8745,13 @@
         <v/>
       </c>
       <c r="B143" t="s">
-        <v>314</v>
+        <v>25</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>313</v>
+        <v>373</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -8763,28 +8760,28 @@
         <v/>
       </c>
       <c r="B144" t="s">
-        <v>314</v>
+        <v>387</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="str">
         <f>IF(ISNA(VLOOKUP(B145,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>348</v>
+      <c r="B145" t="s">
+        <v>388</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D145" t="s">
-        <v>276</v>
+      <c r="D145" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -8793,13 +8790,13 @@
         <v/>
       </c>
       <c r="B146" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D146" t="s">
-        <v>349</v>
+      <c r="D146" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -8808,13 +8805,13 @@
         <v/>
       </c>
       <c r="B147" t="s">
-        <v>250</v>
+        <v>389</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>245</v>
+        <v>373</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -8823,13 +8820,13 @@
         <v/>
       </c>
       <c r="B148" t="s">
-        <v>251</v>
+        <v>390</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>245</v>
+        <v>373</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -8838,13 +8835,13 @@
         <v/>
       </c>
       <c r="B149" t="s">
-        <v>354</v>
+        <v>268</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -8853,13 +8850,13 @@
         <v/>
       </c>
       <c r="B150" t="s">
-        <v>395</v>
+        <v>269</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -8868,13 +8865,13 @@
         <v/>
       </c>
       <c r="B151" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>279</v>
+        <v>392</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -8883,13 +8880,13 @@
         <v/>
       </c>
       <c r="B152" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -8898,13 +8895,13 @@
         <v/>
       </c>
       <c r="B153" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>279</v>
+        <v>392</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -8913,13 +8910,13 @@
         <v/>
       </c>
       <c r="B154" t="s">
-        <v>381</v>
+        <v>321</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -8928,13 +8925,13 @@
         <v/>
       </c>
       <c r="B155" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -8943,13 +8940,13 @@
         <v/>
       </c>
       <c r="B156" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -8958,13 +8955,13 @@
         <v/>
       </c>
       <c r="B157" t="s">
-        <v>262</v>
+        <v>395</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>258</v>
+        <v>393</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -8973,13 +8970,13 @@
         <v/>
       </c>
       <c r="B158" t="s">
-        <v>415</v>
+        <v>309</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -8988,13 +8985,13 @@
         <v/>
       </c>
       <c r="B159" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>258</v>
+        <v>396</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -9003,13 +9000,13 @@
         <v/>
       </c>
       <c r="B160" t="s">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -9018,13 +9015,13 @@
         <v/>
       </c>
       <c r="B161" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>271</v>
+        <v>396</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -9033,13 +9030,13 @@
         <v/>
       </c>
       <c r="B162" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D162" t="s">
-        <v>767</v>
+      <c r="D162" s="4" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -9048,13 +9045,13 @@
         <v/>
       </c>
       <c r="B163" t="s">
-        <v>325</v>
+        <v>235</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D163" s="4" t="s">
-        <v>326</v>
+      <c r="D163" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -9063,13 +9060,13 @@
         <v/>
       </c>
       <c r="B164" t="s">
-        <v>366</v>
+        <v>236</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D164" t="s">
-        <v>768</v>
+        <v>742</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -9078,13 +9075,13 @@
         <v/>
       </c>
       <c r="B165" t="s">
-        <v>367</v>
+        <v>237</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D165" t="s">
-        <v>769</v>
+        <v>743</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -9093,13 +9090,13 @@
         <v/>
       </c>
       <c r="B166" t="s">
-        <v>309</v>
+        <v>238</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D166" s="4" t="s">
-        <v>310</v>
+      <c r="D166" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -9108,13 +9105,13 @@
         <v/>
       </c>
       <c r="B167" t="s">
-        <v>309</v>
+        <v>239</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D167" s="4" t="s">
-        <v>327</v>
+      <c r="D167" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -9123,13 +9120,13 @@
         <v/>
       </c>
       <c r="B168" t="s">
-        <v>309</v>
+        <v>240</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D168" s="4" t="s">
-        <v>393</v>
+      <c r="D168" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -9138,28 +9135,26 @@
         <v/>
       </c>
       <c r="B169" t="s">
-        <v>416</v>
+        <v>241</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D169" t="s">
-        <v>417</v>
+        <v>747</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="str">
         <f>IF(ISNA(VLOOKUP(B170,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B170" t="s">
-        <v>322</v>
-      </c>
+        <v>Not listed</v>
+      </c>
+      <c r="B170" s="2"/>
       <c r="C170" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D170" s="4" t="s">
-        <v>350</v>
+      <c r="D170" s="11" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -9168,13 +9163,13 @@
         <v/>
       </c>
       <c r="B171" t="s">
-        <v>322</v>
+        <v>242</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D171" s="4" t="s">
-        <v>392</v>
+      <c r="D171" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -9183,13 +9178,13 @@
         <v/>
       </c>
       <c r="B172" t="s">
-        <v>322</v>
+        <v>243</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D172" t="s">
-        <v>771</v>
+        <v>750</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -9198,28 +9193,26 @@
         <v/>
       </c>
       <c r="B173" t="s">
-        <v>322</v>
+        <v>398</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D173" t="s">
-        <v>765</v>
+      <c r="D173" s="4" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="str">
         <f>IF(ISNA(VLOOKUP(B174,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B174" t="s">
-        <v>322</v>
-      </c>
+        <v>Not listed</v>
+      </c>
+      <c r="B174" s="2"/>
       <c r="C174" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D174" s="4" t="s">
-        <v>773</v>
+      <c r="D174" s="11" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -9228,13 +9221,13 @@
         <v/>
       </c>
       <c r="B175" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D175" s="4" t="s">
-        <v>279</v>
+      <c r="D175" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -9243,13 +9236,13 @@
         <v/>
       </c>
       <c r="B176" t="s">
-        <v>294</v>
+        <v>400</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>310</v>
+        <v>401</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -9258,13 +9251,13 @@
         <v/>
       </c>
       <c r="B177" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D177" s="4" t="s">
-        <v>327</v>
+      <c r="D177" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -9273,28 +9266,26 @@
         <v/>
       </c>
       <c r="B178" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D178" s="4" t="s">
-        <v>350</v>
+      <c r="D178" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="str">
         <f>IF(ISNA(VLOOKUP(B179,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B179" t="s">
-        <v>294</v>
-      </c>
+        <v>Not listed</v>
+      </c>
+      <c r="B179" s="2"/>
       <c r="C179" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D179" s="4" t="s">
-        <v>392</v>
+      <c r="D179" s="11" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -9303,13 +9294,13 @@
         <v/>
       </c>
       <c r="B180" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D180" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -9318,13 +9309,13 @@
         <v/>
       </c>
       <c r="B181" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D181" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -9333,28 +9324,26 @@
         <v/>
       </c>
       <c r="B182" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D182" s="4" t="s">
-        <v>773</v>
+      <c r="D182" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="str">
         <f>IF(ISNA(VLOOKUP(B183,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B183" t="s">
-        <v>295</v>
-      </c>
+        <v>Not listed</v>
+      </c>
+      <c r="B183" s="2"/>
       <c r="C183" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D183" s="4" t="s">
-        <v>279</v>
+      <c r="D183" s="11" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -9363,13 +9352,13 @@
         <v/>
       </c>
       <c r="B184" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D184" s="4" t="s">
-        <v>310</v>
+      <c r="D184" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -9378,13 +9367,13 @@
         <v/>
       </c>
       <c r="B185" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D185" s="4" t="s">
-        <v>327</v>
+      <c r="D185" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -9393,13 +9382,13 @@
         <v/>
       </c>
       <c r="B186" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D186" s="4" t="s">
-        <v>350</v>
+      <c r="D186" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -9413,68 +9402,68 @@
       <c r="C187" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D187" s="4" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D187" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" t="str">
         <f>IF(ISNA(VLOOKUP(B188,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B188" t="s">
-        <v>295</v>
+      <c r="B188" s="2" t="s">
+        <v>738</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D188" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" t="str">
         <f>IF(ISNA(VLOOKUP(B189,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B189" t="s">
-        <v>295</v>
+      <c r="B189" s="2" t="s">
+        <v>735</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D189" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" t="str">
         <f>IF(ISNA(VLOOKUP(B190,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B190" t="s">
-        <v>295</v>
+      <c r="B190" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D190" s="4" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D190" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="str">
         <f>IF(ISNA(VLOOKUP(B191,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>735</v>
+      <c r="B191" t="s">
+        <v>402</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D191" t="s">
-        <v>759</v>
+      <c r="D191" s="4" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -9483,28 +9472,28 @@
         <v/>
       </c>
       <c r="B192" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D192" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D192" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="str">
         <f>IF(ISNA(VLOOKUP(B193,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>418</v>
+      <c r="B193" t="s">
+        <v>405</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D193" t="s">
-        <v>760</v>
+      <c r="D193" s="4" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -9513,13 +9502,13 @@
         <v/>
       </c>
       <c r="B194" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -9528,13 +9517,13 @@
         <v/>
       </c>
       <c r="B195" t="s">
-        <v>252</v>
+        <v>328</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D195" s="4" t="s">
-        <v>245</v>
+      <c r="D195" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -9543,13 +9532,13 @@
         <v/>
       </c>
       <c r="B196" t="s">
-        <v>253</v>
+        <v>329</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D196" s="4" t="s">
-        <v>245</v>
+      <c r="D196" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -9558,13 +9547,13 @@
         <v/>
       </c>
       <c r="B197" t="s">
-        <v>241</v>
+        <v>330</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D197" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -9573,13 +9562,13 @@
         <v/>
       </c>
       <c r="B198" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -9588,13 +9577,13 @@
         <v/>
       </c>
       <c r="B199" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -9603,28 +9592,26 @@
         <v/>
       </c>
       <c r="B200" t="s">
-        <v>385</v>
+        <v>333</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D200" s="4" t="s">
-        <v>373</v>
+      <c r="D200" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="str">
         <f>IF(ISNA(VLOOKUP(B201,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B201" t="s">
-        <v>391</v>
-      </c>
+        <v>Not listed</v>
+      </c>
+      <c r="B201" s="2"/>
       <c r="C201" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D201" t="s">
-        <v>772</v>
+      <c r="D201" s="11" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -9633,13 +9620,13 @@
         <v/>
       </c>
       <c r="B202" t="s">
-        <v>296</v>
+        <v>411</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>279</v>
+        <v>412</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -9648,13 +9635,13 @@
         <v/>
       </c>
       <c r="B203" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -9663,13 +9650,13 @@
         <v/>
       </c>
       <c r="B204" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -9678,13 +9665,13 @@
         <v/>
       </c>
       <c r="B205" t="s">
-        <v>372</v>
+        <v>283</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D205" s="4" t="s">
-        <v>370</v>
+      <c r="D205" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -9693,13 +9680,13 @@
         <v/>
       </c>
       <c r="B206" t="s">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D206" s="4" t="s">
-        <v>313</v>
+      <c r="D206" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -9708,13 +9695,13 @@
         <v/>
       </c>
       <c r="B207" t="s">
-        <v>422</v>
+        <v>267</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D207" s="4" t="s">
-        <v>423</v>
+      <c r="D207" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -9723,13 +9710,13 @@
         <v/>
       </c>
       <c r="B208" t="s">
-        <v>424</v>
+        <v>269</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D208" s="4" t="s">
-        <v>423</v>
+      <c r="D208" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -9738,13 +9725,13 @@
         <v/>
       </c>
       <c r="B209" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D209" s="4" t="s">
-        <v>355</v>
+      <c r="D209" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -9753,13 +9740,13 @@
         <v/>
       </c>
       <c r="B210" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D210" s="4" t="s">
-        <v>373</v>
+      <c r="D210" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -9768,13 +9755,13 @@
         <v/>
       </c>
       <c r="B211" t="s">
-        <v>242</v>
+        <v>363</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D211" t="s">
-        <v>749</v>
+        <v>764</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -9783,13 +9770,13 @@
         <v/>
       </c>
       <c r="B212" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D212" s="4" t="s">
-        <v>279</v>
+      <c r="D212" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -9798,13 +9785,13 @@
         <v/>
       </c>
       <c r="B213" t="s">
-        <v>25</v>
+        <v>294</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D213" s="4" t="s">
-        <v>373</v>
+      <c r="D213" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -9813,13 +9800,13 @@
         <v/>
       </c>
       <c r="B214" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D214" s="4" t="s">
-        <v>373</v>
+      <c r="D214" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -9828,13 +9815,13 @@
         <v/>
       </c>
       <c r="B215" t="s">
-        <v>388</v>
+        <v>306</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D215" s="4" t="s">
-        <v>373</v>
+      <c r="D215" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -9843,13 +9830,13 @@
         <v/>
       </c>
       <c r="B216" t="s">
-        <v>357</v>
+        <v>307</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D216" s="4" t="s">
-        <v>355</v>
+      <c r="D216" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -9858,13 +9845,13 @@
         <v/>
       </c>
       <c r="B217" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D217" s="4" t="s">
-        <v>279</v>
+      <c r="D217" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -9873,13 +9860,13 @@
         <v/>
       </c>
       <c r="B218" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D218" s="4" t="s">
-        <v>319</v>
+      <c r="D218" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -9888,13 +9875,13 @@
         <v/>
       </c>
       <c r="B219" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D219" s="4" t="s">
-        <v>335</v>
+      <c r="D219" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -9903,13 +9890,13 @@
         <v/>
       </c>
       <c r="B220" t="s">
-        <v>254</v>
+        <v>367</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D220" s="4" t="s">
-        <v>245</v>
+      <c r="D220" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -9918,13 +9905,13 @@
         <v/>
       </c>
       <c r="B221" t="s">
-        <v>299</v>
+        <v>377</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>279</v>
+        <v>725</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -9933,13 +9920,13 @@
         <v/>
       </c>
       <c r="B222" t="s">
-        <v>255</v>
+        <v>378</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>245</v>
+        <v>725</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -9948,43 +9935,43 @@
         <v/>
       </c>
       <c r="B223" t="s">
-        <v>428</v>
+        <v>379</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" t="str">
         <f>IF(ISNA(VLOOKUP(B224,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B224" t="s">
-        <v>305</v>
+      <c r="B224" s="2" t="s">
+        <v>726</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" t="str">
         <f>IF(ISNA(VLOOKUP(B225,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B225" t="s">
-        <v>305</v>
+      <c r="B225" s="2" t="s">
+        <v>728</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>311</v>
+        <v>725</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -9993,13 +9980,13 @@
         <v/>
       </c>
       <c r="B226" t="s">
-        <v>305</v>
+        <v>416</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D226" s="4" t="s">
-        <v>373</v>
+      <c r="D226" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -10008,13 +9995,13 @@
         <v/>
       </c>
       <c r="B227" t="s">
-        <v>305</v>
+        <v>368</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D227" s="4" t="s">
-        <v>396</v>
+      <c r="D227" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -10023,28 +10010,28 @@
         <v/>
       </c>
       <c r="B228" t="s">
-        <v>318</v>
+        <v>418</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="str">
         <f>IF(ISNA(VLOOKUP(B229,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>726</v>
+      <c r="B229" t="s">
+        <v>420</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>725</v>
+        <v>421</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -10053,13 +10040,13 @@
         <v/>
       </c>
       <c r="B230" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D230" s="4" t="s">
-        <v>355</v>
+      <c r="D230" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -10068,28 +10055,28 @@
         <v/>
       </c>
       <c r="B231" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="str">
         <f>IF(ISNA(VLOOKUP(B232,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>728</v>
+      <c r="B232" t="s">
+        <v>424</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>725</v>
+        <v>423</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -10098,13 +10085,13 @@
         <v/>
       </c>
       <c r="B233" t="s">
-        <v>359</v>
+        <v>426</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D233" s="4" t="s">
-        <v>355</v>
+      <c r="D233" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -10113,90 +10100,103 @@
         <v/>
       </c>
       <c r="B234" t="s">
-        <v>390</v>
+        <v>268</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>373</v>
+        <v>772</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="str">
         <f>IF(ISNA(VLOOKUP(B235,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
+        <v/>
+      </c>
+      <c r="B235" t="s">
+        <v>269</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D235" s="11" t="s">
-        <v>275</v>
+      <c r="D235" s="4" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="str">
         <f>IF(ISNA(VLOOKUP(B236,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B236" s="2"/>
+        <v/>
+      </c>
+      <c r="B236" t="s">
+        <v>322</v>
+      </c>
       <c r="C236" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D236" s="11" t="s">
-        <v>748</v>
+      <c r="D236" s="4" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="str">
         <f>IF(ISNA(VLOOKUP(B237,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B237" s="2"/>
+        <v/>
+      </c>
+      <c r="B237" t="s">
+        <v>294</v>
+      </c>
       <c r="C237" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D237" s="11" t="s">
-        <v>751</v>
+      <c r="D237" s="4" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="str">
         <f>IF(ISNA(VLOOKUP(B238,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B238" s="2"/>
+        <v/>
+      </c>
+      <c r="B238" t="s">
+        <v>295</v>
+      </c>
       <c r="C238" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D238" s="11" t="s">
-        <v>758</v>
+      <c r="D238" s="4" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="str">
         <f>IF(ISNA(VLOOKUP(B239,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B239" s="2"/>
+        <v/>
+      </c>
+      <c r="B239" t="s">
+        <v>426</v>
+      </c>
       <c r="C239" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D239" s="11" t="s">
-        <v>757</v>
+      <c r="D239" s="4" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="str">
         <f>IF(ISNA(VLOOKUP(B240,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B240" s="2"/>
+        <v/>
+      </c>
+      <c r="B240" t="s">
+        <v>428</v>
+      </c>
       <c r="C240" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D240" s="11" t="s">
-        <v>763</v>
+      <c r="D240" s="4" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/Codelist Excel Files and Conversion Templates to XML/DIGGSProp.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/DIGGSProp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B91C7D6-03D9-DA41-84C2-E9AEBC3E533A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8654467-3A54-7F49-AD1B-D8D7E11D058C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8440" yWindow="860" windowWidth="46240" windowHeight="29160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2811,7 +2811,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="AssociatedElements" displayName="AssociatedElements" ref="A1:D240" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:D240" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D240">
-    <sortCondition ref="D1:D240"/>
+    <sortCondition ref="B1:B240"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Start" dataDxfId="8">
@@ -6601,8 +6601,8 @@
   <dimension ref="A1:D240"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6633,13 +6633,13 @@
         <v/>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6648,13 +6648,13 @@
         <v/>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>245</v>
+      <c r="D3" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6663,13 +6663,13 @@
         <v/>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>245</v>
+      <c r="D4" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6678,13 +6678,13 @@
         <v/>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>245</v>
+      <c r="D5" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6693,13 +6693,13 @@
         <v/>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>245</v>
+      <c r="D6" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -6708,13 +6708,13 @@
         <v/>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>245</v>
+      <c r="D7" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -6723,13 +6723,13 @@
         <v/>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>328</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>245</v>
+      <c r="D8" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -6738,13 +6738,13 @@
         <v/>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>329</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>245</v>
+      <c r="D9" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -6753,13 +6753,13 @@
         <v/>
       </c>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>330</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>245</v>
+      <c r="D10" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -6768,13 +6768,13 @@
         <v/>
       </c>
       <c r="B11" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>245</v>
+      <c r="D11" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -6783,13 +6783,13 @@
         <v/>
       </c>
       <c r="B12" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>245</v>
+      <c r="D12" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -6798,13 +6798,13 @@
         <v/>
       </c>
       <c r="B13" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -6813,13 +6813,13 @@
         <v/>
       </c>
       <c r="B14" t="s">
-        <v>259</v>
+        <v>398</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>258</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -6828,13 +6828,13 @@
         <v/>
       </c>
       <c r="B15" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6843,13 +6843,13 @@
         <v/>
       </c>
       <c r="B16" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -6858,13 +6858,13 @@
         <v/>
       </c>
       <c r="B17" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>258</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -6873,13 +6873,13 @@
         <v/>
       </c>
       <c r="B18" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>258</v>
+      <c r="D18" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -6888,13 +6888,13 @@
         <v/>
       </c>
       <c r="B19" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -6903,13 +6903,13 @@
         <v/>
       </c>
       <c r="B20" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -6918,13 +6918,13 @@
         <v/>
       </c>
       <c r="B21" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -6933,13 +6933,13 @@
         <v/>
       </c>
       <c r="B22" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -6948,13 +6948,13 @@
         <v/>
       </c>
       <c r="B23" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>265</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -6963,13 +6963,13 @@
         <v/>
       </c>
       <c r="B24" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>271</v>
+      <c r="D24" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -6978,13 +6978,13 @@
         <v/>
       </c>
       <c r="B25" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -6993,13 +6993,13 @@
         <v/>
       </c>
       <c r="B26" t="s">
-        <v>273</v>
+        <v>334</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>271</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -7008,25 +7008,28 @@
         <v/>
       </c>
       <c r="B27" t="s">
-        <v>274</v>
+        <v>336</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>271</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>IF(ISNA(VLOOKUP(B28,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
+        <v/>
+      </c>
+      <c r="B28" t="s">
+        <v>282</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>275</v>
+      <c r="D28" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -7035,43 +7038,43 @@
         <v/>
       </c>
       <c r="B29" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D29" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D29" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>IF(ISNA(VLOOKUP(B30,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>348</v>
+      <c r="B30" t="s">
+        <v>257</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D30" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <f>IF(ISNA(VLOOKUP(B31,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B31" t="s">
-        <v>277</v>
+        <f>IF(ISNA(VLOOKUP(#REF!,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>779</v>
+      <c r="D31" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -7080,13 +7083,13 @@
         <v/>
       </c>
       <c r="B32" t="s">
-        <v>278</v>
+        <v>337</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>279</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -7095,7 +7098,7 @@
         <v/>
       </c>
       <c r="B33" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>724</v>
@@ -7110,13 +7113,13 @@
         <v/>
       </c>
       <c r="B34" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>279</v>
+      <c r="D34" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -7125,13 +7128,13 @@
         <v/>
       </c>
       <c r="B35" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -7140,13 +7143,13 @@
         <v/>
       </c>
       <c r="B36" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>279</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -7155,13 +7158,13 @@
         <v/>
       </c>
       <c r="B37" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>279</v>
+      <c r="D37" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -7170,13 +7173,13 @@
         <v/>
       </c>
       <c r="B38" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>279</v>
+      <c r="D38" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -7185,13 +7188,13 @@
         <v/>
       </c>
       <c r="B39" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -7200,13 +7203,13 @@
         <v/>
       </c>
       <c r="B40" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -7215,13 +7218,13 @@
         <v/>
       </c>
       <c r="B41" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>279</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -7230,13 +7233,13 @@
         <v/>
       </c>
       <c r="B42" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>279</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -7245,13 +7248,13 @@
         <v/>
       </c>
       <c r="B43" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>279</v>
+      <c r="D43" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -7260,13 +7263,13 @@
         <v/>
       </c>
       <c r="B44" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>279</v>
+      <c r="D44" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -7275,13 +7278,13 @@
         <v/>
       </c>
       <c r="B45" t="s">
-        <v>261</v>
+        <v>308</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -7290,13 +7293,13 @@
         <v/>
       </c>
       <c r="B46" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>279</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -7305,13 +7308,13 @@
         <v/>
       </c>
       <c r="B47" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>279</v>
+      <c r="D47" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -7320,28 +7323,28 @@
         <v/>
       </c>
       <c r="B48" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f>IF(ISNA(VLOOKUP(B49,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B49" t="s">
-        <v>292</v>
+      <c r="B49" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>279</v>
+      <c r="D49" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -7350,13 +7353,13 @@
         <v/>
       </c>
       <c r="B50" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>279</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -7365,13 +7368,13 @@
         <v/>
       </c>
       <c r="B51" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -7380,13 +7383,13 @@
         <v/>
       </c>
       <c r="B52" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -7395,13 +7398,13 @@
         <v/>
       </c>
       <c r="B53" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>279</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -7410,13 +7413,13 @@
         <v/>
       </c>
       <c r="B54" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -7425,13 +7428,13 @@
         <v/>
       </c>
       <c r="B55" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>279</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -7440,13 +7443,13 @@
         <v/>
       </c>
       <c r="B56" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>279</v>
+        <v>393</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -7455,13 +7458,13 @@
         <v/>
       </c>
       <c r="B57" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>302</v>
+      <c r="D57" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -7470,13 +7473,13 @@
         <v/>
       </c>
       <c r="B58" t="s">
-        <v>303</v>
+        <v>374</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>302</v>
+        <v>373</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -7485,13 +7488,13 @@
         <v/>
       </c>
       <c r="B59" t="s">
-        <v>304</v>
+        <v>244</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -7500,13 +7503,13 @@
         <v/>
       </c>
       <c r="B60" t="s">
-        <v>305</v>
+        <v>244</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>302</v>
+        <v>396</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -7515,13 +7518,13 @@
         <v/>
       </c>
       <c r="B61" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>310</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -7530,28 +7533,28 @@
         <v/>
       </c>
       <c r="B62" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f>IF(ISNA(VLOOKUP(B63,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B63" t="s">
-        <v>295</v>
+      <c r="B63" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D63" s="4" t="s">
-        <v>310</v>
+      <c r="D63" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -7560,28 +7563,28 @@
         <v/>
       </c>
       <c r="B64" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f>IF(ISNA(VLOOKUP(B65,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B65" t="s">
-        <v>303</v>
+      <c r="B65" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>311</v>
+      <c r="D65" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -7590,28 +7593,28 @@
         <v/>
       </c>
       <c r="B66" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f>IF(ISNA(VLOOKUP(B67,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B67" t="s">
-        <v>305</v>
+      <c r="B67" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>311</v>
+      <c r="D67" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -7620,28 +7623,28 @@
         <v/>
       </c>
       <c r="B68" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f>IF(ISNA(VLOOKUP(B69,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B69" t="s">
-        <v>314</v>
+      <c r="B69" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>313</v>
+      <c r="D69" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -7650,13 +7653,13 @@
         <v/>
       </c>
       <c r="B70" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -7665,13 +7668,13 @@
         <v/>
       </c>
       <c r="B71" t="s">
-        <v>316</v>
+        <v>397</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>317</v>
+        <v>396</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -7680,13 +7683,13 @@
         <v/>
       </c>
       <c r="B72" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>317</v>
+      <c r="D72" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -7695,13 +7698,13 @@
         <v/>
       </c>
       <c r="B73" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -7710,13 +7713,13 @@
         <v/>
       </c>
       <c r="B74" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -7725,7 +7728,7 @@
         <v/>
       </c>
       <c r="B75" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>724</v>
@@ -7740,13 +7743,13 @@
         <v/>
       </c>
       <c r="B76" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -7755,13 +7758,13 @@
         <v/>
       </c>
       <c r="B77" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -7770,13 +7773,13 @@
         <v/>
       </c>
       <c r="B78" t="s">
-        <v>307</v>
+        <v>413</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>323</v>
+        <v>414</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -7785,13 +7788,13 @@
         <v/>
       </c>
       <c r="B79" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D79" s="4" t="s">
-        <v>323</v>
+      <c r="D79" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -7800,13 +7803,13 @@
         <v/>
       </c>
       <c r="B80" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>326</v>
+        <v>779</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -7815,13 +7818,13 @@
         <v/>
       </c>
       <c r="B81" t="s">
-        <v>309</v>
+        <v>400</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>327</v>
+        <v>401</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -7830,13 +7833,13 @@
         <v/>
       </c>
       <c r="B82" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -7845,13 +7848,13 @@
         <v/>
       </c>
       <c r="B83" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>327</v>
+      <c r="D83" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -7860,148 +7863,148 @@
         <v/>
       </c>
       <c r="B84" t="s">
-        <v>331</v>
+        <v>268</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
-        <f>IF(ISNA(VLOOKUP(#REF!,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>337</v>
+        <f>IF(ISNA(VLOOKUP(B85,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
+        <v/>
+      </c>
+      <c r="B85" t="s">
+        <v>268</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D85" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D85" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f>IF(ISNA(VLOOKUP(B86,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>338</v>
+      <c r="B86" t="s">
+        <v>268</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D86" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D86" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <f>IF(ISNA(VLOOKUP(B87,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>340</v>
+      <c r="B87" t="s">
+        <v>268</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D87" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D87" s="4" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
         <f>IF(ISNA(VLOOKUP(B88,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>341</v>
+      <c r="B88" t="s">
+        <v>269</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D88" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D88" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
         <f>IF(ISNA(VLOOKUP(B89,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>342</v>
+      <c r="B89" t="s">
+        <v>269</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D89" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D89" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <f>IF(ISNA(VLOOKUP(B90,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>343</v>
+      <c r="B90" t="s">
+        <v>269</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D90" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D90" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f>IF(ISNA(VLOOKUP(B91,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>344</v>
+      <c r="B91" t="s">
+        <v>269</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D91" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <f>IF(ISNA(VLOOKUP(B92,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>345</v>
+      <c r="B92" t="s">
+        <v>269</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D92" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D92" s="4" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <f>IF(ISNA(VLOOKUP(B93,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>346</v>
+      <c r="B93" t="s">
+        <v>375</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D93" t="s">
-        <v>763</v>
+      <c r="D93" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -8010,13 +8013,13 @@
         <v/>
       </c>
       <c r="B94" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>335</v>
+      <c r="D94" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -8025,13 +8028,13 @@
         <v/>
       </c>
       <c r="B95" t="s">
-        <v>336</v>
+        <v>426</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>335</v>
+      <c r="D95" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -8040,13 +8043,13 @@
         <v/>
       </c>
       <c r="B96" t="s">
-        <v>337</v>
+        <v>426</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>335</v>
+        <v>427</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -8055,13 +8058,13 @@
         <v/>
       </c>
       <c r="B97" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -8070,13 +8073,13 @@
         <v/>
       </c>
       <c r="B98" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>335</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -8085,13 +8088,13 @@
         <v/>
       </c>
       <c r="B99" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -8100,13 +8103,13 @@
         <v/>
       </c>
       <c r="B100" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>335</v>
+        <v>725</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -8115,13 +8118,13 @@
         <v/>
       </c>
       <c r="B101" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -8130,13 +8133,13 @@
         <v/>
       </c>
       <c r="B102" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>335</v>
+        <v>725</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -8145,13 +8148,13 @@
         <v/>
       </c>
       <c r="B103" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -8160,13 +8163,13 @@
         <v/>
       </c>
       <c r="B104" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>335</v>
+        <v>725</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -8175,13 +8178,13 @@
         <v/>
       </c>
       <c r="B105" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>335</v>
+      <c r="D105" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -8190,13 +8193,13 @@
         <v/>
       </c>
       <c r="B106" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -8205,13 +8208,13 @@
         <v/>
       </c>
       <c r="B107" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D107" t="s">
-        <v>349</v>
+      <c r="D107" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -8220,13 +8223,13 @@
         <v/>
       </c>
       <c r="B108" t="s">
-        <v>321</v>
+        <v>380</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -8235,13 +8238,13 @@
         <v/>
       </c>
       <c r="B109" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>350</v>
+      <c r="D109" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -8250,13 +8253,13 @@
         <v/>
       </c>
       <c r="B110" t="s">
-        <v>294</v>
+        <v>402</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>350</v>
+        <v>403</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -8265,13 +8268,13 @@
         <v/>
       </c>
       <c r="B111" t="s">
-        <v>295</v>
+        <v>404</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>350</v>
+        <v>403</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -8280,13 +8283,13 @@
         <v/>
       </c>
       <c r="B112" t="s">
-        <v>351</v>
+        <v>405</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -8295,13 +8298,13 @@
         <v/>
       </c>
       <c r="B113" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -8310,13 +8313,13 @@
         <v/>
       </c>
       <c r="B114" t="s">
-        <v>354</v>
+        <v>246</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>352</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -8325,13 +8328,13 @@
         <v/>
       </c>
       <c r="B115" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>355</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -8340,13 +8343,13 @@
         <v/>
       </c>
       <c r="B116" t="s">
-        <v>307</v>
+        <v>248</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>355</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -8355,13 +8358,13 @@
         <v/>
       </c>
       <c r="B117" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -8370,13 +8373,13 @@
         <v/>
       </c>
       <c r="B118" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -8385,13 +8388,13 @@
         <v/>
       </c>
       <c r="B119" t="s">
-        <v>357</v>
+        <v>407</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>355</v>
+        <v>408</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -8400,13 +8403,13 @@
         <v/>
       </c>
       <c r="B120" t="s">
-        <v>358</v>
+        <v>409</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>355</v>
+        <v>410</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -8415,13 +8418,13 @@
         <v/>
       </c>
       <c r="B121" t="s">
-        <v>359</v>
+        <v>288</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>355</v>
+        <v>279</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -8430,13 +8433,13 @@
         <v/>
       </c>
       <c r="B122" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D122" s="4" t="s">
-        <v>364</v>
+      <c r="D122" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -8445,13 +8448,13 @@
         <v/>
       </c>
       <c r="B123" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -8460,13 +8463,13 @@
         <v/>
       </c>
       <c r="B124" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D124" s="4" t="s">
-        <v>370</v>
+      <c r="D124" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -8475,13 +8478,13 @@
         <v/>
       </c>
       <c r="B125" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -8490,13 +8493,13 @@
         <v/>
       </c>
       <c r="B126" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -8505,13 +8508,13 @@
         <v/>
       </c>
       <c r="B127" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>373</v>
+        <v>271</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -8520,13 +8523,13 @@
         <v/>
       </c>
       <c r="B128" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>373</v>
+        <v>271</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -8535,13 +8538,13 @@
         <v/>
       </c>
       <c r="B129" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>373</v>
+        <v>271</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -8550,13 +8553,13 @@
         <v/>
       </c>
       <c r="B130" t="s">
-        <v>374</v>
+        <v>249</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>373</v>
+        <v>245</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -8565,13 +8568,13 @@
         <v/>
       </c>
       <c r="B131" t="s">
-        <v>375</v>
+        <v>261</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>373</v>
+        <v>258</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -8580,28 +8583,28 @@
         <v/>
       </c>
       <c r="B132" t="s">
-        <v>376</v>
+        <v>261</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
         <f>IF(ISNA(VLOOKUP(B133,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B133" t="s">
-        <v>377</v>
+      <c r="B133" s="2" t="s">
+        <v>738</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D133" s="4" t="s">
-        <v>373</v>
+      <c r="D133" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -8610,13 +8613,13 @@
         <v/>
       </c>
       <c r="B134" t="s">
-        <v>378</v>
+        <v>289</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>373</v>
+        <v>279</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -8625,13 +8628,13 @@
         <v/>
       </c>
       <c r="B135" t="s">
-        <v>379</v>
+        <v>290</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>373</v>
+        <v>279</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -8640,28 +8643,28 @@
         <v/>
       </c>
       <c r="B136" t="s">
-        <v>380</v>
+        <v>291</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" t="str">
         <f>IF(ISNA(VLOOKUP(B137,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B137" t="s">
-        <v>381</v>
+      <c r="B137" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D137" s="4" t="s">
-        <v>373</v>
+      <c r="D137" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -8670,28 +8673,28 @@
         <v/>
       </c>
       <c r="B138" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
         <f>IF(ISNA(VLOOKUP(B139,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B139" t="s">
-        <v>383</v>
+      <c r="B139" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D139" s="4" t="s">
-        <v>373</v>
+      <c r="D139" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -8700,28 +8703,28 @@
         <v/>
       </c>
       <c r="B140" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
         <f>IF(ISNA(VLOOKUP(B141,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B141" t="s">
-        <v>385</v>
+      <c r="B141" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D141" s="4" t="s">
-        <v>373</v>
+      <c r="D141" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -8730,13 +8733,13 @@
         <v/>
       </c>
       <c r="B142" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -8745,13 +8748,13 @@
         <v/>
       </c>
       <c r="B143" t="s">
-        <v>25</v>
+        <v>314</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>373</v>
+        <v>313</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -8760,28 +8763,28 @@
         <v/>
       </c>
       <c r="B144" t="s">
-        <v>387</v>
+        <v>314</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" t="str">
         <f>IF(ISNA(VLOOKUP(B145,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B145" t="s">
-        <v>388</v>
+      <c r="B145" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D145" s="4" t="s">
-        <v>373</v>
+      <c r="D145" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -8790,13 +8793,13 @@
         <v/>
       </c>
       <c r="B146" t="s">
-        <v>305</v>
+        <v>348</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D146" s="4" t="s">
-        <v>373</v>
+      <c r="D146" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -8805,13 +8808,13 @@
         <v/>
       </c>
       <c r="B147" t="s">
-        <v>389</v>
+        <v>250</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>373</v>
+        <v>245</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -8820,13 +8823,13 @@
         <v/>
       </c>
       <c r="B148" t="s">
-        <v>390</v>
+        <v>251</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>373</v>
+        <v>245</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -8835,13 +8838,13 @@
         <v/>
       </c>
       <c r="B149" t="s">
-        <v>268</v>
+        <v>354</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -8850,13 +8853,13 @@
         <v/>
       </c>
       <c r="B150" t="s">
-        <v>269</v>
+        <v>395</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -8865,13 +8868,13 @@
         <v/>
       </c>
       <c r="B151" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>392</v>
+        <v>279</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -8880,13 +8883,13 @@
         <v/>
       </c>
       <c r="B152" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -8895,13 +8898,13 @@
         <v/>
       </c>
       <c r="B153" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>392</v>
+        <v>279</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -8910,13 +8913,13 @@
         <v/>
       </c>
       <c r="B154" t="s">
-        <v>321</v>
+        <v>381</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -8925,13 +8928,13 @@
         <v/>
       </c>
       <c r="B155" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -8940,13 +8943,13 @@
         <v/>
       </c>
       <c r="B156" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -8955,13 +8958,13 @@
         <v/>
       </c>
       <c r="B157" t="s">
-        <v>395</v>
+        <v>262</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>393</v>
+        <v>258</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -8970,13 +8973,13 @@
         <v/>
       </c>
       <c r="B158" t="s">
-        <v>309</v>
+        <v>415</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -8985,13 +8988,13 @@
         <v/>
       </c>
       <c r="B159" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>396</v>
+        <v>258</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -9000,13 +9003,13 @@
         <v/>
       </c>
       <c r="B160" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -9015,13 +9018,13 @@
         <v/>
       </c>
       <c r="B161" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>396</v>
+        <v>271</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -9030,13 +9033,13 @@
         <v/>
       </c>
       <c r="B162" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D162" s="4" t="s">
-        <v>396</v>
+      <c r="D162" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -9045,13 +9048,13 @@
         <v/>
       </c>
       <c r="B163" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D163" t="s">
-        <v>741</v>
+      <c r="D163" s="4" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -9060,13 +9063,13 @@
         <v/>
       </c>
       <c r="B164" t="s">
-        <v>236</v>
+        <v>366</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D164" t="s">
-        <v>742</v>
+        <v>767</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -9075,13 +9078,13 @@
         <v/>
       </c>
       <c r="B165" t="s">
-        <v>237</v>
+        <v>367</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D165" t="s">
-        <v>743</v>
+        <v>768</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -9090,13 +9093,13 @@
         <v/>
       </c>
       <c r="B166" t="s">
-        <v>238</v>
+        <v>309</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D166" t="s">
-        <v>744</v>
+      <c r="D166" s="4" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -9105,13 +9108,13 @@
         <v/>
       </c>
       <c r="B167" t="s">
-        <v>239</v>
+        <v>309</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D167" t="s">
-        <v>745</v>
+      <c r="D167" s="4" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -9120,13 +9123,13 @@
         <v/>
       </c>
       <c r="B168" t="s">
-        <v>240</v>
+        <v>309</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D168" t="s">
-        <v>746</v>
+      <c r="D168" s="4" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -9135,26 +9138,28 @@
         <v/>
       </c>
       <c r="B169" t="s">
-        <v>241</v>
+        <v>416</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D169" t="s">
-        <v>747</v>
+        <v>417</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="str">
         <f>IF(ISNA(VLOOKUP(B170,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B170" s="2"/>
+        <v/>
+      </c>
+      <c r="B170" t="s">
+        <v>322</v>
+      </c>
       <c r="C170" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D170" s="11" t="s">
-        <v>748</v>
+      <c r="D170" s="4" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -9163,13 +9168,13 @@
         <v/>
       </c>
       <c r="B171" t="s">
-        <v>242</v>
+        <v>322</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D171" t="s">
-        <v>749</v>
+      <c r="D171" s="4" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -9178,13 +9183,13 @@
         <v/>
       </c>
       <c r="B172" t="s">
-        <v>243</v>
+        <v>322</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D172" t="s">
-        <v>750</v>
+        <v>770</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -9193,26 +9198,28 @@
         <v/>
       </c>
       <c r="B173" t="s">
-        <v>398</v>
+        <v>322</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D173" s="4" t="s">
-        <v>399</v>
+      <c r="D173" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="str">
         <f>IF(ISNA(VLOOKUP(B174,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B174" s="2"/>
+        <v/>
+      </c>
+      <c r="B174" t="s">
+        <v>322</v>
+      </c>
       <c r="C174" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D174" s="11" t="s">
-        <v>751</v>
+      <c r="D174" s="4" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -9221,13 +9228,13 @@
         <v/>
       </c>
       <c r="B175" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D175" t="s">
-        <v>752</v>
+      <c r="D175" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -9236,13 +9243,13 @@
         <v/>
       </c>
       <c r="B176" t="s">
-        <v>400</v>
+        <v>294</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>401</v>
+        <v>310</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -9251,13 +9258,13 @@
         <v/>
       </c>
       <c r="B177" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D177" t="s">
-        <v>753</v>
+      <c r="D177" s="4" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -9266,26 +9273,28 @@
         <v/>
       </c>
       <c r="B178" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D178" t="s">
-        <v>754</v>
+      <c r="D178" s="4" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="str">
         <f>IF(ISNA(VLOOKUP(B179,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B179" s="2"/>
+        <v/>
+      </c>
+      <c r="B179" t="s">
+        <v>294</v>
+      </c>
       <c r="C179" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D179" s="11" t="s">
-        <v>757</v>
+      <c r="D179" s="4" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -9294,13 +9303,13 @@
         <v/>
       </c>
       <c r="B180" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D180" t="s">
-        <v>755</v>
+        <v>770</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -9309,13 +9318,13 @@
         <v/>
       </c>
       <c r="B181" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D181" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -9324,26 +9333,28 @@
         <v/>
       </c>
       <c r="B182" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D182" t="s">
-        <v>755</v>
+      <c r="D182" s="4" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="str">
         <f>IF(ISNA(VLOOKUP(B183,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B183" s="2"/>
+        <v/>
+      </c>
+      <c r="B183" t="s">
+        <v>295</v>
+      </c>
       <c r="C183" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D183" s="11" t="s">
-        <v>756</v>
+      <c r="D183" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -9352,13 +9363,13 @@
         <v/>
       </c>
       <c r="B184" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D184" t="s">
-        <v>770</v>
+      <c r="D184" s="4" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -9367,13 +9378,13 @@
         <v/>
       </c>
       <c r="B185" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D185" t="s">
-        <v>770</v>
+      <c r="D185" s="4" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -9382,13 +9393,13 @@
         <v/>
       </c>
       <c r="B186" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D186" t="s">
-        <v>770</v>
+      <c r="D186" s="4" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -9402,68 +9413,68 @@
       <c r="C187" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D187" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D187" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="str">
         <f>IF(ISNA(VLOOKUP(B188,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>738</v>
+      <c r="B188" t="s">
+        <v>295</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D188" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="str">
         <f>IF(ISNA(VLOOKUP(B189,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>735</v>
+      <c r="B189" t="s">
+        <v>295</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D189" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="str">
         <f>IF(ISNA(VLOOKUP(B190,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>418</v>
+      <c r="B190" t="s">
+        <v>295</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D190" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D190" s="4" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" t="str">
         <f>IF(ISNA(VLOOKUP(B191,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B191" t="s">
-        <v>402</v>
+      <c r="B191" s="2" t="s">
+        <v>735</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D191" s="4" t="s">
-        <v>403</v>
+      <c r="D191" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -9472,28 +9483,28 @@
         <v/>
       </c>
       <c r="B192" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D192" s="4" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D192" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" t="str">
         <f>IF(ISNA(VLOOKUP(B193,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B193" t="s">
-        <v>405</v>
+      <c r="B193" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D193" s="4" t="s">
-        <v>403</v>
+      <c r="D193" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -9502,13 +9513,13 @@
         <v/>
       </c>
       <c r="B194" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -9517,13 +9528,13 @@
         <v/>
       </c>
       <c r="B195" t="s">
-        <v>328</v>
+        <v>252</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D195" t="s">
-        <v>760</v>
+      <c r="D195" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -9532,13 +9543,13 @@
         <v/>
       </c>
       <c r="B196" t="s">
-        <v>329</v>
+        <v>253</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D196" t="s">
-        <v>760</v>
+      <c r="D196" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -9547,13 +9558,13 @@
         <v/>
       </c>
       <c r="B197" t="s">
-        <v>330</v>
+        <v>241</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D197" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -9562,13 +9573,13 @@
         <v/>
       </c>
       <c r="B198" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -9577,13 +9588,13 @@
         <v/>
       </c>
       <c r="B199" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -9592,26 +9603,28 @@
         <v/>
       </c>
       <c r="B200" t="s">
-        <v>333</v>
+        <v>385</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D200" t="s">
-        <v>761</v>
+      <c r="D200" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="str">
         <f>IF(ISNA(VLOOKUP(B201,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v>Not listed</v>
-      </c>
-      <c r="B201" s="2"/>
+        <v/>
+      </c>
+      <c r="B201" t="s">
+        <v>391</v>
+      </c>
       <c r="C201" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D201" s="11" t="s">
-        <v>762</v>
+      <c r="D201" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -9620,13 +9633,13 @@
         <v/>
       </c>
       <c r="B202" t="s">
-        <v>411</v>
+        <v>296</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>412</v>
+        <v>279</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -9635,13 +9648,13 @@
         <v/>
       </c>
       <c r="B203" t="s">
-        <v>413</v>
+        <v>369</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>414</v>
+        <v>370</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -9650,13 +9663,13 @@
         <v/>
       </c>
       <c r="B204" t="s">
-        <v>415</v>
+        <v>371</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>414</v>
+        <v>370</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -9665,13 +9678,13 @@
         <v/>
       </c>
       <c r="B205" t="s">
-        <v>283</v>
+        <v>372</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D205" t="s">
-        <v>764</v>
+      <c r="D205" s="4" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -9680,13 +9693,13 @@
         <v/>
       </c>
       <c r="B206" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D206" t="s">
-        <v>764</v>
+      <c r="D206" s="4" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -9695,13 +9708,13 @@
         <v/>
       </c>
       <c r="B207" t="s">
-        <v>267</v>
+        <v>422</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D207" t="s">
-        <v>764</v>
+      <c r="D207" s="4" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -9710,13 +9723,13 @@
         <v/>
       </c>
       <c r="B208" t="s">
-        <v>269</v>
+        <v>424</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D208" t="s">
-        <v>764</v>
+      <c r="D208" s="4" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -9725,13 +9738,13 @@
         <v/>
       </c>
       <c r="B209" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D209" t="s">
-        <v>764</v>
+      <c r="D209" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -9740,13 +9753,13 @@
         <v/>
       </c>
       <c r="B210" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D210" t="s">
-        <v>764</v>
+      <c r="D210" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -9755,13 +9768,13 @@
         <v/>
       </c>
       <c r="B211" t="s">
-        <v>363</v>
+        <v>242</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D211" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -9770,13 +9783,13 @@
         <v/>
       </c>
       <c r="B212" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D212" t="s">
-        <v>764</v>
+      <c r="D212" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -9785,13 +9798,13 @@
         <v/>
       </c>
       <c r="B213" t="s">
-        <v>294</v>
+        <v>25</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D213" t="s">
-        <v>764</v>
+      <c r="D213" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -9800,13 +9813,13 @@
         <v/>
       </c>
       <c r="B214" t="s">
-        <v>295</v>
+        <v>387</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D214" t="s">
-        <v>764</v>
+      <c r="D214" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -9815,13 +9828,13 @@
         <v/>
       </c>
       <c r="B215" t="s">
-        <v>306</v>
+        <v>388</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D215" t="s">
-        <v>765</v>
+      <c r="D215" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -9830,13 +9843,13 @@
         <v/>
       </c>
       <c r="B216" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D216" t="s">
-        <v>765</v>
+      <c r="D216" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -9845,13 +9858,13 @@
         <v/>
       </c>
       <c r="B217" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D217" t="s">
-        <v>765</v>
+      <c r="D217" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -9860,13 +9873,13 @@
         <v/>
       </c>
       <c r="B218" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D218" t="s">
-        <v>766</v>
+      <c r="D218" s="4" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -9875,13 +9888,13 @@
         <v/>
       </c>
       <c r="B219" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D219" t="s">
-        <v>767</v>
+      <c r="D219" s="4" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -9890,13 +9903,13 @@
         <v/>
       </c>
       <c r="B220" t="s">
-        <v>367</v>
+        <v>254</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D220" t="s">
-        <v>768</v>
+      <c r="D220" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -9905,13 +9918,13 @@
         <v/>
       </c>
       <c r="B221" t="s">
-        <v>377</v>
+        <v>299</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>725</v>
+        <v>279</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -9920,13 +9933,13 @@
         <v/>
       </c>
       <c r="B222" t="s">
-        <v>378</v>
+        <v>255</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>725</v>
+        <v>245</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -9935,43 +9948,43 @@
         <v/>
       </c>
       <c r="B223" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="str">
         <f>IF(ISNA(VLOOKUP(B224,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>726</v>
+      <c r="B224" t="s">
+        <v>305</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="str">
         <f>IF(ISNA(VLOOKUP(B225,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>728</v>
+      <c r="B225" t="s">
+        <v>305</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>725</v>
+        <v>311</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -9980,13 +9993,13 @@
         <v/>
       </c>
       <c r="B226" t="s">
-        <v>416</v>
+        <v>305</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D226" t="s">
-        <v>417</v>
+      <c r="D226" s="4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -9995,13 +10008,13 @@
         <v/>
       </c>
       <c r="B227" t="s">
-        <v>368</v>
+        <v>305</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D227" t="s">
-        <v>769</v>
+      <c r="D227" s="4" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -10010,28 +10023,28 @@
         <v/>
       </c>
       <c r="B228" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" t="str">
         <f>IF(ISNA(VLOOKUP(B229,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B229" t="s">
-        <v>420</v>
+      <c r="B229" s="2" t="s">
+        <v>726</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>421</v>
+        <v>725</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -10040,13 +10053,13 @@
         <v/>
       </c>
       <c r="B230" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D230" t="s">
-        <v>771</v>
+      <c r="D230" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -10055,28 +10068,28 @@
         <v/>
       </c>
       <c r="B231" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" t="str">
         <f>IF(ISNA(VLOOKUP(B232,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
-      <c r="B232" t="s">
-        <v>424</v>
+      <c r="B232" s="2" t="s">
+        <v>728</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>423</v>
+        <v>725</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -10085,13 +10098,13 @@
         <v/>
       </c>
       <c r="B233" t="s">
-        <v>426</v>
+        <v>359</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D233" t="s">
-        <v>425</v>
+      <c r="D233" s="4" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -10100,103 +10113,90 @@
         <v/>
       </c>
       <c r="B234" t="s">
-        <v>268</v>
+        <v>390</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>724</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>772</v>
+        <v>373</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="str">
         <f>IF(ISNA(VLOOKUP(B235,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B235" t="s">
-        <v>269</v>
+        <v>Not listed</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D235" s="4" t="s">
-        <v>772</v>
+      <c r="D235" s="11" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="str">
         <f>IF(ISNA(VLOOKUP(B236,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B236" t="s">
-        <v>322</v>
-      </c>
+        <v>Not listed</v>
+      </c>
+      <c r="B236" s="2"/>
       <c r="C236" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D236" s="4" t="s">
-        <v>772</v>
+      <c r="D236" s="11" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="str">
         <f>IF(ISNA(VLOOKUP(B237,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B237" t="s">
-        <v>294</v>
-      </c>
+        <v>Not listed</v>
+      </c>
+      <c r="B237" s="2"/>
       <c r="C237" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D237" s="4" t="s">
-        <v>772</v>
+      <c r="D237" s="11" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="str">
         <f>IF(ISNA(VLOOKUP(B238,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B238" t="s">
-        <v>295</v>
-      </c>
+        <v>Not listed</v>
+      </c>
+      <c r="B238" s="2"/>
       <c r="C238" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D238" s="4" t="s">
-        <v>772</v>
+      <c r="D238" s="11" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="str">
         <f>IF(ISNA(VLOOKUP(B239,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B239" t="s">
-        <v>426</v>
-      </c>
+        <v>Not listed</v>
+      </c>
+      <c r="B239" s="2"/>
       <c r="C239" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D239" s="4" t="s">
-        <v>427</v>
+      <c r="D239" s="11" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="str">
         <f>IF(ISNA(VLOOKUP(B240,Definitions!B$2:B$1638,1,FALSE)),"Not listed","")</f>
-        <v/>
-      </c>
-      <c r="B240" t="s">
-        <v>428</v>
-      </c>
+        <v>Not listed</v>
+      </c>
+      <c r="B240" s="2"/>
       <c r="C240" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D240" s="4" t="s">
-        <v>429</v>
+      <c r="D240" s="11" t="s">
+        <v>762</v>
       </c>
     </row>
   </sheetData>
